--- a/AAII_Financials/Yearly/MBT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MBT_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>MBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7583800</v>
+        <v>6760700</v>
       </c>
       <c r="E8" s="3">
-        <v>6993600</v>
+        <v>6410800</v>
       </c>
       <c r="F8" s="3">
-        <v>6879600</v>
+        <v>5934400</v>
       </c>
       <c r="G8" s="3">
-        <v>6736600</v>
+        <v>6186800</v>
       </c>
       <c r="H8" s="3">
-        <v>6484600</v>
+        <v>6058300</v>
       </c>
       <c r="I8" s="3">
-        <v>6291400</v>
+        <v>5831600</v>
       </c>
       <c r="J8" s="3">
+        <v>5657900</v>
+      </c>
+      <c r="K8" s="3">
         <v>5972400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5368000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2815900</v>
+        <v>2577800</v>
       </c>
       <c r="E9" s="3">
-        <v>2706000</v>
+        <v>2416300</v>
       </c>
       <c r="F9" s="3">
-        <v>2800400</v>
+        <v>2315100</v>
       </c>
       <c r="G9" s="3">
-        <v>2617200</v>
+        <v>2518400</v>
       </c>
       <c r="H9" s="3">
-        <v>3612300</v>
+        <v>2353700</v>
       </c>
       <c r="I9" s="3">
-        <v>1690700</v>
+        <v>3248600</v>
       </c>
       <c r="J9" s="3">
+        <v>1520400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1718800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1556000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4767900</v>
+        <v>4182900</v>
       </c>
       <c r="E10" s="3">
-        <v>4287500</v>
+        <v>3994500</v>
       </c>
       <c r="F10" s="3">
-        <v>4079200</v>
+        <v>3619300</v>
       </c>
       <c r="G10" s="3">
-        <v>4119400</v>
+        <v>3668500</v>
       </c>
       <c r="H10" s="3">
-        <v>2872300</v>
+        <v>3704600</v>
       </c>
       <c r="I10" s="3">
-        <v>4600700</v>
+        <v>2583000</v>
       </c>
       <c r="J10" s="3">
+        <v>4137500</v>
+      </c>
+      <c r="K10" s="3">
         <v>4253600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3812000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>60700</v>
+        <v>108000</v>
       </c>
       <c r="E14" s="3">
-        <v>59600</v>
+        <v>54100</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>94800</v>
       </c>
       <c r="G14" s="3">
-        <v>55500</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>49900</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1651400</v>
+        <v>1367200</v>
       </c>
       <c r="E15" s="3">
-        <v>1261800</v>
+        <v>1354500</v>
       </c>
       <c r="F15" s="3">
-        <v>1288200</v>
+        <v>1049900</v>
       </c>
       <c r="G15" s="3">
-        <v>1229100</v>
+        <v>1158500</v>
       </c>
       <c r="H15" s="3">
-        <v>1180000</v>
+        <v>1105400</v>
       </c>
       <c r="I15" s="3">
-        <v>1156700</v>
+        <v>1061200</v>
       </c>
       <c r="J15" s="3">
+        <v>1040200</v>
+      </c>
+      <c r="K15" s="3">
         <v>1072300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>984600</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5749300</v>
+        <v>5139200</v>
       </c>
       <c r="E17" s="3">
-        <v>5476100</v>
+        <v>4862700</v>
       </c>
       <c r="F17" s="3">
-        <v>5495300</v>
+        <v>4653000</v>
       </c>
       <c r="G17" s="3">
-        <v>5253600</v>
+        <v>4941900</v>
       </c>
       <c r="H17" s="3">
-        <v>4907800</v>
+        <v>4724600</v>
       </c>
       <c r="I17" s="3">
-        <v>4684700</v>
+        <v>4413600</v>
       </c>
       <c r="J17" s="3">
+        <v>4212900</v>
+      </c>
+      <c r="K17" s="3">
         <v>4491400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4131500</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1834600</v>
+        <v>1621500</v>
       </c>
       <c r="E18" s="3">
-        <v>1517400</v>
+        <v>1548100</v>
       </c>
       <c r="F18" s="3">
-        <v>1384300</v>
+        <v>1281400</v>
       </c>
       <c r="G18" s="3">
-        <v>1483000</v>
+        <v>1244900</v>
       </c>
       <c r="H18" s="3">
-        <v>1576800</v>
+        <v>1333700</v>
       </c>
       <c r="I18" s="3">
-        <v>1606800</v>
+        <v>1418000</v>
       </c>
       <c r="J18" s="3">
+        <v>1445000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1481000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1236500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,88 +1049,95 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>106400</v>
+        <v>-61700</v>
       </c>
       <c r="E20" s="3">
-        <v>35400</v>
+        <v>86300</v>
       </c>
       <c r="F20" s="3">
-        <v>53500</v>
+        <v>21000</v>
       </c>
       <c r="G20" s="3">
-        <v>-29900</v>
+        <v>48100</v>
       </c>
       <c r="H20" s="3">
-        <v>-353100</v>
+        <v>-26900</v>
       </c>
       <c r="I20" s="3">
-        <v>-80100</v>
+        <v>-317500</v>
       </c>
       <c r="J20" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-172900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-317800</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3604900</v>
+        <v>3066700</v>
       </c>
       <c r="E21" s="3">
-        <v>2824300</v>
+        <v>3108100</v>
       </c>
       <c r="F21" s="3">
-        <v>2762500</v>
+        <v>2428400</v>
       </c>
       <c r="G21" s="3">
-        <v>2765300</v>
+        <v>2466100</v>
       </c>
       <c r="H21" s="3">
-        <v>2417300</v>
+        <v>2468800</v>
       </c>
       <c r="I21" s="3">
-        <v>2692200</v>
+        <v>2157500</v>
       </c>
       <c r="J21" s="3">
+        <v>2405100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2388500</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>616900</v>
+        <v>610200</v>
       </c>
       <c r="E22" s="3">
-        <v>359700</v>
+        <v>539300</v>
       </c>
       <c r="F22" s="3">
-        <v>370300</v>
+        <v>322800</v>
       </c>
       <c r="G22" s="3">
-        <v>395100</v>
+        <v>333000</v>
       </c>
       <c r="H22" s="3">
-        <v>250500</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+        <v>355400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>225300</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1324000</v>
+        <v>949600</v>
       </c>
       <c r="E23" s="3">
-        <v>1193200</v>
+        <v>1095100</v>
       </c>
       <c r="F23" s="3">
-        <v>1067500</v>
+        <v>979600</v>
       </c>
       <c r="G23" s="3">
-        <v>1058000</v>
+        <v>960000</v>
       </c>
       <c r="H23" s="3">
-        <v>973100</v>
+        <v>951400</v>
       </c>
       <c r="I23" s="3">
-        <v>1526700</v>
+        <v>875100</v>
       </c>
       <c r="J23" s="3">
+        <v>1373000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1308100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>918700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>267900</v>
+        <v>223700</v>
       </c>
       <c r="E24" s="3">
-        <v>299600</v>
+        <v>218600</v>
       </c>
       <c r="F24" s="3">
-        <v>239000</v>
+        <v>252500</v>
       </c>
       <c r="G24" s="3">
-        <v>220000</v>
+        <v>215000</v>
       </c>
       <c r="H24" s="3">
-        <v>251200</v>
+        <v>197800</v>
       </c>
       <c r="I24" s="3">
-        <v>310000</v>
+        <v>225900</v>
       </c>
       <c r="J24" s="3">
+        <v>278800</v>
+      </c>
+      <c r="K24" s="3">
         <v>306100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>239100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1056100</v>
+        <v>725900</v>
       </c>
       <c r="E26" s="3">
-        <v>893600</v>
+        <v>876500</v>
       </c>
       <c r="F26" s="3">
-        <v>828500</v>
+        <v>727100</v>
       </c>
       <c r="G26" s="3">
-        <v>838000</v>
+        <v>745100</v>
       </c>
       <c r="H26" s="3">
-        <v>721900</v>
+        <v>753600</v>
       </c>
       <c r="I26" s="3">
-        <v>1216700</v>
+        <v>649200</v>
       </c>
       <c r="J26" s="3">
+        <v>1094200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1002000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>679600</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1040500</v>
+        <v>713800</v>
       </c>
       <c r="E27" s="3">
-        <v>884900</v>
+        <v>862500</v>
       </c>
       <c r="F27" s="3">
-        <v>828900</v>
+        <v>719400</v>
       </c>
       <c r="G27" s="3">
-        <v>870900</v>
+        <v>745400</v>
       </c>
       <c r="H27" s="3">
-        <v>718900</v>
+        <v>783200</v>
       </c>
       <c r="I27" s="3">
-        <v>1201700</v>
+        <v>646500</v>
       </c>
       <c r="J27" s="3">
+        <v>1080700</v>
+      </c>
+      <c r="K27" s="3">
         <v>986700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>623800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-932400</v>
+        <v>56500</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-765300</v>
       </c>
       <c r="F29" s="3">
-        <v>-63500</v>
+        <v>76400</v>
       </c>
       <c r="G29" s="3">
-        <v>-89500</v>
+        <v>-57100</v>
       </c>
       <c r="H29" s="3">
-        <v>91200</v>
+        <v>-80500</v>
       </c>
       <c r="I29" s="3">
-        <v>58900</v>
+        <v>82000</v>
       </c>
       <c r="J29" s="3">
+        <v>53000</v>
+      </c>
+      <c r="K29" s="3">
         <v>-518600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>27800</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-106400</v>
+        <v>61700</v>
       </c>
       <c r="E32" s="3">
-        <v>-35400</v>
+        <v>-86300</v>
       </c>
       <c r="F32" s="3">
-        <v>-53500</v>
+        <v>-21000</v>
       </c>
       <c r="G32" s="3">
-        <v>29900</v>
+        <v>-48100</v>
       </c>
       <c r="H32" s="3">
-        <v>353100</v>
+        <v>26900</v>
       </c>
       <c r="I32" s="3">
-        <v>80100</v>
+        <v>317500</v>
       </c>
       <c r="J32" s="3">
+        <v>72000</v>
+      </c>
+      <c r="K32" s="3">
         <v>172900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>317800</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>108100</v>
+        <v>770200</v>
       </c>
       <c r="E33" s="3">
-        <v>884900</v>
+        <v>97200</v>
       </c>
       <c r="F33" s="3">
-        <v>765400</v>
+        <v>795800</v>
       </c>
       <c r="G33" s="3">
-        <v>781400</v>
+        <v>688300</v>
       </c>
       <c r="H33" s="3">
-        <v>810100</v>
+        <v>702700</v>
       </c>
       <c r="I33" s="3">
-        <v>1260700</v>
+        <v>728500</v>
       </c>
       <c r="J33" s="3">
+        <v>1133700</v>
+      </c>
+      <c r="K33" s="3">
         <v>468000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>651700</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>108100</v>
+        <v>770200</v>
       </c>
       <c r="E35" s="3">
-        <v>884900</v>
+        <v>97200</v>
       </c>
       <c r="F35" s="3">
-        <v>765400</v>
+        <v>795800</v>
       </c>
       <c r="G35" s="3">
-        <v>781400</v>
+        <v>688300</v>
       </c>
       <c r="H35" s="3">
-        <v>810100</v>
+        <v>702700</v>
       </c>
       <c r="I35" s="3">
-        <v>1260700</v>
+        <v>728500</v>
       </c>
       <c r="J35" s="3">
+        <v>1133700</v>
+      </c>
+      <c r="K35" s="3">
         <v>468000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>651700</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1327500</v>
+        <v>542900</v>
       </c>
       <c r="E41" s="3">
-        <v>483000</v>
+        <v>1198900</v>
       </c>
       <c r="F41" s="3">
-        <v>291600</v>
+        <v>436200</v>
       </c>
       <c r="G41" s="3">
-        <v>528400</v>
+        <v>263400</v>
       </c>
       <c r="H41" s="3">
-        <v>969700</v>
+        <v>477200</v>
       </c>
       <c r="I41" s="3">
-        <v>483400</v>
+        <v>875700</v>
       </c>
       <c r="J41" s="3">
+        <v>436500</v>
+      </c>
+      <c r="K41" s="3">
         <v>347600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>28500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1046900</v>
+        <v>572900</v>
       </c>
       <c r="E42" s="3">
-        <v>711900</v>
+        <v>945400</v>
       </c>
       <c r="F42" s="3">
-        <v>120600</v>
+        <v>643000</v>
       </c>
       <c r="G42" s="3">
-        <v>787000</v>
+        <v>108900</v>
       </c>
       <c r="H42" s="3">
-        <v>157000</v>
+        <v>710700</v>
       </c>
       <c r="I42" s="3">
-        <v>462100</v>
+        <v>141800</v>
       </c>
       <c r="J42" s="3">
+        <v>417300</v>
+      </c>
+      <c r="K42" s="3">
         <v>63700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1300</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>902000</v>
+        <v>839800</v>
       </c>
       <c r="E43" s="3">
-        <v>869200</v>
+        <v>814600</v>
       </c>
       <c r="F43" s="3">
-        <v>693600</v>
+        <v>785000</v>
       </c>
       <c r="G43" s="3">
-        <v>882200</v>
+        <v>626400</v>
       </c>
       <c r="H43" s="3">
-        <v>1400300</v>
+        <v>796700</v>
       </c>
       <c r="I43" s="3">
-        <v>1361700</v>
+        <v>1264600</v>
       </c>
       <c r="J43" s="3">
+        <v>1229700</v>
+      </c>
+      <c r="K43" s="3">
         <v>617800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>294500</v>
+        <v>221200</v>
       </c>
       <c r="E44" s="3">
-        <v>157800</v>
+        <v>266000</v>
       </c>
       <c r="F44" s="3">
-        <v>226300</v>
+        <v>142500</v>
       </c>
       <c r="G44" s="3">
-        <v>229100</v>
+        <v>204300</v>
       </c>
       <c r="H44" s="3">
-        <v>237200</v>
+        <v>206900</v>
       </c>
       <c r="I44" s="3">
-        <v>268400</v>
+        <v>214200</v>
       </c>
       <c r="J44" s="3">
+        <v>242400</v>
+      </c>
+      <c r="K44" s="3">
         <v>135800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4500</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>130100</v>
+        <v>90400</v>
       </c>
       <c r="E45" s="3">
-        <v>83900</v>
+        <v>117500</v>
       </c>
       <c r="F45" s="3">
-        <v>104700</v>
+        <v>75800</v>
       </c>
       <c r="G45" s="3">
-        <v>84200</v>
+        <v>94600</v>
       </c>
       <c r="H45" s="3">
-        <v>323900</v>
+        <v>76000</v>
       </c>
       <c r="I45" s="3">
-        <v>225300</v>
+        <v>292500</v>
       </c>
       <c r="J45" s="3">
+        <v>203500</v>
+      </c>
+      <c r="K45" s="3">
         <v>294700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8500</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4246500</v>
+        <v>2774800</v>
       </c>
       <c r="E46" s="3">
-        <v>2305800</v>
+        <v>3835000</v>
       </c>
       <c r="F46" s="3">
-        <v>1436800</v>
+        <v>2082400</v>
       </c>
       <c r="G46" s="3">
-        <v>2510900</v>
+        <v>1297600</v>
       </c>
       <c r="H46" s="3">
-        <v>2227200</v>
+        <v>2267600</v>
       </c>
       <c r="I46" s="3">
-        <v>1717100</v>
+        <v>2011400</v>
       </c>
       <c r="J46" s="3">
+        <v>1550700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1458400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>59100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1075900</v>
+        <v>1264600</v>
       </c>
       <c r="E47" s="3">
-        <v>320500</v>
+        <v>971600</v>
       </c>
       <c r="F47" s="3">
-        <v>1017500</v>
+        <v>289400</v>
       </c>
       <c r="G47" s="3">
-        <v>1144800</v>
+        <v>918900</v>
       </c>
       <c r="H47" s="3">
-        <v>856300</v>
+        <v>1033900</v>
       </c>
       <c r="I47" s="3">
-        <v>375400</v>
+        <v>773300</v>
       </c>
       <c r="J47" s="3">
+        <v>339000</v>
+      </c>
+      <c r="K47" s="3">
         <v>179200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4800</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6752200</v>
+        <v>5807800</v>
       </c>
       <c r="E48" s="3">
-        <v>4160200</v>
+        <v>6098000</v>
       </c>
       <c r="F48" s="3">
-        <v>4313500</v>
+        <v>3757100</v>
       </c>
       <c r="G48" s="3">
-        <v>4784800</v>
+        <v>3895500</v>
       </c>
       <c r="H48" s="3">
-        <v>14176500</v>
+        <v>4321200</v>
       </c>
       <c r="I48" s="3">
-        <v>8569700</v>
+        <v>12802800</v>
       </c>
       <c r="J48" s="3">
+        <v>7739300</v>
+      </c>
+      <c r="K48" s="3">
         <v>4291400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>126900</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2132700</v>
+        <v>1688400</v>
       </c>
       <c r="E49" s="3">
-        <v>1795000</v>
+        <v>1926100</v>
       </c>
       <c r="F49" s="3">
-        <v>1718200</v>
+        <v>1621000</v>
       </c>
       <c r="G49" s="3">
-        <v>1722100</v>
+        <v>1551700</v>
       </c>
       <c r="H49" s="3">
-        <v>4671000</v>
+        <v>1555300</v>
       </c>
       <c r="I49" s="3">
-        <v>2347300</v>
+        <v>4218400</v>
       </c>
       <c r="J49" s="3">
+        <v>2119900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1181100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>41300</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>256200</v>
+        <v>213300</v>
       </c>
       <c r="E52" s="3">
-        <v>119900</v>
+        <v>231400</v>
       </c>
       <c r="F52" s="3">
-        <v>111300</v>
+        <v>108300</v>
       </c>
       <c r="G52" s="3">
-        <v>154200</v>
+        <v>100500</v>
       </c>
       <c r="H52" s="3">
-        <v>471700</v>
+        <v>139300</v>
       </c>
       <c r="I52" s="3">
-        <v>140600</v>
+        <v>426000</v>
       </c>
       <c r="J52" s="3">
+        <v>127000</v>
+      </c>
+      <c r="K52" s="3">
         <v>96700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14463500</v>
+        <v>11749000</v>
       </c>
       <c r="E54" s="3">
-        <v>8701400</v>
+        <v>13062100</v>
       </c>
       <c r="F54" s="3">
-        <v>8597200</v>
+        <v>7858300</v>
       </c>
       <c r="G54" s="3">
-        <v>10316800</v>
+        <v>7764100</v>
       </c>
       <c r="H54" s="3">
-        <v>9463000</v>
+        <v>9317200</v>
       </c>
       <c r="I54" s="3">
-        <v>7551100</v>
+        <v>8546100</v>
       </c>
       <c r="J54" s="3">
+        <v>6819400</v>
+      </c>
+      <c r="K54" s="3">
         <v>7184100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>236000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>846700</v>
+        <v>1024000</v>
       </c>
       <c r="E57" s="3">
-        <v>747100</v>
+        <v>764700</v>
       </c>
       <c r="F57" s="3">
-        <v>654900</v>
+        <v>674700</v>
       </c>
       <c r="G57" s="3">
-        <v>912000</v>
+        <v>591400</v>
       </c>
       <c r="H57" s="3">
-        <v>830300</v>
+        <v>823600</v>
       </c>
       <c r="I57" s="3">
-        <v>619900</v>
+        <v>749800</v>
       </c>
       <c r="J57" s="3">
+        <v>559800</v>
+      </c>
+      <c r="K57" s="3">
         <v>368400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>25500</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>298000</v>
+        <v>1240200</v>
       </c>
       <c r="E58" s="3">
-        <v>1018000</v>
+        <v>269200</v>
       </c>
       <c r="F58" s="3">
-        <v>745400</v>
+        <v>919400</v>
       </c>
       <c r="G58" s="3">
-        <v>847900</v>
+        <v>673200</v>
       </c>
       <c r="H58" s="3">
-        <v>1012400</v>
+        <v>765800</v>
       </c>
       <c r="I58" s="3">
-        <v>661900</v>
+        <v>914300</v>
       </c>
       <c r="J58" s="3">
+        <v>597800</v>
+      </c>
+      <c r="K58" s="3">
         <v>433700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17800</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3520700</v>
+        <v>2704800</v>
       </c>
       <c r="E59" s="3">
-        <v>708700</v>
+        <v>3179600</v>
       </c>
       <c r="F59" s="3">
-        <v>613700</v>
+        <v>640000</v>
       </c>
       <c r="G59" s="3">
-        <v>733500</v>
+        <v>554200</v>
       </c>
       <c r="H59" s="3">
-        <v>1551300</v>
+        <v>662400</v>
       </c>
       <c r="I59" s="3">
-        <v>1364900</v>
+        <v>1401000</v>
       </c>
       <c r="J59" s="3">
+        <v>1232600</v>
+      </c>
+      <c r="K59" s="3">
         <v>1022300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29200</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4665500</v>
+        <v>4969000</v>
       </c>
       <c r="E60" s="3">
-        <v>2473800</v>
+        <v>4213400</v>
       </c>
       <c r="F60" s="3">
-        <v>2013900</v>
+        <v>2234100</v>
       </c>
       <c r="G60" s="3">
-        <v>2493400</v>
+        <v>1818800</v>
       </c>
       <c r="H60" s="3">
-        <v>2200800</v>
+        <v>2251800</v>
       </c>
       <c r="I60" s="3">
-        <v>1602700</v>
+        <v>1987600</v>
       </c>
       <c r="J60" s="3">
+        <v>1447400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1790700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>54900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8049900</v>
+        <v>5870200</v>
       </c>
       <c r="E61" s="3">
-        <v>3775300</v>
+        <v>7269900</v>
       </c>
       <c r="F61" s="3">
-        <v>3744000</v>
+        <v>3409500</v>
       </c>
       <c r="G61" s="3">
-        <v>4613300</v>
+        <v>3381200</v>
       </c>
       <c r="H61" s="3">
-        <v>3924600</v>
+        <v>4166300</v>
       </c>
       <c r="I61" s="3">
-        <v>3042200</v>
+        <v>3544300</v>
       </c>
       <c r="J61" s="3">
+        <v>2747400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3228000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>116400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>523400</v>
+        <v>390800</v>
       </c>
       <c r="E62" s="3">
-        <v>491000</v>
+        <v>472600</v>
       </c>
       <c r="F62" s="3">
-        <v>566300</v>
+        <v>443500</v>
       </c>
       <c r="G62" s="3">
-        <v>551500</v>
+        <v>511400</v>
       </c>
       <c r="H62" s="3">
-        <v>673100</v>
+        <v>498100</v>
       </c>
       <c r="I62" s="3">
-        <v>581800</v>
+        <v>607900</v>
       </c>
       <c r="J62" s="3">
+        <v>525500</v>
+      </c>
+      <c r="K62" s="3">
         <v>331300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13432900</v>
+        <v>11277400</v>
       </c>
       <c r="E66" s="3">
-        <v>6804600</v>
+        <v>12131300</v>
       </c>
       <c r="F66" s="3">
-        <v>6398700</v>
+        <v>6145300</v>
       </c>
       <c r="G66" s="3">
-        <v>7788600</v>
+        <v>5778700</v>
       </c>
       <c r="H66" s="3">
-        <v>6797200</v>
+        <v>7033900</v>
       </c>
       <c r="I66" s="3">
-        <v>5143200</v>
+        <v>6138600</v>
       </c>
       <c r="J66" s="3">
+        <v>4644900</v>
+      </c>
+      <c r="K66" s="3">
         <v>5435800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>182400</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1735000</v>
+        <v>1320700</v>
       </c>
       <c r="E72" s="3">
-        <v>2245200</v>
+        <v>1566900</v>
       </c>
       <c r="F72" s="3">
-        <v>2204200</v>
+        <v>2027600</v>
       </c>
       <c r="G72" s="3">
-        <v>2911300</v>
+        <v>1990600</v>
       </c>
       <c r="H72" s="3">
-        <v>8651800</v>
+        <v>2629200</v>
       </c>
       <c r="I72" s="3">
-        <v>5723500</v>
+        <v>7813400</v>
       </c>
       <c r="J72" s="3">
+        <v>5168900</v>
+      </c>
+      <c r="K72" s="3">
         <v>2342800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>81500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1030700</v>
+        <v>471500</v>
       </c>
       <c r="E76" s="3">
-        <v>1896800</v>
+        <v>930800</v>
       </c>
       <c r="F76" s="3">
-        <v>2198500</v>
+        <v>1713000</v>
       </c>
       <c r="G76" s="3">
-        <v>2528200</v>
+        <v>1985500</v>
       </c>
       <c r="H76" s="3">
-        <v>2665800</v>
+        <v>2283200</v>
       </c>
       <c r="I76" s="3">
-        <v>2407800</v>
+        <v>2407500</v>
       </c>
       <c r="J76" s="3">
+        <v>2174500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1748300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53600</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>108100</v>
+        <v>770200</v>
       </c>
       <c r="E81" s="3">
-        <v>884900</v>
+        <v>97200</v>
       </c>
       <c r="F81" s="3">
-        <v>765400</v>
+        <v>795800</v>
       </c>
       <c r="G81" s="3">
-        <v>781400</v>
+        <v>688300</v>
       </c>
       <c r="H81" s="3">
-        <v>810100</v>
+        <v>702700</v>
       </c>
       <c r="I81" s="3">
-        <v>1260700</v>
+        <v>728500</v>
       </c>
       <c r="J81" s="3">
+        <v>1133700</v>
+      </c>
+      <c r="K81" s="3">
         <v>468000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>651700</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1651400</v>
+        <v>1518700</v>
       </c>
       <c r="E83" s="3">
-        <v>1261800</v>
+        <v>1485100</v>
       </c>
       <c r="F83" s="3">
-        <v>1314700</v>
+        <v>1134800</v>
       </c>
       <c r="G83" s="3">
-        <v>1302200</v>
+        <v>1182300</v>
       </c>
       <c r="H83" s="3">
-        <v>1184600</v>
+        <v>1171100</v>
       </c>
       <c r="I83" s="3">
-        <v>1156700</v>
+        <v>1065300</v>
       </c>
       <c r="J83" s="3">
+        <v>1040200</v>
+      </c>
+      <c r="K83" s="3">
         <v>1072300</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2437800</v>
+        <v>1514500</v>
       </c>
       <c r="E89" s="3">
-        <v>2283900</v>
+        <v>2192300</v>
       </c>
       <c r="F89" s="3">
-        <v>2061600</v>
+        <v>2053900</v>
       </c>
       <c r="G89" s="3">
-        <v>2275100</v>
+        <v>1854000</v>
       </c>
       <c r="H89" s="3">
-        <v>2507800</v>
+        <v>2046000</v>
       </c>
       <c r="I89" s="3">
-        <v>2516600</v>
+        <v>2255300</v>
       </c>
       <c r="J89" s="3">
+        <v>2263200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2086200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>55700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1022100</v>
+        <v>-972200</v>
       </c>
       <c r="E91" s="3">
-        <v>-842600</v>
+        <v>-919200</v>
       </c>
       <c r="F91" s="3">
-        <v>-876900</v>
+        <v>-757800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1210600</v>
+        <v>-788600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2334000</v>
+        <v>-1088700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1060200</v>
+        <v>-2099000</v>
       </c>
       <c r="J91" s="3">
+        <v>-953500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1260600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1237800</v>
+        <v>-419700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1287000</v>
+        <v>-1113100</v>
       </c>
       <c r="F94" s="3">
-        <v>-904800</v>
+        <v>-1157400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2295200</v>
+        <v>-813700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1658100</v>
+        <v>-2064100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1526400</v>
+        <v>-1491100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1372700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1474300</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-790400</v>
+        <v>-745600</v>
       </c>
       <c r="E96" s="3">
-        <v>-817300</v>
+        <v>-710800</v>
       </c>
       <c r="F96" s="3">
-        <v>-833800</v>
+        <v>-735000</v>
       </c>
       <c r="G96" s="3">
-        <v>-801900</v>
+        <v>-749800</v>
       </c>
       <c r="H96" s="3">
-        <v>-788300</v>
+        <v>-721200</v>
       </c>
       <c r="I96" s="3">
-        <v>-627000</v>
+        <v>-708900</v>
       </c>
       <c r="J96" s="3">
+        <v>-563800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-467800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-15000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-409300</v>
+        <v>-1710400</v>
       </c>
       <c r="E100" s="3">
-        <v>-796500</v>
+        <v>-368100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1311200</v>
+        <v>-716300</v>
       </c>
       <c r="G100" s="3">
-        <v>-435700</v>
+        <v>-1179100</v>
       </c>
       <c r="H100" s="3">
-        <v>-524400</v>
+        <v>-391800</v>
       </c>
       <c r="I100" s="3">
-        <v>-870700</v>
+        <v>-471600</v>
       </c>
       <c r="J100" s="3">
+        <v>-783100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1189700</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>53900</v>
+        <v>-37700</v>
       </c>
       <c r="E101" s="3">
-        <v>-9000</v>
+        <v>48500</v>
       </c>
       <c r="F101" s="3">
-        <v>-82400</v>
+        <v>-8100</v>
       </c>
       <c r="G101" s="3">
-        <v>12000</v>
+        <v>-74100</v>
       </c>
       <c r="H101" s="3">
-        <v>161000</v>
+        <v>10800</v>
       </c>
       <c r="I101" s="3">
-        <v>16400</v>
+        <v>144800</v>
       </c>
       <c r="J101" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-15600</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>844600</v>
+        <v>-653300</v>
       </c>
       <c r="E102" s="3">
-        <v>191300</v>
+        <v>759500</v>
       </c>
       <c r="F102" s="3">
-        <v>-236800</v>
+        <v>172000</v>
       </c>
       <c r="G102" s="3">
-        <v>-443700</v>
+        <v>-212900</v>
       </c>
       <c r="H102" s="3">
-        <v>486300</v>
+        <v>-399000</v>
       </c>
       <c r="I102" s="3">
-        <v>135800</v>
+        <v>437300</v>
       </c>
       <c r="J102" s="3">
+        <v>122100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-593300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MBT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MBT_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6760700</v>
+        <v>6308400</v>
       </c>
       <c r="E8" s="3">
-        <v>6410800</v>
+        <v>5981900</v>
       </c>
       <c r="F8" s="3">
-        <v>5934400</v>
+        <v>5537400</v>
       </c>
       <c r="G8" s="3">
-        <v>6186800</v>
+        <v>5772900</v>
       </c>
       <c r="H8" s="3">
-        <v>6058300</v>
+        <v>5653000</v>
       </c>
       <c r="I8" s="3">
-        <v>5831600</v>
+        <v>5441500</v>
       </c>
       <c r="J8" s="3">
-        <v>5657900</v>
+        <v>5279400</v>
       </c>
       <c r="K8" s="3">
         <v>5972400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2577800</v>
+        <v>2405400</v>
       </c>
       <c r="E9" s="3">
-        <v>2416300</v>
+        <v>2254600</v>
       </c>
       <c r="F9" s="3">
-        <v>2315100</v>
+        <v>2160200</v>
       </c>
       <c r="G9" s="3">
-        <v>2518400</v>
+        <v>2349900</v>
       </c>
       <c r="H9" s="3">
-        <v>2353700</v>
+        <v>2196200</v>
       </c>
       <c r="I9" s="3">
-        <v>3248600</v>
+        <v>3031300</v>
       </c>
       <c r="J9" s="3">
-        <v>1520400</v>
+        <v>1418700</v>
       </c>
       <c r="K9" s="3">
         <v>1718800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4182900</v>
+        <v>3903100</v>
       </c>
       <c r="E10" s="3">
-        <v>3994500</v>
+        <v>3727300</v>
       </c>
       <c r="F10" s="3">
-        <v>3619300</v>
+        <v>3377200</v>
       </c>
       <c r="G10" s="3">
-        <v>3668500</v>
+        <v>3423000</v>
       </c>
       <c r="H10" s="3">
-        <v>3704600</v>
+        <v>3456800</v>
       </c>
       <c r="I10" s="3">
-        <v>2583000</v>
+        <v>2410200</v>
       </c>
       <c r="J10" s="3">
-        <v>4137500</v>
+        <v>3860700</v>
       </c>
       <c r="K10" s="3">
         <v>4253600</v>
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>108000</v>
+        <v>100800</v>
       </c>
       <c r="E14" s="3">
-        <v>54100</v>
+        <v>50500</v>
       </c>
       <c r="F14" s="3">
-        <v>94800</v>
+        <v>88500</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>49900</v>
+        <v>46600</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1367200</v>
+        <v>1275700</v>
       </c>
       <c r="E15" s="3">
-        <v>1354500</v>
+        <v>1263900</v>
       </c>
       <c r="F15" s="3">
-        <v>1049900</v>
+        <v>979700</v>
       </c>
       <c r="G15" s="3">
-        <v>1158500</v>
+        <v>1081000</v>
       </c>
       <c r="H15" s="3">
-        <v>1105400</v>
+        <v>1031400</v>
       </c>
       <c r="I15" s="3">
-        <v>1061200</v>
+        <v>990200</v>
       </c>
       <c r="J15" s="3">
-        <v>1040200</v>
+        <v>970600</v>
       </c>
       <c r="K15" s="3">
         <v>1072300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5139200</v>
+        <v>4795400</v>
       </c>
       <c r="E17" s="3">
-        <v>4862700</v>
+        <v>4537400</v>
       </c>
       <c r="F17" s="3">
-        <v>4653000</v>
+        <v>4341700</v>
       </c>
       <c r="G17" s="3">
-        <v>4941900</v>
+        <v>4611300</v>
       </c>
       <c r="H17" s="3">
-        <v>4724600</v>
+        <v>4408500</v>
       </c>
       <c r="I17" s="3">
-        <v>4413600</v>
+        <v>4118400</v>
       </c>
       <c r="J17" s="3">
-        <v>4212900</v>
+        <v>3931100</v>
       </c>
       <c r="K17" s="3">
         <v>4491400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1621500</v>
+        <v>1513000</v>
       </c>
       <c r="E18" s="3">
-        <v>1548100</v>
+        <v>1444500</v>
       </c>
       <c r="F18" s="3">
-        <v>1281400</v>
+        <v>1195700</v>
       </c>
       <c r="G18" s="3">
-        <v>1244900</v>
+        <v>1161600</v>
       </c>
       <c r="H18" s="3">
-        <v>1333700</v>
+        <v>1244500</v>
       </c>
       <c r="I18" s="3">
-        <v>1418000</v>
+        <v>1323100</v>
       </c>
       <c r="J18" s="3">
-        <v>1445000</v>
+        <v>1348300</v>
       </c>
       <c r="K18" s="3">
         <v>1481000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-61700</v>
+        <v>-57600</v>
       </c>
       <c r="E20" s="3">
-        <v>86300</v>
+        <v>80500</v>
       </c>
       <c r="F20" s="3">
-        <v>21000</v>
+        <v>19600</v>
       </c>
       <c r="G20" s="3">
-        <v>48100</v>
+        <v>44900</v>
       </c>
       <c r="H20" s="3">
-        <v>-26900</v>
+        <v>-25100</v>
       </c>
       <c r="I20" s="3">
-        <v>-317500</v>
+        <v>-296300</v>
       </c>
       <c r="J20" s="3">
-        <v>-72000</v>
+        <v>-67200</v>
       </c>
       <c r="K20" s="3">
         <v>-172900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3066700</v>
+        <v>2878900</v>
       </c>
       <c r="E21" s="3">
-        <v>3108100</v>
+        <v>2917100</v>
       </c>
       <c r="F21" s="3">
-        <v>2428400</v>
+        <v>2278900</v>
       </c>
       <c r="G21" s="3">
-        <v>2466100</v>
+        <v>2314700</v>
       </c>
       <c r="H21" s="3">
-        <v>2468800</v>
+        <v>2317100</v>
       </c>
       <c r="I21" s="3">
-        <v>2157500</v>
+        <v>2025400</v>
       </c>
       <c r="J21" s="3">
-        <v>2405100</v>
+        <v>2256100</v>
       </c>
       <c r="K21" s="3">
         <v>2388500</v>
@@ -1122,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>610200</v>
+        <v>569400</v>
       </c>
       <c r="E22" s="3">
-        <v>539300</v>
+        <v>503200</v>
       </c>
       <c r="F22" s="3">
-        <v>322800</v>
+        <v>301200</v>
       </c>
       <c r="G22" s="3">
-        <v>333000</v>
+        <v>310700</v>
       </c>
       <c r="H22" s="3">
-        <v>355400</v>
+        <v>331600</v>
       </c>
       <c r="I22" s="3">
-        <v>225300</v>
+        <v>210200</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>949600</v>
+        <v>886100</v>
       </c>
       <c r="E23" s="3">
-        <v>1095100</v>
+        <v>1021800</v>
       </c>
       <c r="F23" s="3">
-        <v>979600</v>
+        <v>914100</v>
       </c>
       <c r="G23" s="3">
-        <v>960000</v>
+        <v>895800</v>
       </c>
       <c r="H23" s="3">
-        <v>951400</v>
+        <v>887800</v>
       </c>
       <c r="I23" s="3">
-        <v>875100</v>
+        <v>816600</v>
       </c>
       <c r="J23" s="3">
-        <v>1373000</v>
+        <v>1281100</v>
       </c>
       <c r="K23" s="3">
         <v>1308100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>223700</v>
+        <v>208700</v>
       </c>
       <c r="E24" s="3">
-        <v>218600</v>
+        <v>204000</v>
       </c>
       <c r="F24" s="3">
-        <v>252500</v>
+        <v>235600</v>
       </c>
       <c r="G24" s="3">
-        <v>215000</v>
+        <v>200600</v>
       </c>
       <c r="H24" s="3">
-        <v>197800</v>
+        <v>184600</v>
       </c>
       <c r="I24" s="3">
-        <v>225900</v>
+        <v>210800</v>
       </c>
       <c r="J24" s="3">
-        <v>278800</v>
+        <v>260100</v>
       </c>
       <c r="K24" s="3">
         <v>306100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>725900</v>
+        <v>677400</v>
       </c>
       <c r="E26" s="3">
-        <v>876500</v>
+        <v>817800</v>
       </c>
       <c r="F26" s="3">
-        <v>727100</v>
+        <v>678500</v>
       </c>
       <c r="G26" s="3">
-        <v>745100</v>
+        <v>695200</v>
       </c>
       <c r="H26" s="3">
-        <v>753600</v>
+        <v>703200</v>
       </c>
       <c r="I26" s="3">
-        <v>649200</v>
+        <v>605800</v>
       </c>
       <c r="J26" s="3">
-        <v>1094200</v>
+        <v>1021000</v>
       </c>
       <c r="K26" s="3">
         <v>1002000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>713800</v>
+        <v>666000</v>
       </c>
       <c r="E27" s="3">
-        <v>862500</v>
+        <v>804800</v>
       </c>
       <c r="F27" s="3">
-        <v>719400</v>
+        <v>671200</v>
       </c>
       <c r="G27" s="3">
-        <v>745400</v>
+        <v>695600</v>
       </c>
       <c r="H27" s="3">
-        <v>783200</v>
+        <v>730800</v>
       </c>
       <c r="I27" s="3">
-        <v>646500</v>
+        <v>603300</v>
       </c>
       <c r="J27" s="3">
-        <v>1080700</v>
+        <v>1008400</v>
       </c>
       <c r="K27" s="3">
         <v>986700</v>
@@ -1353,25 +1353,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>56500</v>
+        <v>52700</v>
       </c>
       <c r="E29" s="3">
-        <v>-765300</v>
+        <v>-714100</v>
       </c>
       <c r="F29" s="3">
-        <v>76400</v>
+        <v>71300</v>
       </c>
       <c r="G29" s="3">
-        <v>-57100</v>
+        <v>-53300</v>
       </c>
       <c r="H29" s="3">
-        <v>-80500</v>
+        <v>-75100</v>
       </c>
       <c r="I29" s="3">
-        <v>82000</v>
+        <v>76500</v>
       </c>
       <c r="J29" s="3">
-        <v>53000</v>
+        <v>49500</v>
       </c>
       <c r="K29" s="3">
         <v>-518600</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>61700</v>
+        <v>57600</v>
       </c>
       <c r="E32" s="3">
-        <v>-86300</v>
+        <v>-80500</v>
       </c>
       <c r="F32" s="3">
-        <v>-21000</v>
+        <v>-19600</v>
       </c>
       <c r="G32" s="3">
-        <v>-48100</v>
+        <v>-44900</v>
       </c>
       <c r="H32" s="3">
-        <v>26900</v>
+        <v>25100</v>
       </c>
       <c r="I32" s="3">
-        <v>317500</v>
+        <v>296300</v>
       </c>
       <c r="J32" s="3">
-        <v>72000</v>
+        <v>67200</v>
       </c>
       <c r="K32" s="3">
         <v>172900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>770200</v>
+        <v>718700</v>
       </c>
       <c r="E33" s="3">
-        <v>97200</v>
+        <v>90700</v>
       </c>
       <c r="F33" s="3">
-        <v>795800</v>
+        <v>742600</v>
       </c>
       <c r="G33" s="3">
-        <v>688300</v>
+        <v>642300</v>
       </c>
       <c r="H33" s="3">
-        <v>702700</v>
+        <v>655700</v>
       </c>
       <c r="I33" s="3">
-        <v>728500</v>
+        <v>679800</v>
       </c>
       <c r="J33" s="3">
-        <v>1133700</v>
+        <v>1057900</v>
       </c>
       <c r="K33" s="3">
         <v>468000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>770200</v>
+        <v>718700</v>
       </c>
       <c r="E35" s="3">
-        <v>97200</v>
+        <v>90700</v>
       </c>
       <c r="F35" s="3">
-        <v>795800</v>
+        <v>742600</v>
       </c>
       <c r="G35" s="3">
-        <v>688300</v>
+        <v>642300</v>
       </c>
       <c r="H35" s="3">
-        <v>702700</v>
+        <v>655700</v>
       </c>
       <c r="I35" s="3">
-        <v>728500</v>
+        <v>679800</v>
       </c>
       <c r="J35" s="3">
-        <v>1133700</v>
+        <v>1057900</v>
       </c>
       <c r="K35" s="3">
         <v>468000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>542900</v>
+        <v>504400</v>
       </c>
       <c r="E41" s="3">
-        <v>1198900</v>
+        <v>1114000</v>
       </c>
       <c r="F41" s="3">
-        <v>436200</v>
+        <v>405300</v>
       </c>
       <c r="G41" s="3">
-        <v>263400</v>
+        <v>244700</v>
       </c>
       <c r="H41" s="3">
-        <v>477200</v>
+        <v>443400</v>
       </c>
       <c r="I41" s="3">
-        <v>875700</v>
+        <v>813700</v>
       </c>
       <c r="J41" s="3">
-        <v>436500</v>
+        <v>405600</v>
       </c>
       <c r="K41" s="3">
         <v>347600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>572900</v>
+        <v>532300</v>
       </c>
       <c r="E42" s="3">
-        <v>945400</v>
+        <v>878500</v>
       </c>
       <c r="F42" s="3">
-        <v>643000</v>
+        <v>597400</v>
       </c>
       <c r="G42" s="3">
-        <v>108900</v>
+        <v>101200</v>
       </c>
       <c r="H42" s="3">
-        <v>710700</v>
+        <v>660400</v>
       </c>
       <c r="I42" s="3">
-        <v>141800</v>
+        <v>131700</v>
       </c>
       <c r="J42" s="3">
-        <v>417300</v>
+        <v>387800</v>
       </c>
       <c r="K42" s="3">
         <v>63700</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>839800</v>
+        <v>780300</v>
       </c>
       <c r="E43" s="3">
-        <v>814600</v>
+        <v>756900</v>
       </c>
       <c r="F43" s="3">
-        <v>785000</v>
+        <v>729400</v>
       </c>
       <c r="G43" s="3">
-        <v>626400</v>
+        <v>582000</v>
       </c>
       <c r="H43" s="3">
-        <v>796700</v>
+        <v>740300</v>
       </c>
       <c r="I43" s="3">
-        <v>1264600</v>
+        <v>1175000</v>
       </c>
       <c r="J43" s="3">
-        <v>1229700</v>
+        <v>1142600</v>
       </c>
       <c r="K43" s="3">
         <v>617800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>221200</v>
+        <v>205600</v>
       </c>
       <c r="E44" s="3">
-        <v>266000</v>
+        <v>247200</v>
       </c>
       <c r="F44" s="3">
-        <v>142500</v>
+        <v>132400</v>
       </c>
       <c r="G44" s="3">
-        <v>204300</v>
+        <v>189900</v>
       </c>
       <c r="H44" s="3">
-        <v>206900</v>
+        <v>192300</v>
       </c>
       <c r="I44" s="3">
-        <v>214200</v>
+        <v>199000</v>
       </c>
       <c r="J44" s="3">
-        <v>242400</v>
+        <v>225200</v>
       </c>
       <c r="K44" s="3">
         <v>135800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>90400</v>
+        <v>84000</v>
       </c>
       <c r="E45" s="3">
-        <v>117500</v>
+        <v>109200</v>
       </c>
       <c r="F45" s="3">
-        <v>75800</v>
+        <v>70400</v>
       </c>
       <c r="G45" s="3">
-        <v>94600</v>
+        <v>87900</v>
       </c>
       <c r="H45" s="3">
-        <v>76000</v>
+        <v>70600</v>
       </c>
       <c r="I45" s="3">
-        <v>292500</v>
+        <v>271800</v>
       </c>
       <c r="J45" s="3">
-        <v>203500</v>
+        <v>189100</v>
       </c>
       <c r="K45" s="3">
         <v>294700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2774800</v>
+        <v>2578300</v>
       </c>
       <c r="E46" s="3">
-        <v>3835000</v>
+        <v>3563400</v>
       </c>
       <c r="F46" s="3">
-        <v>2082400</v>
+        <v>1934900</v>
       </c>
       <c r="G46" s="3">
-        <v>1297600</v>
+        <v>1205700</v>
       </c>
       <c r="H46" s="3">
-        <v>2267600</v>
+        <v>2107000</v>
       </c>
       <c r="I46" s="3">
-        <v>2011400</v>
+        <v>1869000</v>
       </c>
       <c r="J46" s="3">
-        <v>1550700</v>
+        <v>1440800</v>
       </c>
       <c r="K46" s="3">
         <v>1458400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1264600</v>
+        <v>1175000</v>
       </c>
       <c r="E47" s="3">
-        <v>971600</v>
+        <v>902800</v>
       </c>
       <c r="F47" s="3">
-        <v>289400</v>
+        <v>268900</v>
       </c>
       <c r="G47" s="3">
-        <v>918900</v>
+        <v>853800</v>
       </c>
       <c r="H47" s="3">
-        <v>1033900</v>
+        <v>960700</v>
       </c>
       <c r="I47" s="3">
-        <v>773300</v>
+        <v>718600</v>
       </c>
       <c r="J47" s="3">
-        <v>339000</v>
+        <v>315000</v>
       </c>
       <c r="K47" s="3">
         <v>179200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5807800</v>
+        <v>5396500</v>
       </c>
       <c r="E48" s="3">
-        <v>6098000</v>
+        <v>5646100</v>
       </c>
       <c r="F48" s="3">
-        <v>3757100</v>
+        <v>3491000</v>
       </c>
       <c r="G48" s="3">
-        <v>3895500</v>
+        <v>3619600</v>
       </c>
       <c r="H48" s="3">
-        <v>4321200</v>
+        <v>4015100</v>
       </c>
       <c r="I48" s="3">
-        <v>12802800</v>
+        <v>11896000</v>
       </c>
       <c r="J48" s="3">
-        <v>7739300</v>
+        <v>7191200</v>
       </c>
       <c r="K48" s="3">
         <v>4291400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1688400</v>
+        <v>1568900</v>
       </c>
       <c r="E49" s="3">
-        <v>1926100</v>
+        <v>1809600</v>
       </c>
       <c r="F49" s="3">
-        <v>1621000</v>
+        <v>1506200</v>
       </c>
       <c r="G49" s="3">
-        <v>1551700</v>
+        <v>1441800</v>
       </c>
       <c r="H49" s="3">
-        <v>1555300</v>
+        <v>1445100</v>
       </c>
       <c r="I49" s="3">
-        <v>4218400</v>
+        <v>3919600</v>
       </c>
       <c r="J49" s="3">
-        <v>2119900</v>
+        <v>1969700</v>
       </c>
       <c r="K49" s="3">
         <v>1181100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>213300</v>
+        <v>198200</v>
       </c>
       <c r="E52" s="3">
-        <v>231400</v>
+        <v>215000</v>
       </c>
       <c r="F52" s="3">
-        <v>108300</v>
+        <v>100600</v>
       </c>
       <c r="G52" s="3">
-        <v>100500</v>
+        <v>93400</v>
       </c>
       <c r="H52" s="3">
-        <v>139300</v>
+        <v>129400</v>
       </c>
       <c r="I52" s="3">
-        <v>426000</v>
+        <v>395800</v>
       </c>
       <c r="J52" s="3">
-        <v>127000</v>
+        <v>118000</v>
       </c>
       <c r="K52" s="3">
         <v>96700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11749000</v>
+        <v>10916800</v>
       </c>
       <c r="E54" s="3">
-        <v>13062100</v>
+        <v>12136900</v>
       </c>
       <c r="F54" s="3">
-        <v>7858300</v>
+        <v>7301700</v>
       </c>
       <c r="G54" s="3">
-        <v>7764100</v>
+        <v>7214200</v>
       </c>
       <c r="H54" s="3">
-        <v>9317200</v>
+        <v>8657300</v>
       </c>
       <c r="I54" s="3">
-        <v>8546100</v>
+        <v>7940800</v>
       </c>
       <c r="J54" s="3">
-        <v>6819400</v>
+        <v>6336400</v>
       </c>
       <c r="K54" s="3">
         <v>7184100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1024000</v>
+        <v>951500</v>
       </c>
       <c r="E57" s="3">
-        <v>764700</v>
+        <v>710500</v>
       </c>
       <c r="F57" s="3">
-        <v>674700</v>
+        <v>626900</v>
       </c>
       <c r="G57" s="3">
-        <v>591400</v>
+        <v>549500</v>
       </c>
       <c r="H57" s="3">
-        <v>823600</v>
+        <v>765300</v>
       </c>
       <c r="I57" s="3">
-        <v>749800</v>
+        <v>696700</v>
       </c>
       <c r="J57" s="3">
-        <v>559800</v>
+        <v>520200</v>
       </c>
       <c r="K57" s="3">
         <v>368400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1240200</v>
+        <v>1152400</v>
       </c>
       <c r="E58" s="3">
-        <v>269200</v>
+        <v>250100</v>
       </c>
       <c r="F58" s="3">
-        <v>919400</v>
+        <v>854300</v>
       </c>
       <c r="G58" s="3">
-        <v>673200</v>
+        <v>625500</v>
       </c>
       <c r="H58" s="3">
-        <v>765800</v>
+        <v>711500</v>
       </c>
       <c r="I58" s="3">
-        <v>914300</v>
+        <v>849600</v>
       </c>
       <c r="J58" s="3">
-        <v>597800</v>
+        <v>555500</v>
       </c>
       <c r="K58" s="3">
         <v>433700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2704800</v>
+        <v>2513200</v>
       </c>
       <c r="E59" s="3">
-        <v>3179600</v>
+        <v>2954400</v>
       </c>
       <c r="F59" s="3">
-        <v>640000</v>
+        <v>594700</v>
       </c>
       <c r="G59" s="3">
-        <v>554200</v>
+        <v>515000</v>
       </c>
       <c r="H59" s="3">
-        <v>662400</v>
+        <v>615500</v>
       </c>
       <c r="I59" s="3">
-        <v>1401000</v>
+        <v>1301700</v>
       </c>
       <c r="J59" s="3">
-        <v>1232600</v>
+        <v>1145300</v>
       </c>
       <c r="K59" s="3">
         <v>1022300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4969000</v>
+        <v>4617100</v>
       </c>
       <c r="E60" s="3">
-        <v>4213400</v>
+        <v>3915000</v>
       </c>
       <c r="F60" s="3">
-        <v>2234100</v>
+        <v>2075900</v>
       </c>
       <c r="G60" s="3">
-        <v>1818800</v>
+        <v>1690000</v>
       </c>
       <c r="H60" s="3">
-        <v>2251800</v>
+        <v>2092300</v>
       </c>
       <c r="I60" s="3">
-        <v>1987600</v>
+        <v>1846800</v>
       </c>
       <c r="J60" s="3">
-        <v>1447400</v>
+        <v>1344900</v>
       </c>
       <c r="K60" s="3">
         <v>1790700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5870200</v>
+        <v>5454400</v>
       </c>
       <c r="E61" s="3">
-        <v>7269900</v>
+        <v>6755000</v>
       </c>
       <c r="F61" s="3">
-        <v>3409500</v>
+        <v>3168000</v>
       </c>
       <c r="G61" s="3">
-        <v>3381200</v>
+        <v>3141700</v>
       </c>
       <c r="H61" s="3">
-        <v>4166300</v>
+        <v>3871200</v>
       </c>
       <c r="I61" s="3">
-        <v>3544300</v>
+        <v>3293300</v>
       </c>
       <c r="J61" s="3">
-        <v>2747400</v>
+        <v>2552800</v>
       </c>
       <c r="K61" s="3">
         <v>3228000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>390800</v>
+        <v>363100</v>
       </c>
       <c r="E62" s="3">
-        <v>472600</v>
+        <v>439200</v>
       </c>
       <c r="F62" s="3">
-        <v>443500</v>
+        <v>412000</v>
       </c>
       <c r="G62" s="3">
-        <v>511400</v>
+        <v>475200</v>
       </c>
       <c r="H62" s="3">
-        <v>498100</v>
+        <v>462800</v>
       </c>
       <c r="I62" s="3">
-        <v>607900</v>
+        <v>564800</v>
       </c>
       <c r="J62" s="3">
-        <v>525500</v>
+        <v>488200</v>
       </c>
       <c r="K62" s="3">
         <v>331300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11277400</v>
+        <v>10478700</v>
       </c>
       <c r="E66" s="3">
-        <v>12131300</v>
+        <v>11272000</v>
       </c>
       <c r="F66" s="3">
-        <v>6145300</v>
+        <v>5710000</v>
       </c>
       <c r="G66" s="3">
-        <v>5778700</v>
+        <v>5369400</v>
       </c>
       <c r="H66" s="3">
-        <v>7033900</v>
+        <v>6535700</v>
       </c>
       <c r="I66" s="3">
-        <v>6138600</v>
+        <v>5703800</v>
       </c>
       <c r="J66" s="3">
-        <v>4644900</v>
+        <v>4315900</v>
       </c>
       <c r="K66" s="3">
         <v>5435800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1320700</v>
+        <v>1227200</v>
       </c>
       <c r="E72" s="3">
-        <v>1566900</v>
+        <v>1455900</v>
       </c>
       <c r="F72" s="3">
-        <v>2027600</v>
+        <v>1884000</v>
       </c>
       <c r="G72" s="3">
-        <v>1990600</v>
+        <v>1849600</v>
       </c>
       <c r="H72" s="3">
-        <v>2629200</v>
+        <v>2443000</v>
       </c>
       <c r="I72" s="3">
-        <v>7813400</v>
+        <v>7260000</v>
       </c>
       <c r="J72" s="3">
-        <v>5168900</v>
+        <v>4802800</v>
       </c>
       <c r="K72" s="3">
         <v>2342800</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>471500</v>
+        <v>438200</v>
       </c>
       <c r="E76" s="3">
-        <v>930800</v>
+        <v>864900</v>
       </c>
       <c r="F76" s="3">
-        <v>1713000</v>
+        <v>1591700</v>
       </c>
       <c r="G76" s="3">
-        <v>1985500</v>
+        <v>1844900</v>
       </c>
       <c r="H76" s="3">
-        <v>2283200</v>
+        <v>2121500</v>
       </c>
       <c r="I76" s="3">
-        <v>2407500</v>
+        <v>2237000</v>
       </c>
       <c r="J76" s="3">
-        <v>2174500</v>
+        <v>2020500</v>
       </c>
       <c r="K76" s="3">
         <v>1748300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>770200</v>
+        <v>718700</v>
       </c>
       <c r="E81" s="3">
-        <v>97200</v>
+        <v>90700</v>
       </c>
       <c r="F81" s="3">
-        <v>795800</v>
+        <v>742600</v>
       </c>
       <c r="G81" s="3">
-        <v>688300</v>
+        <v>642300</v>
       </c>
       <c r="H81" s="3">
-        <v>702700</v>
+        <v>655700</v>
       </c>
       <c r="I81" s="3">
-        <v>728500</v>
+        <v>679800</v>
       </c>
       <c r="J81" s="3">
-        <v>1133700</v>
+        <v>1057900</v>
       </c>
       <c r="K81" s="3">
         <v>468000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1518700</v>
+        <v>1417100</v>
       </c>
       <c r="E83" s="3">
-        <v>1485100</v>
+        <v>1385800</v>
       </c>
       <c r="F83" s="3">
-        <v>1134800</v>
+        <v>1058800</v>
       </c>
       <c r="G83" s="3">
-        <v>1182300</v>
+        <v>1103200</v>
       </c>
       <c r="H83" s="3">
-        <v>1171100</v>
+        <v>1092800</v>
       </c>
       <c r="I83" s="3">
-        <v>1065300</v>
+        <v>994000</v>
       </c>
       <c r="J83" s="3">
-        <v>1040200</v>
+        <v>970600</v>
       </c>
       <c r="K83" s="3">
         <v>1072300</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1514500</v>
+        <v>1413100</v>
       </c>
       <c r="E89" s="3">
-        <v>2192300</v>
+        <v>2045700</v>
       </c>
       <c r="F89" s="3">
-        <v>2053900</v>
+        <v>1916500</v>
       </c>
       <c r="G89" s="3">
-        <v>1854000</v>
+        <v>1730000</v>
       </c>
       <c r="H89" s="3">
-        <v>2046000</v>
+        <v>1909200</v>
       </c>
       <c r="I89" s="3">
-        <v>2255300</v>
+        <v>2104400</v>
       </c>
       <c r="J89" s="3">
-        <v>2263200</v>
+        <v>2111700</v>
       </c>
       <c r="K89" s="3">
         <v>2086200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-972200</v>
+        <v>-907200</v>
       </c>
       <c r="E91" s="3">
-        <v>-919200</v>
+        <v>-857700</v>
       </c>
       <c r="F91" s="3">
-        <v>-757800</v>
+        <v>-707100</v>
       </c>
       <c r="G91" s="3">
-        <v>-788600</v>
+        <v>-735900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1088700</v>
+        <v>-1015900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2099000</v>
+        <v>-1958600</v>
       </c>
       <c r="J91" s="3">
-        <v>-953500</v>
+        <v>-889700</v>
       </c>
       <c r="K91" s="3">
         <v>-1260600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-419700</v>
+        <v>-391600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1113100</v>
+        <v>-1038700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1157400</v>
+        <v>-1080000</v>
       </c>
       <c r="G94" s="3">
-        <v>-813700</v>
+        <v>-759300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2064100</v>
+        <v>-1926000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1491100</v>
+        <v>-1391400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1372700</v>
+        <v>-1280900</v>
       </c>
       <c r="K94" s="3">
         <v>-1474300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-745600</v>
+        <v>-695700</v>
       </c>
       <c r="E96" s="3">
-        <v>-710800</v>
+        <v>-663200</v>
       </c>
       <c r="F96" s="3">
-        <v>-735000</v>
+        <v>-685800</v>
       </c>
       <c r="G96" s="3">
-        <v>-749800</v>
+        <v>-699700</v>
       </c>
       <c r="H96" s="3">
-        <v>-721200</v>
+        <v>-672900</v>
       </c>
       <c r="I96" s="3">
-        <v>-708900</v>
+        <v>-661500</v>
       </c>
       <c r="J96" s="3">
-        <v>-563800</v>
+        <v>-526100</v>
       </c>
       <c r="K96" s="3">
         <v>-467800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1710400</v>
+        <v>-1595900</v>
       </c>
       <c r="E100" s="3">
-        <v>-368100</v>
+        <v>-343500</v>
       </c>
       <c r="F100" s="3">
-        <v>-716300</v>
+        <v>-668400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1179100</v>
+        <v>-1100300</v>
       </c>
       <c r="H100" s="3">
-        <v>-391800</v>
+        <v>-365600</v>
       </c>
       <c r="I100" s="3">
-        <v>-471600</v>
+        <v>-440100</v>
       </c>
       <c r="J100" s="3">
-        <v>-783100</v>
+        <v>-730700</v>
       </c>
       <c r="K100" s="3">
         <v>-1189700</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-37700</v>
+        <v>-35200</v>
       </c>
       <c r="E101" s="3">
-        <v>48500</v>
+        <v>45200</v>
       </c>
       <c r="F101" s="3">
-        <v>-8100</v>
+        <v>-7500</v>
       </c>
       <c r="G101" s="3">
-        <v>-74100</v>
+        <v>-69200</v>
       </c>
       <c r="H101" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="I101" s="3">
-        <v>144800</v>
+        <v>135100</v>
       </c>
       <c r="J101" s="3">
-        <v>14700</v>
+        <v>13700</v>
       </c>
       <c r="K101" s="3">
         <v>-15600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-653300</v>
+        <v>-609600</v>
       </c>
       <c r="E102" s="3">
-        <v>759500</v>
+        <v>708700</v>
       </c>
       <c r="F102" s="3">
-        <v>172000</v>
+        <v>160500</v>
       </c>
       <c r="G102" s="3">
-        <v>-212900</v>
+        <v>-198700</v>
       </c>
       <c r="H102" s="3">
-        <v>-399000</v>
+        <v>-372400</v>
       </c>
       <c r="I102" s="3">
-        <v>437300</v>
+        <v>408100</v>
       </c>
       <c r="J102" s="3">
-        <v>122100</v>
+        <v>113900</v>
       </c>
       <c r="K102" s="3">
         <v>-593300</v>

--- a/AAII_Financials/Yearly/MBT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MBT_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6308400</v>
+        <v>6279800</v>
       </c>
       <c r="E8" s="3">
-        <v>5981900</v>
+        <v>5954800</v>
       </c>
       <c r="F8" s="3">
-        <v>5537400</v>
+        <v>5512300</v>
       </c>
       <c r="G8" s="3">
-        <v>5772900</v>
+        <v>5746800</v>
       </c>
       <c r="H8" s="3">
-        <v>5653000</v>
+        <v>5627400</v>
       </c>
       <c r="I8" s="3">
-        <v>5441500</v>
+        <v>5416800</v>
       </c>
       <c r="J8" s="3">
-        <v>5279400</v>
+        <v>5255500</v>
       </c>
       <c r="K8" s="3">
         <v>5972400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2405400</v>
+        <v>2394500</v>
       </c>
       <c r="E9" s="3">
-        <v>2254600</v>
+        <v>2244400</v>
       </c>
       <c r="F9" s="3">
-        <v>2160200</v>
+        <v>2150400</v>
       </c>
       <c r="G9" s="3">
-        <v>2349900</v>
+        <v>2339200</v>
       </c>
       <c r="H9" s="3">
-        <v>2196200</v>
+        <v>2186300</v>
       </c>
       <c r="I9" s="3">
-        <v>3031300</v>
+        <v>3017500</v>
       </c>
       <c r="J9" s="3">
-        <v>1418700</v>
+        <v>1412300</v>
       </c>
       <c r="K9" s="3">
         <v>1718800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3903100</v>
+        <v>3885400</v>
       </c>
       <c r="E10" s="3">
-        <v>3727300</v>
+        <v>3710400</v>
       </c>
       <c r="F10" s="3">
-        <v>3377200</v>
+        <v>3361900</v>
       </c>
       <c r="G10" s="3">
-        <v>3423000</v>
+        <v>3407500</v>
       </c>
       <c r="H10" s="3">
-        <v>3456800</v>
+        <v>3441100</v>
       </c>
       <c r="I10" s="3">
-        <v>2410200</v>
+        <v>2399300</v>
       </c>
       <c r="J10" s="3">
-        <v>3860700</v>
+        <v>3843200</v>
       </c>
       <c r="K10" s="3">
         <v>4253600</v>
@@ -897,19 +897,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100800</v>
+        <v>100300</v>
       </c>
       <c r="E14" s="3">
-        <v>50500</v>
+        <v>50300</v>
       </c>
       <c r="F14" s="3">
-        <v>88500</v>
+        <v>88100</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>46600</v>
+        <v>46400</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1275700</v>
+        <v>1269900</v>
       </c>
       <c r="E15" s="3">
-        <v>1263900</v>
+        <v>1258100</v>
       </c>
       <c r="F15" s="3">
-        <v>979700</v>
+        <v>975300</v>
       </c>
       <c r="G15" s="3">
-        <v>1081000</v>
+        <v>1076100</v>
       </c>
       <c r="H15" s="3">
-        <v>1031400</v>
+        <v>1026700</v>
       </c>
       <c r="I15" s="3">
-        <v>990200</v>
+        <v>985700</v>
       </c>
       <c r="J15" s="3">
-        <v>970600</v>
+        <v>966200</v>
       </c>
       <c r="K15" s="3">
         <v>1072300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4795400</v>
+        <v>4773700</v>
       </c>
       <c r="E17" s="3">
-        <v>4537400</v>
+        <v>4516800</v>
       </c>
       <c r="F17" s="3">
-        <v>4341700</v>
+        <v>4322100</v>
       </c>
       <c r="G17" s="3">
-        <v>4611300</v>
+        <v>4590400</v>
       </c>
       <c r="H17" s="3">
-        <v>4408500</v>
+        <v>4388500</v>
       </c>
       <c r="I17" s="3">
-        <v>4118400</v>
+        <v>4099700</v>
       </c>
       <c r="J17" s="3">
-        <v>3931100</v>
+        <v>3913300</v>
       </c>
       <c r="K17" s="3">
         <v>4491400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1513000</v>
+        <v>1506100</v>
       </c>
       <c r="E18" s="3">
-        <v>1444500</v>
+        <v>1438000</v>
       </c>
       <c r="F18" s="3">
-        <v>1195700</v>
+        <v>1190300</v>
       </c>
       <c r="G18" s="3">
-        <v>1161600</v>
+        <v>1156400</v>
       </c>
       <c r="H18" s="3">
-        <v>1244500</v>
+        <v>1238800</v>
       </c>
       <c r="I18" s="3">
-        <v>1323100</v>
+        <v>1317100</v>
       </c>
       <c r="J18" s="3">
-        <v>1348300</v>
+        <v>1342200</v>
       </c>
       <c r="K18" s="3">
         <v>1481000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-57600</v>
+        <v>-57300</v>
       </c>
       <c r="E20" s="3">
-        <v>80500</v>
+        <v>80200</v>
       </c>
       <c r="F20" s="3">
-        <v>19600</v>
+        <v>19500</v>
       </c>
       <c r="G20" s="3">
-        <v>44900</v>
+        <v>44700</v>
       </c>
       <c r="H20" s="3">
-        <v>-25100</v>
+        <v>-25000</v>
       </c>
       <c r="I20" s="3">
-        <v>-296300</v>
+        <v>-294900</v>
       </c>
       <c r="J20" s="3">
-        <v>-67200</v>
+        <v>-66900</v>
       </c>
       <c r="K20" s="3">
         <v>-172900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2878900</v>
+        <v>2863800</v>
       </c>
       <c r="E21" s="3">
-        <v>2917100</v>
+        <v>2901900</v>
       </c>
       <c r="F21" s="3">
-        <v>2278900</v>
+        <v>2267000</v>
       </c>
       <c r="G21" s="3">
-        <v>2314700</v>
+        <v>2302600</v>
       </c>
       <c r="H21" s="3">
-        <v>2317100</v>
+        <v>2305000</v>
       </c>
       <c r="I21" s="3">
-        <v>2025400</v>
+        <v>2014700</v>
       </c>
       <c r="J21" s="3">
-        <v>2256100</v>
+        <v>2244500</v>
       </c>
       <c r="K21" s="3">
         <v>2388500</v>
@@ -1122,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>569400</v>
+        <v>566800</v>
       </c>
       <c r="E22" s="3">
-        <v>503200</v>
+        <v>501000</v>
       </c>
       <c r="F22" s="3">
-        <v>301200</v>
+        <v>299900</v>
       </c>
       <c r="G22" s="3">
-        <v>310700</v>
+        <v>309300</v>
       </c>
       <c r="H22" s="3">
-        <v>331600</v>
+        <v>330100</v>
       </c>
       <c r="I22" s="3">
-        <v>210200</v>
+        <v>209300</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>886100</v>
+        <v>882100</v>
       </c>
       <c r="E23" s="3">
-        <v>1021800</v>
+        <v>1017200</v>
       </c>
       <c r="F23" s="3">
-        <v>914100</v>
+        <v>909900</v>
       </c>
       <c r="G23" s="3">
-        <v>895800</v>
+        <v>891800</v>
       </c>
       <c r="H23" s="3">
-        <v>887800</v>
+        <v>883800</v>
       </c>
       <c r="I23" s="3">
-        <v>816600</v>
+        <v>812900</v>
       </c>
       <c r="J23" s="3">
-        <v>1281100</v>
+        <v>1275300</v>
       </c>
       <c r="K23" s="3">
         <v>1308100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>208700</v>
+        <v>207700</v>
       </c>
       <c r="E24" s="3">
-        <v>204000</v>
+        <v>203100</v>
       </c>
       <c r="F24" s="3">
-        <v>235600</v>
+        <v>234500</v>
       </c>
       <c r="G24" s="3">
-        <v>200600</v>
+        <v>199700</v>
       </c>
       <c r="H24" s="3">
-        <v>184600</v>
+        <v>183700</v>
       </c>
       <c r="I24" s="3">
-        <v>210800</v>
+        <v>209800</v>
       </c>
       <c r="J24" s="3">
-        <v>260100</v>
+        <v>259000</v>
       </c>
       <c r="K24" s="3">
         <v>306100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>677400</v>
+        <v>674300</v>
       </c>
       <c r="E26" s="3">
-        <v>817800</v>
+        <v>814100</v>
       </c>
       <c r="F26" s="3">
-        <v>678500</v>
+        <v>675400</v>
       </c>
       <c r="G26" s="3">
-        <v>695200</v>
+        <v>692100</v>
       </c>
       <c r="H26" s="3">
-        <v>703200</v>
+        <v>700000</v>
       </c>
       <c r="I26" s="3">
-        <v>605800</v>
+        <v>603100</v>
       </c>
       <c r="J26" s="3">
-        <v>1021000</v>
+        <v>1016400</v>
       </c>
       <c r="K26" s="3">
         <v>1002000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>666000</v>
+        <v>663000</v>
       </c>
       <c r="E27" s="3">
-        <v>804800</v>
+        <v>801200</v>
       </c>
       <c r="F27" s="3">
-        <v>671200</v>
+        <v>668200</v>
       </c>
       <c r="G27" s="3">
-        <v>695600</v>
+        <v>692400</v>
       </c>
       <c r="H27" s="3">
-        <v>730800</v>
+        <v>727500</v>
       </c>
       <c r="I27" s="3">
-        <v>603300</v>
+        <v>600600</v>
       </c>
       <c r="J27" s="3">
-        <v>1008400</v>
+        <v>1003800</v>
       </c>
       <c r="K27" s="3">
         <v>986700</v>
@@ -1353,25 +1353,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>52700</v>
+        <v>52400</v>
       </c>
       <c r="E29" s="3">
-        <v>-714100</v>
+        <v>-710800</v>
       </c>
       <c r="F29" s="3">
-        <v>71300</v>
+        <v>71000</v>
       </c>
       <c r="G29" s="3">
-        <v>-53300</v>
+        <v>-53000</v>
       </c>
       <c r="H29" s="3">
-        <v>-75100</v>
+        <v>-74800</v>
       </c>
       <c r="I29" s="3">
-        <v>76500</v>
+        <v>76200</v>
       </c>
       <c r="J29" s="3">
-        <v>49500</v>
+        <v>49200</v>
       </c>
       <c r="K29" s="3">
         <v>-518600</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>57600</v>
+        <v>57300</v>
       </c>
       <c r="E32" s="3">
-        <v>-80500</v>
+        <v>-80200</v>
       </c>
       <c r="F32" s="3">
-        <v>-19600</v>
+        <v>-19500</v>
       </c>
       <c r="G32" s="3">
-        <v>-44900</v>
+        <v>-44700</v>
       </c>
       <c r="H32" s="3">
-        <v>25100</v>
+        <v>25000</v>
       </c>
       <c r="I32" s="3">
-        <v>296300</v>
+        <v>294900</v>
       </c>
       <c r="J32" s="3">
-        <v>67200</v>
+        <v>66900</v>
       </c>
       <c r="K32" s="3">
         <v>172900</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>718700</v>
+        <v>715400</v>
       </c>
       <c r="E33" s="3">
-        <v>90700</v>
+        <v>90300</v>
       </c>
       <c r="F33" s="3">
-        <v>742600</v>
+        <v>739200</v>
       </c>
       <c r="G33" s="3">
-        <v>642300</v>
+        <v>639400</v>
       </c>
       <c r="H33" s="3">
-        <v>655700</v>
+        <v>652800</v>
       </c>
       <c r="I33" s="3">
-        <v>679800</v>
+        <v>676700</v>
       </c>
       <c r="J33" s="3">
-        <v>1057900</v>
+        <v>1053100</v>
       </c>
       <c r="K33" s="3">
         <v>468000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>718700</v>
+        <v>715400</v>
       </c>
       <c r="E35" s="3">
-        <v>90700</v>
+        <v>90300</v>
       </c>
       <c r="F35" s="3">
-        <v>742600</v>
+        <v>739200</v>
       </c>
       <c r="G35" s="3">
-        <v>642300</v>
+        <v>639400</v>
       </c>
       <c r="H35" s="3">
-        <v>655700</v>
+        <v>652800</v>
       </c>
       <c r="I35" s="3">
-        <v>679800</v>
+        <v>676700</v>
       </c>
       <c r="J35" s="3">
-        <v>1057900</v>
+        <v>1053100</v>
       </c>
       <c r="K35" s="3">
         <v>468000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>504400</v>
+        <v>502100</v>
       </c>
       <c r="E41" s="3">
-        <v>1114000</v>
+        <v>1108900</v>
       </c>
       <c r="F41" s="3">
-        <v>405300</v>
+        <v>403400</v>
       </c>
       <c r="G41" s="3">
-        <v>244700</v>
+        <v>243600</v>
       </c>
       <c r="H41" s="3">
-        <v>443400</v>
+        <v>441400</v>
       </c>
       <c r="I41" s="3">
-        <v>813700</v>
+        <v>810000</v>
       </c>
       <c r="J41" s="3">
-        <v>405600</v>
+        <v>403800</v>
       </c>
       <c r="K41" s="3">
         <v>347600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>532300</v>
+        <v>529900</v>
       </c>
       <c r="E42" s="3">
-        <v>878500</v>
+        <v>874500</v>
       </c>
       <c r="F42" s="3">
-        <v>597400</v>
+        <v>594700</v>
       </c>
       <c r="G42" s="3">
-        <v>101200</v>
+        <v>100700</v>
       </c>
       <c r="H42" s="3">
-        <v>660400</v>
+        <v>657400</v>
       </c>
       <c r="I42" s="3">
-        <v>131700</v>
+        <v>131100</v>
       </c>
       <c r="J42" s="3">
-        <v>387800</v>
+        <v>386000</v>
       </c>
       <c r="K42" s="3">
         <v>63700</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>780300</v>
+        <v>776800</v>
       </c>
       <c r="E43" s="3">
-        <v>756900</v>
+        <v>753400</v>
       </c>
       <c r="F43" s="3">
-        <v>729400</v>
+        <v>726100</v>
       </c>
       <c r="G43" s="3">
-        <v>582000</v>
+        <v>579400</v>
       </c>
       <c r="H43" s="3">
-        <v>740300</v>
+        <v>737000</v>
       </c>
       <c r="I43" s="3">
-        <v>1175000</v>
+        <v>1169700</v>
       </c>
       <c r="J43" s="3">
-        <v>1142600</v>
+        <v>1137500</v>
       </c>
       <c r="K43" s="3">
         <v>617800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>205600</v>
+        <v>204600</v>
       </c>
       <c r="E44" s="3">
-        <v>247200</v>
+        <v>246000</v>
       </c>
       <c r="F44" s="3">
-        <v>132400</v>
+        <v>131800</v>
       </c>
       <c r="G44" s="3">
-        <v>189900</v>
+        <v>189000</v>
       </c>
       <c r="H44" s="3">
-        <v>192300</v>
+        <v>191400</v>
       </c>
       <c r="I44" s="3">
-        <v>199000</v>
+        <v>198100</v>
       </c>
       <c r="J44" s="3">
-        <v>225200</v>
+        <v>224200</v>
       </c>
       <c r="K44" s="3">
         <v>135800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>84000</v>
+        <v>83600</v>
       </c>
       <c r="E45" s="3">
-        <v>109200</v>
+        <v>108700</v>
       </c>
       <c r="F45" s="3">
-        <v>70400</v>
+        <v>70100</v>
       </c>
       <c r="G45" s="3">
-        <v>87900</v>
+        <v>87500</v>
       </c>
       <c r="H45" s="3">
-        <v>70600</v>
+        <v>70300</v>
       </c>
       <c r="I45" s="3">
-        <v>271800</v>
+        <v>270600</v>
       </c>
       <c r="J45" s="3">
-        <v>189100</v>
+        <v>188200</v>
       </c>
       <c r="K45" s="3">
         <v>294700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2578300</v>
+        <v>2566600</v>
       </c>
       <c r="E46" s="3">
-        <v>3563400</v>
+        <v>3547200</v>
       </c>
       <c r="F46" s="3">
-        <v>1934900</v>
+        <v>1926200</v>
       </c>
       <c r="G46" s="3">
-        <v>1205700</v>
+        <v>1200200</v>
       </c>
       <c r="H46" s="3">
-        <v>2107000</v>
+        <v>2097400</v>
       </c>
       <c r="I46" s="3">
-        <v>1869000</v>
+        <v>1860500</v>
       </c>
       <c r="J46" s="3">
-        <v>1440800</v>
+        <v>1434300</v>
       </c>
       <c r="K46" s="3">
         <v>1458400</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1175000</v>
+        <v>1169700</v>
       </c>
       <c r="E47" s="3">
-        <v>902800</v>
+        <v>898700</v>
       </c>
       <c r="F47" s="3">
-        <v>268900</v>
+        <v>267700</v>
       </c>
       <c r="G47" s="3">
-        <v>853800</v>
+        <v>850000</v>
       </c>
       <c r="H47" s="3">
-        <v>960700</v>
+        <v>956300</v>
       </c>
       <c r="I47" s="3">
-        <v>718600</v>
+        <v>715300</v>
       </c>
       <c r="J47" s="3">
-        <v>315000</v>
+        <v>313600</v>
       </c>
       <c r="K47" s="3">
         <v>179200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5396500</v>
+        <v>5372000</v>
       </c>
       <c r="E48" s="3">
-        <v>5646100</v>
+        <v>5620500</v>
       </c>
       <c r="F48" s="3">
-        <v>3491000</v>
+        <v>3475200</v>
       </c>
       <c r="G48" s="3">
-        <v>3619600</v>
+        <v>3603200</v>
       </c>
       <c r="H48" s="3">
-        <v>4015100</v>
+        <v>3996900</v>
       </c>
       <c r="I48" s="3">
-        <v>11896000</v>
+        <v>11842200</v>
       </c>
       <c r="J48" s="3">
-        <v>7191200</v>
+        <v>7158600</v>
       </c>
       <c r="K48" s="3">
         <v>4291400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1568900</v>
+        <v>1561700</v>
       </c>
       <c r="E49" s="3">
-        <v>1809600</v>
+        <v>1801400</v>
       </c>
       <c r="F49" s="3">
-        <v>1506200</v>
+        <v>1499400</v>
       </c>
       <c r="G49" s="3">
-        <v>1441800</v>
+        <v>1435200</v>
       </c>
       <c r="H49" s="3">
-        <v>1445100</v>
+        <v>1438600</v>
       </c>
       <c r="I49" s="3">
-        <v>3919600</v>
+        <v>3901900</v>
       </c>
       <c r="J49" s="3">
-        <v>1969700</v>
+        <v>1960800</v>
       </c>
       <c r="K49" s="3">
         <v>1181100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>198200</v>
+        <v>197300</v>
       </c>
       <c r="E52" s="3">
-        <v>215000</v>
+        <v>214000</v>
       </c>
       <c r="F52" s="3">
-        <v>100600</v>
+        <v>100200</v>
       </c>
       <c r="G52" s="3">
-        <v>93400</v>
+        <v>92900</v>
       </c>
       <c r="H52" s="3">
-        <v>129400</v>
+        <v>128800</v>
       </c>
       <c r="I52" s="3">
-        <v>395800</v>
+        <v>394000</v>
       </c>
       <c r="J52" s="3">
-        <v>118000</v>
+        <v>117400</v>
       </c>
       <c r="K52" s="3">
         <v>96700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10916800</v>
+        <v>10867400</v>
       </c>
       <c r="E54" s="3">
-        <v>12136900</v>
+        <v>12081900</v>
       </c>
       <c r="F54" s="3">
-        <v>7301700</v>
+        <v>7268600</v>
       </c>
       <c r="G54" s="3">
-        <v>7214200</v>
+        <v>7181600</v>
       </c>
       <c r="H54" s="3">
-        <v>8657300</v>
+        <v>8618100</v>
       </c>
       <c r="I54" s="3">
-        <v>7940800</v>
+        <v>7904800</v>
       </c>
       <c r="J54" s="3">
-        <v>6336400</v>
+        <v>6307700</v>
       </c>
       <c r="K54" s="3">
         <v>7184100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>951500</v>
+        <v>947100</v>
       </c>
       <c r="E57" s="3">
-        <v>710500</v>
+        <v>707300</v>
       </c>
       <c r="F57" s="3">
-        <v>626900</v>
+        <v>624100</v>
       </c>
       <c r="G57" s="3">
-        <v>549500</v>
+        <v>547000</v>
       </c>
       <c r="H57" s="3">
-        <v>765300</v>
+        <v>761800</v>
       </c>
       <c r="I57" s="3">
-        <v>696700</v>
+        <v>693600</v>
       </c>
       <c r="J57" s="3">
-        <v>520200</v>
+        <v>517800</v>
       </c>
       <c r="K57" s="3">
         <v>368400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1152400</v>
+        <v>1147200</v>
       </c>
       <c r="E58" s="3">
-        <v>250100</v>
+        <v>249000</v>
       </c>
       <c r="F58" s="3">
-        <v>854300</v>
+        <v>850400</v>
       </c>
       <c r="G58" s="3">
-        <v>625500</v>
+        <v>622700</v>
       </c>
       <c r="H58" s="3">
-        <v>711500</v>
+        <v>708300</v>
       </c>
       <c r="I58" s="3">
-        <v>849600</v>
+        <v>845700</v>
       </c>
       <c r="J58" s="3">
-        <v>555500</v>
+        <v>553000</v>
       </c>
       <c r="K58" s="3">
         <v>433700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2513200</v>
+        <v>2501800</v>
       </c>
       <c r="E59" s="3">
-        <v>2954400</v>
+        <v>2941000</v>
       </c>
       <c r="F59" s="3">
-        <v>594700</v>
+        <v>592000</v>
       </c>
       <c r="G59" s="3">
-        <v>515000</v>
+        <v>512600</v>
       </c>
       <c r="H59" s="3">
-        <v>615500</v>
+        <v>612700</v>
       </c>
       <c r="I59" s="3">
-        <v>1301700</v>
+        <v>1295900</v>
       </c>
       <c r="J59" s="3">
-        <v>1145300</v>
+        <v>1140100</v>
       </c>
       <c r="K59" s="3">
         <v>1022300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4617100</v>
+        <v>4596100</v>
       </c>
       <c r="E60" s="3">
-        <v>3915000</v>
+        <v>3897300</v>
       </c>
       <c r="F60" s="3">
-        <v>2075900</v>
+        <v>2066500</v>
       </c>
       <c r="G60" s="3">
-        <v>1690000</v>
+        <v>1682300</v>
       </c>
       <c r="H60" s="3">
-        <v>2092300</v>
+        <v>2082800</v>
       </c>
       <c r="I60" s="3">
-        <v>1846800</v>
+        <v>1838400</v>
       </c>
       <c r="J60" s="3">
-        <v>1344900</v>
+        <v>1338800</v>
       </c>
       <c r="K60" s="3">
         <v>1790700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5454400</v>
+        <v>5429700</v>
       </c>
       <c r="E61" s="3">
-        <v>6755000</v>
+        <v>6724400</v>
       </c>
       <c r="F61" s="3">
-        <v>3168000</v>
+        <v>3153700</v>
       </c>
       <c r="G61" s="3">
-        <v>3141700</v>
+        <v>3127500</v>
       </c>
       <c r="H61" s="3">
-        <v>3871200</v>
+        <v>3853700</v>
       </c>
       <c r="I61" s="3">
-        <v>3293300</v>
+        <v>3278400</v>
       </c>
       <c r="J61" s="3">
-        <v>2552800</v>
+        <v>2541200</v>
       </c>
       <c r="K61" s="3">
         <v>3228000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>363100</v>
+        <v>361500</v>
       </c>
       <c r="E62" s="3">
-        <v>439200</v>
+        <v>437200</v>
       </c>
       <c r="F62" s="3">
-        <v>412000</v>
+        <v>410200</v>
       </c>
       <c r="G62" s="3">
-        <v>475200</v>
+        <v>473000</v>
       </c>
       <c r="H62" s="3">
-        <v>462800</v>
+        <v>460700</v>
       </c>
       <c r="I62" s="3">
-        <v>564800</v>
+        <v>562300</v>
       </c>
       <c r="J62" s="3">
-        <v>488200</v>
+        <v>486000</v>
       </c>
       <c r="K62" s="3">
         <v>331300</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10478700</v>
+        <v>10431200</v>
       </c>
       <c r="E66" s="3">
-        <v>11272000</v>
+        <v>11221000</v>
       </c>
       <c r="F66" s="3">
-        <v>5710000</v>
+        <v>5684200</v>
       </c>
       <c r="G66" s="3">
-        <v>5369400</v>
+        <v>5345000</v>
       </c>
       <c r="H66" s="3">
-        <v>6535700</v>
+        <v>6506100</v>
       </c>
       <c r="I66" s="3">
-        <v>5703800</v>
+        <v>5678000</v>
       </c>
       <c r="J66" s="3">
-        <v>4315900</v>
+        <v>4296300</v>
       </c>
       <c r="K66" s="3">
         <v>5435800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1227200</v>
+        <v>1221600</v>
       </c>
       <c r="E72" s="3">
-        <v>1455900</v>
+        <v>1449300</v>
       </c>
       <c r="F72" s="3">
-        <v>1884000</v>
+        <v>1875500</v>
       </c>
       <c r="G72" s="3">
-        <v>1849600</v>
+        <v>1841200</v>
       </c>
       <c r="H72" s="3">
-        <v>2443000</v>
+        <v>2431900</v>
       </c>
       <c r="I72" s="3">
-        <v>7260000</v>
+        <v>7227200</v>
       </c>
       <c r="J72" s="3">
-        <v>4802800</v>
+        <v>4781100</v>
       </c>
       <c r="K72" s="3">
         <v>2342800</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>438200</v>
+        <v>436200</v>
       </c>
       <c r="E76" s="3">
-        <v>864900</v>
+        <v>861000</v>
       </c>
       <c r="F76" s="3">
-        <v>1591700</v>
+        <v>1584500</v>
       </c>
       <c r="G76" s="3">
-        <v>1844900</v>
+        <v>1836500</v>
       </c>
       <c r="H76" s="3">
-        <v>2121500</v>
+        <v>2111900</v>
       </c>
       <c r="I76" s="3">
-        <v>2237000</v>
+        <v>2226900</v>
       </c>
       <c r="J76" s="3">
-        <v>2020500</v>
+        <v>2011400</v>
       </c>
       <c r="K76" s="3">
         <v>1748300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>718700</v>
+        <v>715400</v>
       </c>
       <c r="E81" s="3">
-        <v>90700</v>
+        <v>90300</v>
       </c>
       <c r="F81" s="3">
-        <v>742600</v>
+        <v>739200</v>
       </c>
       <c r="G81" s="3">
-        <v>642300</v>
+        <v>639400</v>
       </c>
       <c r="H81" s="3">
-        <v>655700</v>
+        <v>652800</v>
       </c>
       <c r="I81" s="3">
-        <v>679800</v>
+        <v>676700</v>
       </c>
       <c r="J81" s="3">
-        <v>1057900</v>
+        <v>1053100</v>
       </c>
       <c r="K81" s="3">
         <v>468000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1417100</v>
+        <v>1410600</v>
       </c>
       <c r="E83" s="3">
-        <v>1385800</v>
+        <v>1379500</v>
       </c>
       <c r="F83" s="3">
-        <v>1058800</v>
+        <v>1054000</v>
       </c>
       <c r="G83" s="3">
-        <v>1103200</v>
+        <v>1098200</v>
       </c>
       <c r="H83" s="3">
-        <v>1092800</v>
+        <v>1087800</v>
       </c>
       <c r="I83" s="3">
-        <v>994000</v>
+        <v>989500</v>
       </c>
       <c r="J83" s="3">
-        <v>970600</v>
+        <v>966200</v>
       </c>
       <c r="K83" s="3">
         <v>1072300</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1413100</v>
+        <v>1406700</v>
       </c>
       <c r="E89" s="3">
-        <v>2045700</v>
+        <v>2036400</v>
       </c>
       <c r="F89" s="3">
-        <v>1916500</v>
+        <v>1907800</v>
       </c>
       <c r="G89" s="3">
-        <v>1730000</v>
+        <v>1722200</v>
       </c>
       <c r="H89" s="3">
-        <v>1909200</v>
+        <v>1900500</v>
       </c>
       <c r="I89" s="3">
-        <v>2104400</v>
+        <v>2094900</v>
       </c>
       <c r="J89" s="3">
-        <v>2111700</v>
+        <v>2102200</v>
       </c>
       <c r="K89" s="3">
         <v>2086200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-907200</v>
+        <v>-903100</v>
       </c>
       <c r="E91" s="3">
-        <v>-857700</v>
+        <v>-853800</v>
       </c>
       <c r="F91" s="3">
-        <v>-707100</v>
+        <v>-703900</v>
       </c>
       <c r="G91" s="3">
-        <v>-735900</v>
+        <v>-732500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1015900</v>
+        <v>-1011300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1958600</v>
+        <v>-1949700</v>
       </c>
       <c r="J91" s="3">
-        <v>-889700</v>
+        <v>-885700</v>
       </c>
       <c r="K91" s="3">
         <v>-1260600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-391600</v>
+        <v>-389800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1038700</v>
+        <v>-1034000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1080000</v>
+        <v>-1075100</v>
       </c>
       <c r="G94" s="3">
-        <v>-759300</v>
+        <v>-755800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1926000</v>
+        <v>-1917200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1391400</v>
+        <v>-1385100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1280900</v>
+        <v>-1275100</v>
       </c>
       <c r="K94" s="3">
         <v>-1474300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-695700</v>
+        <v>-692500</v>
       </c>
       <c r="E96" s="3">
-        <v>-663200</v>
+        <v>-660200</v>
       </c>
       <c r="F96" s="3">
-        <v>-685800</v>
+        <v>-682700</v>
       </c>
       <c r="G96" s="3">
-        <v>-699700</v>
+        <v>-696500</v>
       </c>
       <c r="H96" s="3">
-        <v>-672900</v>
+        <v>-669900</v>
       </c>
       <c r="I96" s="3">
-        <v>-661500</v>
+        <v>-658500</v>
       </c>
       <c r="J96" s="3">
-        <v>-526100</v>
+        <v>-523700</v>
       </c>
       <c r="K96" s="3">
         <v>-467800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1595900</v>
+        <v>-1588700</v>
       </c>
       <c r="E100" s="3">
-        <v>-343500</v>
+        <v>-341900</v>
       </c>
       <c r="F100" s="3">
-        <v>-668400</v>
+        <v>-665400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1100300</v>
+        <v>-1095300</v>
       </c>
       <c r="H100" s="3">
-        <v>-365600</v>
+        <v>-364000</v>
       </c>
       <c r="I100" s="3">
-        <v>-440100</v>
+        <v>-438100</v>
       </c>
       <c r="J100" s="3">
-        <v>-730700</v>
+        <v>-727400</v>
       </c>
       <c r="K100" s="3">
         <v>-1189700</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-35200</v>
+        <v>-35000</v>
       </c>
       <c r="E101" s="3">
-        <v>45200</v>
+        <v>45000</v>
       </c>
       <c r="F101" s="3">
         <v>-7500</v>
       </c>
       <c r="G101" s="3">
-        <v>-69200</v>
+        <v>-68800</v>
       </c>
       <c r="H101" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="I101" s="3">
-        <v>135100</v>
+        <v>134500</v>
       </c>
       <c r="J101" s="3">
         <v>13700</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-609600</v>
+        <v>-606800</v>
       </c>
       <c r="E102" s="3">
-        <v>708700</v>
+        <v>705500</v>
       </c>
       <c r="F102" s="3">
-        <v>160500</v>
+        <v>159800</v>
       </c>
       <c r="G102" s="3">
-        <v>-198700</v>
+        <v>-197800</v>
       </c>
       <c r="H102" s="3">
-        <v>-372400</v>
+        <v>-370700</v>
       </c>
       <c r="I102" s="3">
-        <v>408100</v>
+        <v>406200</v>
       </c>
       <c r="J102" s="3">
-        <v>113900</v>
+        <v>113400</v>
       </c>
       <c r="K102" s="3">
         <v>-593300</v>

--- a/AAII_Financials/Yearly/MBT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MBT_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>MBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6279800</v>
+        <v>6508300</v>
       </c>
       <c r="E8" s="3">
-        <v>5954800</v>
+        <v>6188500</v>
       </c>
       <c r="F8" s="3">
-        <v>5512300</v>
+        <v>5868000</v>
       </c>
       <c r="G8" s="3">
-        <v>5746800</v>
+        <v>5495600</v>
       </c>
       <c r="H8" s="3">
-        <v>5627400</v>
+        <v>5729300</v>
       </c>
       <c r="I8" s="3">
-        <v>5416800</v>
+        <v>5610300</v>
       </c>
       <c r="J8" s="3">
+        <v>5400400</v>
+      </c>
+      <c r="K8" s="3">
         <v>5255500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5972400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5368000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2394500</v>
+        <v>2438300</v>
       </c>
       <c r="E9" s="3">
-        <v>2244400</v>
+        <v>2274000</v>
       </c>
       <c r="F9" s="3">
-        <v>2150400</v>
+        <v>2141000</v>
       </c>
       <c r="G9" s="3">
-        <v>2339200</v>
+        <v>2118900</v>
       </c>
       <c r="H9" s="3">
-        <v>2186300</v>
+        <v>2310900</v>
       </c>
       <c r="I9" s="3">
-        <v>3017500</v>
+        <v>2148200</v>
       </c>
       <c r="J9" s="3">
+        <v>2979600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1412300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1718800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1556000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3885400</v>
+        <v>4069900</v>
       </c>
       <c r="E10" s="3">
-        <v>3710400</v>
+        <v>3914400</v>
       </c>
       <c r="F10" s="3">
-        <v>3361900</v>
+        <v>3727100</v>
       </c>
       <c r="G10" s="3">
-        <v>3407500</v>
+        <v>3376700</v>
       </c>
       <c r="H10" s="3">
-        <v>3441100</v>
+        <v>3418500</v>
       </c>
       <c r="I10" s="3">
-        <v>2399300</v>
+        <v>3462100</v>
       </c>
       <c r="J10" s="3">
+        <v>2420800</v>
+      </c>
+      <c r="K10" s="3">
         <v>3843200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4253600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3812000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100300</v>
+        <v>183200</v>
       </c>
       <c r="E14" s="3">
-        <v>50300</v>
+        <v>97700</v>
       </c>
       <c r="F14" s="3">
-        <v>88100</v>
+        <v>50200</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>87800</v>
       </c>
       <c r="H14" s="3">
-        <v>46400</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>46200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1269900</v>
+        <v>1318100</v>
       </c>
       <c r="E15" s="3">
-        <v>1258100</v>
+        <v>1265000</v>
       </c>
       <c r="F15" s="3">
-        <v>975300</v>
+        <v>1253400</v>
       </c>
       <c r="G15" s="3">
-        <v>1076100</v>
+        <v>972300</v>
       </c>
       <c r="H15" s="3">
-        <v>1026700</v>
+        <v>1072800</v>
       </c>
       <c r="I15" s="3">
-        <v>985700</v>
+        <v>1023600</v>
       </c>
       <c r="J15" s="3">
+        <v>982800</v>
+      </c>
+      <c r="K15" s="3">
         <v>966200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1072300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>984600</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4773700</v>
+        <v>5023700</v>
       </c>
       <c r="E17" s="3">
-        <v>4516800</v>
+        <v>4668600</v>
       </c>
       <c r="F17" s="3">
-        <v>4322100</v>
+        <v>4418300</v>
       </c>
       <c r="G17" s="3">
-        <v>4590400</v>
+        <v>4309000</v>
       </c>
       <c r="H17" s="3">
-        <v>4388500</v>
+        <v>4576500</v>
       </c>
       <c r="I17" s="3">
-        <v>4099700</v>
+        <v>4375200</v>
       </c>
       <c r="J17" s="3">
+        <v>4087300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3913300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4491400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4131500</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1506100</v>
+        <v>1484500</v>
       </c>
       <c r="E18" s="3">
-        <v>1438000</v>
+        <v>1519800</v>
       </c>
       <c r="F18" s="3">
-        <v>1190300</v>
+        <v>1449700</v>
       </c>
       <c r="G18" s="3">
-        <v>1156400</v>
+        <v>1186700</v>
       </c>
       <c r="H18" s="3">
-        <v>1238800</v>
+        <v>1152800</v>
       </c>
       <c r="I18" s="3">
-        <v>1317100</v>
+        <v>1235100</v>
       </c>
       <c r="J18" s="3">
+        <v>1313100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1342200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1481000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1236500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,97 +1082,104 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-57300</v>
+        <v>62000</v>
       </c>
       <c r="E20" s="3">
-        <v>80200</v>
+        <v>-57400</v>
       </c>
       <c r="F20" s="3">
+        <v>80100</v>
+      </c>
+      <c r="G20" s="3">
         <v>19500</v>
       </c>
-      <c r="G20" s="3">
-        <v>44700</v>
-      </c>
       <c r="H20" s="3">
-        <v>-25000</v>
+        <v>44600</v>
       </c>
       <c r="I20" s="3">
-        <v>-294900</v>
+        <v>-24900</v>
       </c>
       <c r="J20" s="3">
+        <v>-294000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-66900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-172900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-317800</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2863800</v>
+        <v>2856200</v>
       </c>
       <c r="E21" s="3">
-        <v>2901900</v>
+        <v>2860200</v>
       </c>
       <c r="F21" s="3">
-        <v>2267000</v>
+        <v>2896800</v>
       </c>
       <c r="G21" s="3">
-        <v>2302600</v>
+        <v>2250600</v>
       </c>
       <c r="H21" s="3">
-        <v>2305000</v>
+        <v>2285600</v>
       </c>
       <c r="I21" s="3">
-        <v>2014700</v>
+        <v>2288100</v>
       </c>
       <c r="J21" s="3">
+        <v>1999600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2244500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2388500</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>566800</v>
+        <v>526300</v>
       </c>
       <c r="E22" s="3">
-        <v>501000</v>
+        <v>565100</v>
       </c>
       <c r="F22" s="3">
-        <v>299900</v>
+        <v>499500</v>
       </c>
       <c r="G22" s="3">
-        <v>309300</v>
+        <v>299000</v>
       </c>
       <c r="H22" s="3">
-        <v>330100</v>
+        <v>308400</v>
       </c>
       <c r="I22" s="3">
-        <v>209300</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+        <v>329100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>208700</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>882100</v>
+        <v>1020200</v>
       </c>
       <c r="E23" s="3">
-        <v>1017200</v>
+        <v>897300</v>
       </c>
       <c r="F23" s="3">
-        <v>909900</v>
+        <v>1030400</v>
       </c>
       <c r="G23" s="3">
-        <v>891800</v>
+        <v>907200</v>
       </c>
       <c r="H23" s="3">
-        <v>883800</v>
+        <v>889100</v>
       </c>
       <c r="I23" s="3">
-        <v>812900</v>
+        <v>881100</v>
       </c>
       <c r="J23" s="3">
+        <v>810400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1275300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1308100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>918700</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>207700</v>
+        <v>212100</v>
       </c>
       <c r="E24" s="3">
-        <v>203100</v>
+        <v>206000</v>
       </c>
       <c r="F24" s="3">
-        <v>234500</v>
+        <v>201800</v>
       </c>
       <c r="G24" s="3">
-        <v>199700</v>
+        <v>233800</v>
       </c>
       <c r="H24" s="3">
-        <v>183700</v>
+        <v>199100</v>
       </c>
       <c r="I24" s="3">
-        <v>209800</v>
+        <v>183200</v>
       </c>
       <c r="J24" s="3">
+        <v>209200</v>
+      </c>
+      <c r="K24" s="3">
         <v>259000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>306100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>239100</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>674300</v>
+        <v>808200</v>
       </c>
       <c r="E26" s="3">
-        <v>814100</v>
+        <v>691300</v>
       </c>
       <c r="F26" s="3">
-        <v>675400</v>
+        <v>828600</v>
       </c>
       <c r="G26" s="3">
-        <v>692100</v>
+        <v>673400</v>
       </c>
       <c r="H26" s="3">
-        <v>700000</v>
+        <v>690000</v>
       </c>
       <c r="I26" s="3">
-        <v>603100</v>
+        <v>697900</v>
       </c>
       <c r="J26" s="3">
+        <v>601200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1016400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1002000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>679600</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>663000</v>
+        <v>799500</v>
       </c>
       <c r="E27" s="3">
-        <v>801200</v>
+        <v>680000</v>
       </c>
       <c r="F27" s="3">
-        <v>668200</v>
+        <v>815600</v>
       </c>
       <c r="G27" s="3">
-        <v>692400</v>
+        <v>666200</v>
       </c>
       <c r="H27" s="3">
-        <v>727500</v>
+        <v>690300</v>
       </c>
       <c r="I27" s="3">
-        <v>600600</v>
+        <v>725300</v>
       </c>
       <c r="J27" s="3">
+        <v>598700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1003800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>986700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>623800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,42 +1403,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>52400</v>
+        <v>8100</v>
       </c>
       <c r="E29" s="3">
-        <v>-710800</v>
+        <v>33200</v>
       </c>
       <c r="F29" s="3">
-        <v>71000</v>
+        <v>-725600</v>
       </c>
       <c r="G29" s="3">
-        <v>-53000</v>
+        <v>70800</v>
       </c>
       <c r="H29" s="3">
-        <v>-74800</v>
+        <v>-52900</v>
       </c>
       <c r="I29" s="3">
-        <v>76200</v>
+        <v>-74500</v>
       </c>
       <c r="J29" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K29" s="3">
         <v>49200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-518600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>27800</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>57300</v>
+        <v>-62000</v>
       </c>
       <c r="E32" s="3">
-        <v>-80200</v>
+        <v>57400</v>
       </c>
       <c r="F32" s="3">
+        <v>-80100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-19500</v>
       </c>
-      <c r="G32" s="3">
-        <v>-44700</v>
-      </c>
       <c r="H32" s="3">
-        <v>25000</v>
+        <v>-44600</v>
       </c>
       <c r="I32" s="3">
-        <v>294900</v>
+        <v>24900</v>
       </c>
       <c r="J32" s="3">
+        <v>294000</v>
+      </c>
+      <c r="K32" s="3">
         <v>66900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>172900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>317800</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>715400</v>
+        <v>807600</v>
       </c>
       <c r="E33" s="3">
-        <v>90300</v>
+        <v>713300</v>
       </c>
       <c r="F33" s="3">
-        <v>739200</v>
+        <v>90100</v>
       </c>
       <c r="G33" s="3">
-        <v>639400</v>
+        <v>737000</v>
       </c>
       <c r="H33" s="3">
-        <v>652800</v>
+        <v>637400</v>
       </c>
       <c r="I33" s="3">
-        <v>676700</v>
+        <v>650800</v>
       </c>
       <c r="J33" s="3">
+        <v>674700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1053100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>468000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>651700</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>715400</v>
+        <v>807600</v>
       </c>
       <c r="E35" s="3">
-        <v>90300</v>
+        <v>713300</v>
       </c>
       <c r="F35" s="3">
-        <v>739200</v>
+        <v>90100</v>
       </c>
       <c r="G35" s="3">
-        <v>639400</v>
+        <v>737000</v>
       </c>
       <c r="H35" s="3">
-        <v>652800</v>
+        <v>637400</v>
       </c>
       <c r="I35" s="3">
-        <v>676700</v>
+        <v>650800</v>
       </c>
       <c r="J35" s="3">
+        <v>674700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1053100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>468000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>651700</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>502100</v>
+        <v>1123100</v>
       </c>
       <c r="E41" s="3">
-        <v>1108900</v>
+        <v>500600</v>
       </c>
       <c r="F41" s="3">
-        <v>403400</v>
+        <v>1105600</v>
       </c>
       <c r="G41" s="3">
-        <v>243600</v>
+        <v>402200</v>
       </c>
       <c r="H41" s="3">
-        <v>441400</v>
+        <v>242900</v>
       </c>
       <c r="I41" s="3">
-        <v>810000</v>
+        <v>440100</v>
       </c>
       <c r="J41" s="3">
+        <v>807500</v>
+      </c>
+      <c r="K41" s="3">
         <v>403800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>347600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>28500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>529900</v>
+        <v>623400</v>
       </c>
       <c r="E42" s="3">
-        <v>874500</v>
+        <v>528300</v>
       </c>
       <c r="F42" s="3">
-        <v>594700</v>
+        <v>871800</v>
       </c>
       <c r="G42" s="3">
-        <v>100700</v>
+        <v>592900</v>
       </c>
       <c r="H42" s="3">
-        <v>657400</v>
+        <v>100400</v>
       </c>
       <c r="I42" s="3">
-        <v>131100</v>
+        <v>655400</v>
       </c>
       <c r="J42" s="3">
+        <v>130700</v>
+      </c>
+      <c r="K42" s="3">
         <v>386000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>63700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1300</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>776800</v>
+        <v>988800</v>
       </c>
       <c r="E43" s="3">
-        <v>753400</v>
+        <v>774400</v>
       </c>
       <c r="F43" s="3">
-        <v>726100</v>
+        <v>751200</v>
       </c>
       <c r="G43" s="3">
-        <v>579400</v>
+        <v>723900</v>
       </c>
       <c r="H43" s="3">
-        <v>737000</v>
+        <v>577600</v>
       </c>
       <c r="I43" s="3">
-        <v>1169700</v>
+        <v>734700</v>
       </c>
       <c r="J43" s="3">
+        <v>1166200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1137500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>617800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16300</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>204600</v>
+        <v>199900</v>
       </c>
       <c r="E44" s="3">
-        <v>246000</v>
+        <v>204000</v>
       </c>
       <c r="F44" s="3">
-        <v>131800</v>
+        <v>245300</v>
       </c>
       <c r="G44" s="3">
-        <v>189000</v>
+        <v>131400</v>
       </c>
       <c r="H44" s="3">
-        <v>191400</v>
+        <v>188400</v>
       </c>
       <c r="I44" s="3">
-        <v>198100</v>
+        <v>190800</v>
       </c>
       <c r="J44" s="3">
+        <v>197500</v>
+      </c>
+      <c r="K44" s="3">
         <v>224200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>135800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4500</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>83600</v>
+        <v>82500</v>
       </c>
       <c r="E45" s="3">
-        <v>108700</v>
+        <v>83400</v>
       </c>
       <c r="F45" s="3">
+        <v>108400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>69900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>87200</v>
+      </c>
+      <c r="I45" s="3">
         <v>70100</v>
       </c>
-      <c r="G45" s="3">
-        <v>87500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>70300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>270600</v>
-      </c>
       <c r="J45" s="3">
+        <v>269800</v>
+      </c>
+      <c r="K45" s="3">
         <v>188200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>294700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8500</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2566600</v>
+        <v>3450000</v>
       </c>
       <c r="E46" s="3">
-        <v>3547200</v>
+        <v>2558800</v>
       </c>
       <c r="F46" s="3">
-        <v>1926200</v>
+        <v>3536500</v>
       </c>
       <c r="G46" s="3">
-        <v>1200200</v>
+        <v>1920300</v>
       </c>
       <c r="H46" s="3">
-        <v>2097400</v>
+        <v>1196600</v>
       </c>
       <c r="I46" s="3">
-        <v>1860500</v>
+        <v>2091100</v>
       </c>
       <c r="J46" s="3">
+        <v>1854800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1434300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1458400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>59100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1169700</v>
+        <v>1275300</v>
       </c>
       <c r="E47" s="3">
-        <v>898700</v>
+        <v>1166100</v>
       </c>
       <c r="F47" s="3">
-        <v>267700</v>
+        <v>896000</v>
       </c>
       <c r="G47" s="3">
-        <v>850000</v>
+        <v>266900</v>
       </c>
       <c r="H47" s="3">
-        <v>956300</v>
+        <v>847400</v>
       </c>
       <c r="I47" s="3">
-        <v>715300</v>
+        <v>953400</v>
       </c>
       <c r="J47" s="3">
+        <v>713200</v>
+      </c>
+      <c r="K47" s="3">
         <v>313600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>179200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4800</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5372000</v>
+        <v>5486100</v>
       </c>
       <c r="E48" s="3">
-        <v>5620500</v>
+        <v>5355800</v>
       </c>
       <c r="F48" s="3">
-        <v>3475200</v>
+        <v>5603500</v>
       </c>
       <c r="G48" s="3">
-        <v>3603200</v>
+        <v>3464600</v>
       </c>
       <c r="H48" s="3">
-        <v>3996900</v>
+        <v>3592300</v>
       </c>
       <c r="I48" s="3">
-        <v>11842200</v>
+        <v>3984800</v>
       </c>
       <c r="J48" s="3">
+        <v>11806300</v>
+      </c>
+      <c r="K48" s="3">
         <v>7158600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4291400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>126900</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1561700</v>
+        <v>1584300</v>
       </c>
       <c r="E49" s="3">
-        <v>1801400</v>
+        <v>1461800</v>
       </c>
       <c r="F49" s="3">
-        <v>1499400</v>
+        <v>1703700</v>
       </c>
       <c r="G49" s="3">
-        <v>1435200</v>
+        <v>1494900</v>
       </c>
       <c r="H49" s="3">
-        <v>1438600</v>
+        <v>1430900</v>
       </c>
       <c r="I49" s="3">
-        <v>3901900</v>
+        <v>1434200</v>
       </c>
       <c r="J49" s="3">
+        <v>3890000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1960800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1181100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>41300</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>197300</v>
+        <v>291900</v>
       </c>
       <c r="E52" s="3">
-        <v>214000</v>
+        <v>291900</v>
       </c>
       <c r="F52" s="3">
-        <v>100200</v>
+        <v>305700</v>
       </c>
       <c r="G52" s="3">
-        <v>92900</v>
+        <v>99800</v>
       </c>
       <c r="H52" s="3">
-        <v>128800</v>
+        <v>92700</v>
       </c>
       <c r="I52" s="3">
-        <v>394000</v>
+        <v>128400</v>
       </c>
       <c r="J52" s="3">
+        <v>392800</v>
+      </c>
+      <c r="K52" s="3">
         <v>117400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>96700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10867400</v>
+        <v>12087500</v>
       </c>
       <c r="E54" s="3">
-        <v>12081900</v>
+        <v>10834400</v>
       </c>
       <c r="F54" s="3">
-        <v>7268600</v>
+        <v>12045300</v>
       </c>
       <c r="G54" s="3">
-        <v>7181600</v>
+        <v>7246600</v>
       </c>
       <c r="H54" s="3">
-        <v>8618100</v>
+        <v>7159800</v>
       </c>
       <c r="I54" s="3">
-        <v>7904800</v>
+        <v>8591900</v>
       </c>
       <c r="J54" s="3">
+        <v>7880800</v>
+      </c>
+      <c r="K54" s="3">
         <v>6307700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7184100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>236000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>947100</v>
+        <v>736600</v>
       </c>
       <c r="E57" s="3">
-        <v>707300</v>
+        <v>944300</v>
       </c>
       <c r="F57" s="3">
-        <v>624100</v>
+        <v>705100</v>
       </c>
       <c r="G57" s="3">
-        <v>547000</v>
+        <v>622200</v>
       </c>
       <c r="H57" s="3">
-        <v>761800</v>
+        <v>545400</v>
       </c>
       <c r="I57" s="3">
-        <v>693600</v>
+        <v>759500</v>
       </c>
       <c r="J57" s="3">
+        <v>691500</v>
+      </c>
+      <c r="K57" s="3">
         <v>517800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>368400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>25500</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1147200</v>
+        <v>661500</v>
       </c>
       <c r="E58" s="3">
-        <v>249000</v>
+        <v>1143700</v>
       </c>
       <c r="F58" s="3">
-        <v>850400</v>
+        <v>248200</v>
       </c>
       <c r="G58" s="3">
-        <v>622700</v>
+        <v>847800</v>
       </c>
       <c r="H58" s="3">
-        <v>708300</v>
+        <v>620800</v>
       </c>
       <c r="I58" s="3">
-        <v>845700</v>
+        <v>706200</v>
       </c>
       <c r="J58" s="3">
+        <v>843100</v>
+      </c>
+      <c r="K58" s="3">
         <v>553000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>433700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17800</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2501800</v>
+        <v>2923200</v>
       </c>
       <c r="E59" s="3">
-        <v>2941000</v>
+        <v>2494200</v>
       </c>
       <c r="F59" s="3">
-        <v>592000</v>
+        <v>2932100</v>
       </c>
       <c r="G59" s="3">
-        <v>512600</v>
+        <v>590200</v>
       </c>
       <c r="H59" s="3">
-        <v>612700</v>
+        <v>511100</v>
       </c>
       <c r="I59" s="3">
-        <v>1295900</v>
+        <v>610900</v>
       </c>
       <c r="J59" s="3">
+        <v>1291900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1140100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1022300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29200</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4596100</v>
+        <v>4321300</v>
       </c>
       <c r="E60" s="3">
-        <v>3897300</v>
+        <v>4582200</v>
       </c>
       <c r="F60" s="3">
-        <v>2066500</v>
+        <v>3885400</v>
       </c>
       <c r="G60" s="3">
-        <v>1682300</v>
+        <v>2060200</v>
       </c>
       <c r="H60" s="3">
-        <v>2082800</v>
+        <v>1677200</v>
       </c>
       <c r="I60" s="3">
-        <v>1838400</v>
+        <v>2076500</v>
       </c>
       <c r="J60" s="3">
+        <v>1832800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1338800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1790700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>54900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5429700</v>
+        <v>6966600</v>
       </c>
       <c r="E61" s="3">
-        <v>6724400</v>
+        <v>5413200</v>
       </c>
       <c r="F61" s="3">
-        <v>3153700</v>
+        <v>6704000</v>
       </c>
       <c r="G61" s="3">
-        <v>3127500</v>
+        <v>3144100</v>
       </c>
       <c r="H61" s="3">
-        <v>3853700</v>
+        <v>3118000</v>
       </c>
       <c r="I61" s="3">
-        <v>3278400</v>
+        <v>3842000</v>
       </c>
       <c r="J61" s="3">
+        <v>3268400</v>
+      </c>
+      <c r="K61" s="3">
         <v>2541200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3228000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>116400</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>361500</v>
+        <v>369800</v>
       </c>
       <c r="E62" s="3">
-        <v>437200</v>
+        <v>360400</v>
       </c>
       <c r="F62" s="3">
-        <v>410200</v>
+        <v>435900</v>
       </c>
       <c r="G62" s="3">
-        <v>473000</v>
+        <v>408900</v>
       </c>
       <c r="H62" s="3">
-        <v>460700</v>
+        <v>471600</v>
       </c>
       <c r="I62" s="3">
-        <v>562300</v>
+        <v>459300</v>
       </c>
       <c r="J62" s="3">
+        <v>560600</v>
+      </c>
+      <c r="K62" s="3">
         <v>486000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>331300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10431200</v>
+        <v>11710100</v>
       </c>
       <c r="E66" s="3">
-        <v>11221000</v>
+        <v>10399600</v>
       </c>
       <c r="F66" s="3">
-        <v>5684200</v>
+        <v>11187000</v>
       </c>
       <c r="G66" s="3">
-        <v>5345000</v>
+        <v>5666900</v>
       </c>
       <c r="H66" s="3">
-        <v>6506100</v>
+        <v>5328800</v>
       </c>
       <c r="I66" s="3">
-        <v>5678000</v>
+        <v>6486400</v>
       </c>
       <c r="J66" s="3">
+        <v>5660700</v>
+      </c>
+      <c r="K66" s="3">
         <v>4296300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5435800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>182400</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1221600</v>
+        <v>1359700</v>
       </c>
       <c r="E72" s="3">
-        <v>1449300</v>
+        <v>1217900</v>
       </c>
       <c r="F72" s="3">
-        <v>1875500</v>
+        <v>1444900</v>
       </c>
       <c r="G72" s="3">
-        <v>1841200</v>
+        <v>1869800</v>
       </c>
       <c r="H72" s="3">
-        <v>2431900</v>
+        <v>1835600</v>
       </c>
       <c r="I72" s="3">
-        <v>7227200</v>
+        <v>2424500</v>
       </c>
       <c r="J72" s="3">
+        <v>7205200</v>
+      </c>
+      <c r="K72" s="3">
         <v>4781100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2342800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>81500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>436200</v>
+        <v>377400</v>
       </c>
       <c r="E76" s="3">
-        <v>861000</v>
+        <v>434800</v>
       </c>
       <c r="F76" s="3">
-        <v>1584500</v>
+        <v>858400</v>
       </c>
       <c r="G76" s="3">
-        <v>1836500</v>
+        <v>1579700</v>
       </c>
       <c r="H76" s="3">
-        <v>2111900</v>
+        <v>1830900</v>
       </c>
       <c r="I76" s="3">
-        <v>2226900</v>
+        <v>2105500</v>
       </c>
       <c r="J76" s="3">
+        <v>2220100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2011400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1748300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53600</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>715400</v>
+        <v>807600</v>
       </c>
       <c r="E81" s="3">
-        <v>90300</v>
+        <v>713300</v>
       </c>
       <c r="F81" s="3">
-        <v>739200</v>
+        <v>90100</v>
       </c>
       <c r="G81" s="3">
-        <v>639400</v>
+        <v>737000</v>
       </c>
       <c r="H81" s="3">
-        <v>652800</v>
+        <v>637400</v>
       </c>
       <c r="I81" s="3">
-        <v>676700</v>
+        <v>650800</v>
       </c>
       <c r="J81" s="3">
+        <v>674700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1053100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>468000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>651700</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1410600</v>
+        <v>1317700</v>
       </c>
       <c r="E83" s="3">
-        <v>1379500</v>
+        <v>1406400</v>
       </c>
       <c r="F83" s="3">
-        <v>1054000</v>
+        <v>1375300</v>
       </c>
       <c r="G83" s="3">
-        <v>1098200</v>
+        <v>1050800</v>
       </c>
       <c r="H83" s="3">
-        <v>1087800</v>
+        <v>1094900</v>
       </c>
       <c r="I83" s="3">
-        <v>989500</v>
+        <v>1084500</v>
       </c>
       <c r="J83" s="3">
+        <v>986500</v>
+      </c>
+      <c r="K83" s="3">
         <v>966200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1072300</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1406700</v>
+        <v>2044900</v>
       </c>
       <c r="E89" s="3">
-        <v>2036400</v>
+        <v>1402500</v>
       </c>
       <c r="F89" s="3">
-        <v>1907800</v>
+        <v>2030200</v>
       </c>
       <c r="G89" s="3">
-        <v>1722200</v>
+        <v>1902000</v>
       </c>
       <c r="H89" s="3">
-        <v>1900500</v>
+        <v>1716900</v>
       </c>
       <c r="I89" s="3">
-        <v>2094900</v>
+        <v>1894800</v>
       </c>
       <c r="J89" s="3">
+        <v>2088500</v>
+      </c>
+      <c r="K89" s="3">
         <v>2102200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2086200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>55700</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-903100</v>
+        <v>-871300</v>
       </c>
       <c r="E91" s="3">
-        <v>-853800</v>
+        <v>-900300</v>
       </c>
       <c r="F91" s="3">
-        <v>-703900</v>
+        <v>-851200</v>
       </c>
       <c r="G91" s="3">
-        <v>-732500</v>
+        <v>-701800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1011300</v>
+        <v>-730300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1949700</v>
+        <v>-1008200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1943800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-885700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1260600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29500</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-389800</v>
+        <v>-1066900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1034000</v>
+        <v>-388600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1075100</v>
+        <v>-1030800</v>
       </c>
       <c r="G94" s="3">
-        <v>-755800</v>
+        <v>-1071900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1917200</v>
+        <v>-753500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1385100</v>
+        <v>-1911400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1380900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1275100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1474300</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-692500</v>
+        <v>-985200</v>
       </c>
       <c r="E96" s="3">
-        <v>-660200</v>
+        <v>-690400</v>
       </c>
       <c r="F96" s="3">
-        <v>-682700</v>
+        <v>-658200</v>
       </c>
       <c r="G96" s="3">
-        <v>-696500</v>
+        <v>-680600</v>
       </c>
       <c r="H96" s="3">
-        <v>-669900</v>
+        <v>-694400</v>
       </c>
       <c r="I96" s="3">
-        <v>-658500</v>
+        <v>-667800</v>
       </c>
       <c r="J96" s="3">
+        <v>-656500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-523700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-467800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-15000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1588700</v>
+        <v>-359800</v>
       </c>
       <c r="E100" s="3">
-        <v>-341900</v>
+        <v>-1583900</v>
       </c>
       <c r="F100" s="3">
-        <v>-665400</v>
+        <v>-340900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1095300</v>
+        <v>-663400</v>
       </c>
       <c r="H100" s="3">
-        <v>-364000</v>
+        <v>-1091900</v>
       </c>
       <c r="I100" s="3">
-        <v>-438100</v>
+        <v>-362900</v>
       </c>
       <c r="J100" s="3">
+        <v>-436700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-727400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1189700</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-35000</v>
+        <v>5100</v>
       </c>
       <c r="E101" s="3">
-        <v>45000</v>
+        <v>-34900</v>
       </c>
       <c r="F101" s="3">
+        <v>44900</v>
+      </c>
+      <c r="G101" s="3">
         <v>-7500</v>
       </c>
-      <c r="G101" s="3">
-        <v>-68800</v>
-      </c>
       <c r="H101" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="I101" s="3">
         <v>10000</v>
       </c>
-      <c r="I101" s="3">
-        <v>134500</v>
-      </c>
       <c r="J101" s="3">
+        <v>134100</v>
+      </c>
+      <c r="K101" s="3">
         <v>13700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15600</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-606800</v>
+        <v>623300</v>
       </c>
       <c r="E102" s="3">
-        <v>705500</v>
+        <v>-605000</v>
       </c>
       <c r="F102" s="3">
-        <v>159800</v>
+        <v>703400</v>
       </c>
       <c r="G102" s="3">
-        <v>-197800</v>
+        <v>159300</v>
       </c>
       <c r="H102" s="3">
-        <v>-370700</v>
+        <v>-197200</v>
       </c>
       <c r="I102" s="3">
-        <v>406200</v>
+        <v>-369500</v>
       </c>
       <c r="J102" s="3">
+        <v>405000</v>
+      </c>
+      <c r="K102" s="3">
         <v>113400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-593300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-24700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MBT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MBT_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6508300</v>
+        <v>6735900</v>
       </c>
       <c r="E8" s="3">
-        <v>6188500</v>
+        <v>6404900</v>
       </c>
       <c r="F8" s="3">
-        <v>5868000</v>
+        <v>6073300</v>
       </c>
       <c r="G8" s="3">
-        <v>5495600</v>
+        <v>5687900</v>
       </c>
       <c r="H8" s="3">
-        <v>5729300</v>
+        <v>5929800</v>
       </c>
       <c r="I8" s="3">
-        <v>5610300</v>
+        <v>5806600</v>
       </c>
       <c r="J8" s="3">
-        <v>5400400</v>
+        <v>5589300</v>
       </c>
       <c r="K8" s="3">
         <v>5255500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2438300</v>
+        <v>2523600</v>
       </c>
       <c r="E9" s="3">
-        <v>2274000</v>
+        <v>2353600</v>
       </c>
       <c r="F9" s="3">
-        <v>2141000</v>
+        <v>2215900</v>
       </c>
       <c r="G9" s="3">
-        <v>2118900</v>
+        <v>2193000</v>
       </c>
       <c r="H9" s="3">
-        <v>2310900</v>
+        <v>2391700</v>
       </c>
       <c r="I9" s="3">
-        <v>2148200</v>
+        <v>2223300</v>
       </c>
       <c r="J9" s="3">
-        <v>2979600</v>
+        <v>3083800</v>
       </c>
       <c r="K9" s="3">
         <v>1412300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4069900</v>
+        <v>4212300</v>
       </c>
       <c r="E10" s="3">
-        <v>3914400</v>
+        <v>4051400</v>
       </c>
       <c r="F10" s="3">
-        <v>3727100</v>
+        <v>3857400</v>
       </c>
       <c r="G10" s="3">
-        <v>3376700</v>
+        <v>3494900</v>
       </c>
       <c r="H10" s="3">
-        <v>3418500</v>
+        <v>3538100</v>
       </c>
       <c r="I10" s="3">
-        <v>3462100</v>
+        <v>3583200</v>
       </c>
       <c r="J10" s="3">
-        <v>2420800</v>
+        <v>2505500</v>
       </c>
       <c r="K10" s="3">
         <v>3843200</v>
@@ -916,22 +916,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>183200</v>
+        <v>189700</v>
       </c>
       <c r="E14" s="3">
-        <v>97700</v>
+        <v>101100</v>
       </c>
       <c r="F14" s="3">
-        <v>50200</v>
+        <v>52000</v>
       </c>
       <c r="G14" s="3">
-        <v>87800</v>
+        <v>90900</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>46200</v>
+        <v>47900</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1318100</v>
+        <v>1364200</v>
       </c>
       <c r="E15" s="3">
-        <v>1265000</v>
+        <v>1309200</v>
       </c>
       <c r="F15" s="3">
-        <v>1253400</v>
+        <v>1297300</v>
       </c>
       <c r="G15" s="3">
-        <v>972300</v>
+        <v>1006300</v>
       </c>
       <c r="H15" s="3">
-        <v>1072800</v>
+        <v>1110300</v>
       </c>
       <c r="I15" s="3">
-        <v>1023600</v>
+        <v>1059400</v>
       </c>
       <c r="J15" s="3">
-        <v>982800</v>
+        <v>1017100</v>
       </c>
       <c r="K15" s="3">
         <v>966200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5023700</v>
+        <v>5199500</v>
       </c>
       <c r="E17" s="3">
-        <v>4668600</v>
+        <v>4831900</v>
       </c>
       <c r="F17" s="3">
-        <v>4418300</v>
+        <v>4572900</v>
       </c>
       <c r="G17" s="3">
-        <v>4309000</v>
+        <v>4459700</v>
       </c>
       <c r="H17" s="3">
-        <v>4576500</v>
+        <v>4736600</v>
       </c>
       <c r="I17" s="3">
-        <v>4375200</v>
+        <v>4528300</v>
       </c>
       <c r="J17" s="3">
-        <v>4087300</v>
+        <v>4230300</v>
       </c>
       <c r="K17" s="3">
         <v>3913300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1484500</v>
+        <v>1536500</v>
       </c>
       <c r="E18" s="3">
-        <v>1519800</v>
+        <v>1573000</v>
       </c>
       <c r="F18" s="3">
-        <v>1449700</v>
+        <v>1500400</v>
       </c>
       <c r="G18" s="3">
-        <v>1186700</v>
+        <v>1228200</v>
       </c>
       <c r="H18" s="3">
-        <v>1152800</v>
+        <v>1193200</v>
       </c>
       <c r="I18" s="3">
-        <v>1235100</v>
+        <v>1278300</v>
       </c>
       <c r="J18" s="3">
-        <v>1313100</v>
+        <v>1359100</v>
       </c>
       <c r="K18" s="3">
         <v>1342200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>62000</v>
+        <v>64200</v>
       </c>
       <c r="E20" s="3">
-        <v>-57400</v>
+        <v>-59400</v>
       </c>
       <c r="F20" s="3">
-        <v>80100</v>
+        <v>82900</v>
       </c>
       <c r="G20" s="3">
-        <v>19500</v>
+        <v>20200</v>
       </c>
       <c r="H20" s="3">
-        <v>44600</v>
+        <v>46100</v>
       </c>
       <c r="I20" s="3">
-        <v>-24900</v>
+        <v>-25800</v>
       </c>
       <c r="J20" s="3">
-        <v>-294000</v>
+        <v>-304300</v>
       </c>
       <c r="K20" s="3">
         <v>-66900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2856200</v>
+        <v>2965400</v>
       </c>
       <c r="E21" s="3">
-        <v>2860200</v>
+        <v>2970200</v>
       </c>
       <c r="F21" s="3">
-        <v>2896800</v>
+        <v>3007800</v>
       </c>
       <c r="G21" s="3">
-        <v>2250600</v>
+        <v>2336700</v>
       </c>
       <c r="H21" s="3">
-        <v>2285600</v>
+        <v>2373300</v>
       </c>
       <c r="I21" s="3">
-        <v>2288100</v>
+        <v>2375800</v>
       </c>
       <c r="J21" s="3">
-        <v>1999600</v>
+        <v>2076500</v>
       </c>
       <c r="K21" s="3">
         <v>2244500</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>526300</v>
+        <v>544700</v>
       </c>
       <c r="E22" s="3">
-        <v>565100</v>
+        <v>584800</v>
       </c>
       <c r="F22" s="3">
-        <v>499500</v>
+        <v>516900</v>
       </c>
       <c r="G22" s="3">
-        <v>299000</v>
+        <v>309400</v>
       </c>
       <c r="H22" s="3">
-        <v>308400</v>
+        <v>319100</v>
       </c>
       <c r="I22" s="3">
-        <v>329100</v>
+        <v>340600</v>
       </c>
       <c r="J22" s="3">
-        <v>208700</v>
+        <v>215900</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1020200</v>
+        <v>1055900</v>
       </c>
       <c r="E23" s="3">
-        <v>897300</v>
+        <v>928700</v>
       </c>
       <c r="F23" s="3">
-        <v>1030400</v>
+        <v>1066400</v>
       </c>
       <c r="G23" s="3">
-        <v>907200</v>
+        <v>938900</v>
       </c>
       <c r="H23" s="3">
-        <v>889100</v>
+        <v>920200</v>
       </c>
       <c r="I23" s="3">
-        <v>881100</v>
+        <v>911900</v>
       </c>
       <c r="J23" s="3">
-        <v>810400</v>
+        <v>838800</v>
       </c>
       <c r="K23" s="3">
         <v>1275300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>212100</v>
+        <v>219500</v>
       </c>
       <c r="E24" s="3">
+        <v>213200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>208800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>242000</v>
+      </c>
+      <c r="H24" s="3">
         <v>206000</v>
       </c>
-      <c r="F24" s="3">
-        <v>201800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>233800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>199100</v>
-      </c>
       <c r="I24" s="3">
-        <v>183200</v>
+        <v>189600</v>
       </c>
       <c r="J24" s="3">
-        <v>209200</v>
+        <v>216500</v>
       </c>
       <c r="K24" s="3">
         <v>259000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>808200</v>
+        <v>836400</v>
       </c>
       <c r="E26" s="3">
-        <v>691300</v>
+        <v>715500</v>
       </c>
       <c r="F26" s="3">
-        <v>828600</v>
+        <v>857600</v>
       </c>
       <c r="G26" s="3">
-        <v>673400</v>
+        <v>696900</v>
       </c>
       <c r="H26" s="3">
-        <v>690000</v>
+        <v>714100</v>
       </c>
       <c r="I26" s="3">
-        <v>697900</v>
+        <v>722300</v>
       </c>
       <c r="J26" s="3">
-        <v>601200</v>
+        <v>622300</v>
       </c>
       <c r="K26" s="3">
         <v>1016400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>799500</v>
+        <v>827400</v>
       </c>
       <c r="E27" s="3">
-        <v>680000</v>
+        <v>703800</v>
       </c>
       <c r="F27" s="3">
-        <v>815600</v>
+        <v>844200</v>
       </c>
       <c r="G27" s="3">
-        <v>666200</v>
+        <v>689500</v>
       </c>
       <c r="H27" s="3">
-        <v>690300</v>
+        <v>714500</v>
       </c>
       <c r="I27" s="3">
-        <v>725300</v>
+        <v>750700</v>
       </c>
       <c r="J27" s="3">
-        <v>598700</v>
+        <v>619700</v>
       </c>
       <c r="K27" s="3">
         <v>1003800</v>
@@ -1413,25 +1413,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="E29" s="3">
-        <v>33200</v>
+        <v>34400</v>
       </c>
       <c r="F29" s="3">
-        <v>-725600</v>
+        <v>-751000</v>
       </c>
       <c r="G29" s="3">
-        <v>70800</v>
+        <v>73300</v>
       </c>
       <c r="H29" s="3">
-        <v>-52900</v>
+        <v>-54700</v>
       </c>
       <c r="I29" s="3">
-        <v>-74500</v>
+        <v>-77100</v>
       </c>
       <c r="J29" s="3">
-        <v>75900</v>
+        <v>78600</v>
       </c>
       <c r="K29" s="3">
         <v>49200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-62000</v>
+        <v>-64200</v>
       </c>
       <c r="E32" s="3">
-        <v>57400</v>
+        <v>59400</v>
       </c>
       <c r="F32" s="3">
-        <v>-80100</v>
+        <v>-82900</v>
       </c>
       <c r="G32" s="3">
-        <v>-19500</v>
+        <v>-20200</v>
       </c>
       <c r="H32" s="3">
-        <v>-44600</v>
+        <v>-46100</v>
       </c>
       <c r="I32" s="3">
-        <v>24900</v>
+        <v>25800</v>
       </c>
       <c r="J32" s="3">
-        <v>294000</v>
+        <v>304300</v>
       </c>
       <c r="K32" s="3">
         <v>66900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>807600</v>
+        <v>835800</v>
       </c>
       <c r="E33" s="3">
-        <v>713300</v>
+        <v>738200</v>
       </c>
       <c r="F33" s="3">
-        <v>90100</v>
+        <v>93200</v>
       </c>
       <c r="G33" s="3">
-        <v>737000</v>
+        <v>762700</v>
       </c>
       <c r="H33" s="3">
-        <v>637400</v>
+        <v>659700</v>
       </c>
       <c r="I33" s="3">
-        <v>650800</v>
+        <v>673500</v>
       </c>
       <c r="J33" s="3">
-        <v>674700</v>
+        <v>698300</v>
       </c>
       <c r="K33" s="3">
         <v>1053100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>807600</v>
+        <v>835800</v>
       </c>
       <c r="E35" s="3">
-        <v>713300</v>
+        <v>738200</v>
       </c>
       <c r="F35" s="3">
-        <v>90100</v>
+        <v>93200</v>
       </c>
       <c r="G35" s="3">
-        <v>737000</v>
+        <v>762700</v>
       </c>
       <c r="H35" s="3">
-        <v>637400</v>
+        <v>659700</v>
       </c>
       <c r="I35" s="3">
-        <v>650800</v>
+        <v>673500</v>
       </c>
       <c r="J35" s="3">
-        <v>674700</v>
+        <v>698300</v>
       </c>
       <c r="K35" s="3">
         <v>1053100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1123100</v>
+        <v>1162400</v>
       </c>
       <c r="E41" s="3">
-        <v>500600</v>
+        <v>518100</v>
       </c>
       <c r="F41" s="3">
-        <v>1105600</v>
+        <v>1144300</v>
       </c>
       <c r="G41" s="3">
-        <v>402200</v>
+        <v>416300</v>
       </c>
       <c r="H41" s="3">
-        <v>242900</v>
+        <v>251400</v>
       </c>
       <c r="I41" s="3">
-        <v>440100</v>
+        <v>455400</v>
       </c>
       <c r="J41" s="3">
-        <v>807500</v>
+        <v>835800</v>
       </c>
       <c r="K41" s="3">
         <v>403800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>623400</v>
+        <v>645200</v>
       </c>
       <c r="E42" s="3">
-        <v>528300</v>
+        <v>546800</v>
       </c>
       <c r="F42" s="3">
-        <v>871800</v>
+        <v>902300</v>
       </c>
       <c r="G42" s="3">
-        <v>592900</v>
+        <v>613600</v>
       </c>
       <c r="H42" s="3">
-        <v>100400</v>
+        <v>103900</v>
       </c>
       <c r="I42" s="3">
-        <v>655400</v>
+        <v>678300</v>
       </c>
       <c r="J42" s="3">
-        <v>130700</v>
+        <v>135300</v>
       </c>
       <c r="K42" s="3">
         <v>386000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>988800</v>
+        <v>1023400</v>
       </c>
       <c r="E43" s="3">
-        <v>774400</v>
+        <v>801500</v>
       </c>
       <c r="F43" s="3">
-        <v>751200</v>
+        <v>777400</v>
       </c>
       <c r="G43" s="3">
-        <v>723900</v>
+        <v>749200</v>
       </c>
       <c r="H43" s="3">
-        <v>577600</v>
+        <v>597800</v>
       </c>
       <c r="I43" s="3">
-        <v>734700</v>
+        <v>760400</v>
       </c>
       <c r="J43" s="3">
-        <v>1166200</v>
+        <v>1206900</v>
       </c>
       <c r="K43" s="3">
         <v>1137500</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>199900</v>
+        <v>206900</v>
       </c>
       <c r="E44" s="3">
-        <v>204000</v>
+        <v>211200</v>
       </c>
       <c r="F44" s="3">
-        <v>245300</v>
+        <v>253900</v>
       </c>
       <c r="G44" s="3">
-        <v>131400</v>
+        <v>136000</v>
       </c>
       <c r="H44" s="3">
-        <v>188400</v>
+        <v>195000</v>
       </c>
       <c r="I44" s="3">
-        <v>190800</v>
+        <v>197500</v>
       </c>
       <c r="J44" s="3">
-        <v>197500</v>
+        <v>204400</v>
       </c>
       <c r="K44" s="3">
         <v>224200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>82500</v>
+        <v>85400</v>
       </c>
       <c r="E45" s="3">
-        <v>83400</v>
+        <v>86300</v>
       </c>
       <c r="F45" s="3">
-        <v>108400</v>
+        <v>112100</v>
       </c>
       <c r="G45" s="3">
-        <v>69900</v>
+        <v>72400</v>
       </c>
       <c r="H45" s="3">
-        <v>87200</v>
+        <v>90300</v>
       </c>
       <c r="I45" s="3">
-        <v>70100</v>
+        <v>72500</v>
       </c>
       <c r="J45" s="3">
-        <v>269800</v>
+        <v>279200</v>
       </c>
       <c r="K45" s="3">
         <v>188200</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3450000</v>
+        <v>3570600</v>
       </c>
       <c r="E46" s="3">
-        <v>2558800</v>
+        <v>2648300</v>
       </c>
       <c r="F46" s="3">
-        <v>3536500</v>
+        <v>3660200</v>
       </c>
       <c r="G46" s="3">
-        <v>1920300</v>
+        <v>1987500</v>
       </c>
       <c r="H46" s="3">
-        <v>1196600</v>
+        <v>1238400</v>
       </c>
       <c r="I46" s="3">
-        <v>2091100</v>
+        <v>2164200</v>
       </c>
       <c r="J46" s="3">
-        <v>1854800</v>
+        <v>1919700</v>
       </c>
       <c r="K46" s="3">
         <v>1434300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1275300</v>
+        <v>1319900</v>
       </c>
       <c r="E47" s="3">
-        <v>1166100</v>
+        <v>1206900</v>
       </c>
       <c r="F47" s="3">
-        <v>896000</v>
+        <v>927300</v>
       </c>
       <c r="G47" s="3">
-        <v>266900</v>
+        <v>276200</v>
       </c>
       <c r="H47" s="3">
-        <v>847400</v>
+        <v>877000</v>
       </c>
       <c r="I47" s="3">
-        <v>953400</v>
+        <v>986800</v>
       </c>
       <c r="J47" s="3">
-        <v>713200</v>
+        <v>738100</v>
       </c>
       <c r="K47" s="3">
         <v>313600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5486100</v>
+        <v>5678000</v>
       </c>
       <c r="E48" s="3">
-        <v>5355800</v>
+        <v>5543100</v>
       </c>
       <c r="F48" s="3">
-        <v>5603500</v>
+        <v>5799500</v>
       </c>
       <c r="G48" s="3">
-        <v>3464600</v>
+        <v>3585800</v>
       </c>
       <c r="H48" s="3">
-        <v>3592300</v>
+        <v>3717900</v>
       </c>
       <c r="I48" s="3">
-        <v>3984800</v>
+        <v>4124200</v>
       </c>
       <c r="J48" s="3">
-        <v>11806300</v>
+        <v>12219300</v>
       </c>
       <c r="K48" s="3">
         <v>7158600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1584300</v>
+        <v>1639700</v>
       </c>
       <c r="E49" s="3">
-        <v>1461800</v>
+        <v>1512900</v>
       </c>
       <c r="F49" s="3">
-        <v>1703700</v>
+        <v>1763300</v>
       </c>
       <c r="G49" s="3">
-        <v>1494900</v>
+        <v>1547200</v>
       </c>
       <c r="H49" s="3">
-        <v>1430900</v>
+        <v>1480900</v>
       </c>
       <c r="I49" s="3">
-        <v>1434200</v>
+        <v>1484400</v>
       </c>
       <c r="J49" s="3">
-        <v>3890000</v>
+        <v>4026100</v>
       </c>
       <c r="K49" s="3">
         <v>1960800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>291900</v>
+        <v>302100</v>
       </c>
       <c r="E52" s="3">
-        <v>291900</v>
+        <v>302100</v>
       </c>
       <c r="F52" s="3">
-        <v>305700</v>
+        <v>316400</v>
       </c>
       <c r="G52" s="3">
-        <v>99800</v>
+        <v>103300</v>
       </c>
       <c r="H52" s="3">
-        <v>92700</v>
+        <v>95900</v>
       </c>
       <c r="I52" s="3">
-        <v>128400</v>
+        <v>132900</v>
       </c>
       <c r="J52" s="3">
-        <v>392800</v>
+        <v>406600</v>
       </c>
       <c r="K52" s="3">
         <v>117400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12087500</v>
+        <v>12510400</v>
       </c>
       <c r="E54" s="3">
-        <v>10834400</v>
+        <v>11213400</v>
       </c>
       <c r="F54" s="3">
-        <v>12045300</v>
+        <v>12466700</v>
       </c>
       <c r="G54" s="3">
-        <v>7246600</v>
+        <v>7500100</v>
       </c>
       <c r="H54" s="3">
-        <v>7159800</v>
+        <v>7410200</v>
       </c>
       <c r="I54" s="3">
-        <v>8591900</v>
+        <v>8892500</v>
       </c>
       <c r="J54" s="3">
-        <v>7880800</v>
+        <v>8156500</v>
       </c>
       <c r="K54" s="3">
         <v>6307700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>736600</v>
+        <v>762400</v>
       </c>
       <c r="E57" s="3">
-        <v>944300</v>
+        <v>977300</v>
       </c>
       <c r="F57" s="3">
-        <v>705100</v>
+        <v>729800</v>
       </c>
       <c r="G57" s="3">
-        <v>622200</v>
+        <v>643900</v>
       </c>
       <c r="H57" s="3">
-        <v>545400</v>
+        <v>564400</v>
       </c>
       <c r="I57" s="3">
-        <v>759500</v>
+        <v>786100</v>
       </c>
       <c r="J57" s="3">
-        <v>691500</v>
+        <v>715700</v>
       </c>
       <c r="K57" s="3">
         <v>517800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>661500</v>
+        <v>684600</v>
       </c>
       <c r="E58" s="3">
-        <v>1143700</v>
+        <v>1183700</v>
       </c>
       <c r="F58" s="3">
-        <v>248200</v>
+        <v>256900</v>
       </c>
       <c r="G58" s="3">
-        <v>847800</v>
+        <v>877500</v>
       </c>
       <c r="H58" s="3">
-        <v>620800</v>
+        <v>642500</v>
       </c>
       <c r="I58" s="3">
-        <v>706200</v>
+        <v>730900</v>
       </c>
       <c r="J58" s="3">
-        <v>843100</v>
+        <v>872600</v>
       </c>
       <c r="K58" s="3">
         <v>553000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2923200</v>
+        <v>3025400</v>
       </c>
       <c r="E59" s="3">
-        <v>2494200</v>
+        <v>2581500</v>
       </c>
       <c r="F59" s="3">
-        <v>2932100</v>
+        <v>3034700</v>
       </c>
       <c r="G59" s="3">
-        <v>590200</v>
+        <v>610900</v>
       </c>
       <c r="H59" s="3">
-        <v>511100</v>
+        <v>529000</v>
       </c>
       <c r="I59" s="3">
-        <v>610900</v>
+        <v>632200</v>
       </c>
       <c r="J59" s="3">
-        <v>1291900</v>
+        <v>1337100</v>
       </c>
       <c r="K59" s="3">
         <v>1140100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4321300</v>
+        <v>4472400</v>
       </c>
       <c r="E60" s="3">
-        <v>4582200</v>
+        <v>4742500</v>
       </c>
       <c r="F60" s="3">
-        <v>3885400</v>
+        <v>4021400</v>
       </c>
       <c r="G60" s="3">
-        <v>2060200</v>
+        <v>2132300</v>
       </c>
       <c r="H60" s="3">
-        <v>1677200</v>
+        <v>1735900</v>
       </c>
       <c r="I60" s="3">
-        <v>2076500</v>
+        <v>2149200</v>
       </c>
       <c r="J60" s="3">
-        <v>1832800</v>
+        <v>1897000</v>
       </c>
       <c r="K60" s="3">
         <v>1338800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6966600</v>
+        <v>7210300</v>
       </c>
       <c r="E61" s="3">
-        <v>5413200</v>
+        <v>5602600</v>
       </c>
       <c r="F61" s="3">
-        <v>6704000</v>
+        <v>6938500</v>
       </c>
       <c r="G61" s="3">
-        <v>3144100</v>
+        <v>3254100</v>
       </c>
       <c r="H61" s="3">
-        <v>3118000</v>
+        <v>3227100</v>
       </c>
       <c r="I61" s="3">
-        <v>3842000</v>
+        <v>3976400</v>
       </c>
       <c r="J61" s="3">
-        <v>3268400</v>
+        <v>3382800</v>
       </c>
       <c r="K61" s="3">
         <v>2541200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>369800</v>
+        <v>382700</v>
       </c>
       <c r="E62" s="3">
-        <v>360400</v>
+        <v>373000</v>
       </c>
       <c r="F62" s="3">
-        <v>435900</v>
+        <v>451100</v>
       </c>
       <c r="G62" s="3">
-        <v>408900</v>
+        <v>423200</v>
       </c>
       <c r="H62" s="3">
-        <v>471600</v>
+        <v>488100</v>
       </c>
       <c r="I62" s="3">
-        <v>459300</v>
+        <v>475400</v>
       </c>
       <c r="J62" s="3">
-        <v>560600</v>
+        <v>580200</v>
       </c>
       <c r="K62" s="3">
         <v>486000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11710100</v>
+        <v>12119700</v>
       </c>
       <c r="E66" s="3">
-        <v>10399600</v>
+        <v>10763400</v>
       </c>
       <c r="F66" s="3">
-        <v>11187000</v>
+        <v>11578300</v>
       </c>
       <c r="G66" s="3">
-        <v>5666900</v>
+        <v>5865100</v>
       </c>
       <c r="H66" s="3">
-        <v>5328800</v>
+        <v>5515200</v>
       </c>
       <c r="I66" s="3">
-        <v>6486400</v>
+        <v>6713300</v>
       </c>
       <c r="J66" s="3">
-        <v>5660700</v>
+        <v>5858800</v>
       </c>
       <c r="K66" s="3">
         <v>4296300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1359700</v>
+        <v>1407300</v>
       </c>
       <c r="E72" s="3">
-        <v>1217900</v>
+        <v>1260500</v>
       </c>
       <c r="F72" s="3">
-        <v>1444900</v>
+        <v>1495500</v>
       </c>
       <c r="G72" s="3">
-        <v>1869800</v>
+        <v>1935200</v>
       </c>
       <c r="H72" s="3">
-        <v>1835600</v>
+        <v>1899800</v>
       </c>
       <c r="I72" s="3">
-        <v>2424500</v>
+        <v>2509400</v>
       </c>
       <c r="J72" s="3">
-        <v>7205200</v>
+        <v>7457300</v>
       </c>
       <c r="K72" s="3">
         <v>4781100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>377400</v>
+        <v>390600</v>
       </c>
       <c r="E76" s="3">
-        <v>434800</v>
+        <v>450100</v>
       </c>
       <c r="F76" s="3">
-        <v>858400</v>
+        <v>888400</v>
       </c>
       <c r="G76" s="3">
-        <v>1579700</v>
+        <v>1634900</v>
       </c>
       <c r="H76" s="3">
-        <v>1830900</v>
+        <v>1895000</v>
       </c>
       <c r="I76" s="3">
-        <v>2105500</v>
+        <v>2179200</v>
       </c>
       <c r="J76" s="3">
-        <v>2220100</v>
+        <v>2297800</v>
       </c>
       <c r="K76" s="3">
         <v>2011400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>807600</v>
+        <v>835800</v>
       </c>
       <c r="E81" s="3">
-        <v>713300</v>
+        <v>738200</v>
       </c>
       <c r="F81" s="3">
-        <v>90100</v>
+        <v>93200</v>
       </c>
       <c r="G81" s="3">
-        <v>737000</v>
+        <v>762700</v>
       </c>
       <c r="H81" s="3">
-        <v>637400</v>
+        <v>659700</v>
       </c>
       <c r="I81" s="3">
-        <v>650800</v>
+        <v>673500</v>
       </c>
       <c r="J81" s="3">
-        <v>674700</v>
+        <v>698300</v>
       </c>
       <c r="K81" s="3">
         <v>1053100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1317700</v>
+        <v>1363800</v>
       </c>
       <c r="E83" s="3">
-        <v>1406400</v>
+        <v>1455600</v>
       </c>
       <c r="F83" s="3">
-        <v>1375300</v>
+        <v>1423400</v>
       </c>
       <c r="G83" s="3">
-        <v>1050800</v>
+        <v>1087600</v>
       </c>
       <c r="H83" s="3">
-        <v>1094900</v>
+        <v>1133200</v>
       </c>
       <c r="I83" s="3">
-        <v>1084500</v>
+        <v>1122500</v>
       </c>
       <c r="J83" s="3">
-        <v>986500</v>
+        <v>1021000</v>
       </c>
       <c r="K83" s="3">
         <v>966200</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2044900</v>
+        <v>2116500</v>
       </c>
       <c r="E89" s="3">
-        <v>1402500</v>
+        <v>1451500</v>
       </c>
       <c r="F89" s="3">
-        <v>2030200</v>
+        <v>2101200</v>
       </c>
       <c r="G89" s="3">
-        <v>1902000</v>
+        <v>1968600</v>
       </c>
       <c r="H89" s="3">
-        <v>1716900</v>
+        <v>1777000</v>
       </c>
       <c r="I89" s="3">
-        <v>1894800</v>
+        <v>1961000</v>
       </c>
       <c r="J89" s="3">
-        <v>2088500</v>
+        <v>2161600</v>
       </c>
       <c r="K89" s="3">
         <v>2102200</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-871300</v>
+        <v>-901700</v>
       </c>
       <c r="E91" s="3">
-        <v>-900300</v>
+        <v>-931800</v>
       </c>
       <c r="F91" s="3">
-        <v>-851200</v>
+        <v>-881000</v>
       </c>
       <c r="G91" s="3">
-        <v>-701800</v>
+        <v>-726300</v>
       </c>
       <c r="H91" s="3">
-        <v>-730300</v>
+        <v>-755900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1008200</v>
+        <v>-1043500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1943800</v>
+        <v>-2011800</v>
       </c>
       <c r="K91" s="3">
         <v>-885700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1104200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-402200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1066900</v>
       </c>
-      <c r="E94" s="3">
-        <v>-388600</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-1030800</v>
-      </c>
       <c r="G94" s="3">
-        <v>-1071900</v>
+        <v>-1109400</v>
       </c>
       <c r="H94" s="3">
-        <v>-753500</v>
+        <v>-779900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1911400</v>
+        <v>-1978300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1380900</v>
+        <v>-1429200</v>
       </c>
       <c r="K94" s="3">
         <v>-1275100</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-985200</v>
+        <v>-1019700</v>
       </c>
       <c r="E96" s="3">
-        <v>-690400</v>
+        <v>-714600</v>
       </c>
       <c r="F96" s="3">
-        <v>-658200</v>
+        <v>-681200</v>
       </c>
       <c r="G96" s="3">
-        <v>-680600</v>
+        <v>-704400</v>
       </c>
       <c r="H96" s="3">
-        <v>-694400</v>
+        <v>-718700</v>
       </c>
       <c r="I96" s="3">
-        <v>-667800</v>
+        <v>-691200</v>
       </c>
       <c r="J96" s="3">
-        <v>-656500</v>
+        <v>-679400</v>
       </c>
       <c r="K96" s="3">
         <v>-523700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-359800</v>
+        <v>-372400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1583900</v>
+        <v>-1639300</v>
       </c>
       <c r="F100" s="3">
-        <v>-340900</v>
+        <v>-352800</v>
       </c>
       <c r="G100" s="3">
-        <v>-663400</v>
+        <v>-686600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1091900</v>
+        <v>-1130100</v>
       </c>
       <c r="I100" s="3">
-        <v>-362900</v>
+        <v>-375600</v>
       </c>
       <c r="J100" s="3">
-        <v>-436700</v>
+        <v>-452000</v>
       </c>
       <c r="K100" s="3">
         <v>-727400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E101" s="3">
-        <v>-34900</v>
+        <v>-36100</v>
       </c>
       <c r="F101" s="3">
-        <v>44900</v>
+        <v>46400</v>
       </c>
       <c r="G101" s="3">
-        <v>-7500</v>
+        <v>-7700</v>
       </c>
       <c r="H101" s="3">
-        <v>-68600</v>
+        <v>-71000</v>
       </c>
       <c r="I101" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="J101" s="3">
-        <v>134100</v>
+        <v>138800</v>
       </c>
       <c r="K101" s="3">
         <v>13700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>623300</v>
+        <v>645100</v>
       </c>
       <c r="E102" s="3">
-        <v>-605000</v>
+        <v>-626100</v>
       </c>
       <c r="F102" s="3">
-        <v>703400</v>
+        <v>728000</v>
       </c>
       <c r="G102" s="3">
-        <v>159300</v>
+        <v>164900</v>
       </c>
       <c r="H102" s="3">
-        <v>-197200</v>
+        <v>-204100</v>
       </c>
       <c r="I102" s="3">
-        <v>-369500</v>
+        <v>-382500</v>
       </c>
       <c r="J102" s="3">
-        <v>405000</v>
+        <v>419200</v>
       </c>
       <c r="K102" s="3">
         <v>113400</v>

--- a/AAII_Financials/Yearly/MBT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MBT_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6735900</v>
+        <v>6691400</v>
       </c>
       <c r="E8" s="3">
-        <v>6404900</v>
+        <v>6362600</v>
       </c>
       <c r="F8" s="3">
-        <v>6073300</v>
+        <v>6033100</v>
       </c>
       <c r="G8" s="3">
-        <v>5687900</v>
+        <v>5650300</v>
       </c>
       <c r="H8" s="3">
-        <v>5929800</v>
+        <v>5890600</v>
       </c>
       <c r="I8" s="3">
-        <v>5806600</v>
+        <v>5768200</v>
       </c>
       <c r="J8" s="3">
-        <v>5589300</v>
+        <v>5552400</v>
       </c>
       <c r="K8" s="3">
         <v>5255500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2523600</v>
+        <v>2506900</v>
       </c>
       <c r="E9" s="3">
-        <v>2353600</v>
+        <v>2338000</v>
       </c>
       <c r="F9" s="3">
-        <v>2215900</v>
+        <v>2201200</v>
       </c>
       <c r="G9" s="3">
-        <v>2193000</v>
+        <v>2178500</v>
       </c>
       <c r="H9" s="3">
-        <v>2391700</v>
+        <v>2375900</v>
       </c>
       <c r="I9" s="3">
-        <v>2223300</v>
+        <v>2208600</v>
       </c>
       <c r="J9" s="3">
-        <v>3083800</v>
+        <v>3063400</v>
       </c>
       <c r="K9" s="3">
         <v>1412300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4212300</v>
+        <v>4184500</v>
       </c>
       <c r="E10" s="3">
-        <v>4051400</v>
+        <v>4024600</v>
       </c>
       <c r="F10" s="3">
-        <v>3857400</v>
+        <v>3831900</v>
       </c>
       <c r="G10" s="3">
-        <v>3494900</v>
+        <v>3471800</v>
       </c>
       <c r="H10" s="3">
-        <v>3538100</v>
+        <v>3514700</v>
       </c>
       <c r="I10" s="3">
-        <v>3583200</v>
+        <v>3559500</v>
       </c>
       <c r="J10" s="3">
-        <v>2505500</v>
+        <v>2488900</v>
       </c>
       <c r="K10" s="3">
         <v>3843200</v>
@@ -916,22 +916,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>189700</v>
+        <v>188400</v>
       </c>
       <c r="E14" s="3">
-        <v>101100</v>
+        <v>100400</v>
       </c>
       <c r="F14" s="3">
-        <v>52000</v>
+        <v>51600</v>
       </c>
       <c r="G14" s="3">
-        <v>90900</v>
+        <v>90300</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>47900</v>
+        <v>47500</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1364200</v>
+        <v>1355200</v>
       </c>
       <c r="E15" s="3">
-        <v>1309200</v>
+        <v>1300600</v>
       </c>
       <c r="F15" s="3">
-        <v>1297300</v>
+        <v>1288700</v>
       </c>
       <c r="G15" s="3">
-        <v>1006300</v>
+        <v>999700</v>
       </c>
       <c r="H15" s="3">
-        <v>1110300</v>
+        <v>1103000</v>
       </c>
       <c r="I15" s="3">
-        <v>1059400</v>
+        <v>1052400</v>
       </c>
       <c r="J15" s="3">
-        <v>1017100</v>
+        <v>1010400</v>
       </c>
       <c r="K15" s="3">
         <v>966200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5199500</v>
+        <v>5165100</v>
       </c>
       <c r="E17" s="3">
-        <v>4831900</v>
+        <v>4800000</v>
       </c>
       <c r="F17" s="3">
-        <v>4572900</v>
+        <v>4542600</v>
       </c>
       <c r="G17" s="3">
-        <v>4459700</v>
+        <v>4430200</v>
       </c>
       <c r="H17" s="3">
-        <v>4736600</v>
+        <v>4705300</v>
       </c>
       <c r="I17" s="3">
-        <v>4528300</v>
+        <v>4498300</v>
       </c>
       <c r="J17" s="3">
-        <v>4230300</v>
+        <v>4202300</v>
       </c>
       <c r="K17" s="3">
         <v>3913300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1536500</v>
+        <v>1526300</v>
       </c>
       <c r="E18" s="3">
-        <v>1573000</v>
+        <v>1562600</v>
       </c>
       <c r="F18" s="3">
-        <v>1500400</v>
+        <v>1490500</v>
       </c>
       <c r="G18" s="3">
-        <v>1228200</v>
+        <v>1220100</v>
       </c>
       <c r="H18" s="3">
-        <v>1193200</v>
+        <v>1185300</v>
       </c>
       <c r="I18" s="3">
-        <v>1278300</v>
+        <v>1269800</v>
       </c>
       <c r="J18" s="3">
-        <v>1359100</v>
+        <v>1350100</v>
       </c>
       <c r="K18" s="3">
         <v>1342200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>64200</v>
+        <v>63700</v>
       </c>
       <c r="E20" s="3">
-        <v>-59400</v>
+        <v>-59100</v>
       </c>
       <c r="F20" s="3">
-        <v>82900</v>
+        <v>82400</v>
       </c>
       <c r="G20" s="3">
-        <v>20200</v>
+        <v>20000</v>
       </c>
       <c r="H20" s="3">
-        <v>46100</v>
+        <v>45800</v>
       </c>
       <c r="I20" s="3">
-        <v>-25800</v>
+        <v>-25600</v>
       </c>
       <c r="J20" s="3">
-        <v>-304300</v>
+        <v>-302300</v>
       </c>
       <c r="K20" s="3">
         <v>-66900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2965400</v>
+        <v>2953900</v>
       </c>
       <c r="E21" s="3">
-        <v>2970200</v>
+        <v>2959100</v>
       </c>
       <c r="F21" s="3">
-        <v>3007800</v>
+        <v>2996300</v>
       </c>
       <c r="G21" s="3">
-        <v>2336700</v>
+        <v>2327700</v>
       </c>
       <c r="H21" s="3">
-        <v>2373300</v>
+        <v>2364300</v>
       </c>
       <c r="I21" s="3">
-        <v>2375800</v>
+        <v>2366700</v>
       </c>
       <c r="J21" s="3">
-        <v>2076500</v>
+        <v>2068800</v>
       </c>
       <c r="K21" s="3">
         <v>2244500</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>544700</v>
+        <v>541100</v>
       </c>
       <c r="E22" s="3">
-        <v>584800</v>
+        <v>581000</v>
       </c>
       <c r="F22" s="3">
-        <v>516900</v>
+        <v>513500</v>
       </c>
       <c r="G22" s="3">
-        <v>309400</v>
+        <v>307400</v>
       </c>
       <c r="H22" s="3">
-        <v>319100</v>
+        <v>317000</v>
       </c>
       <c r="I22" s="3">
-        <v>340600</v>
+        <v>338300</v>
       </c>
       <c r="J22" s="3">
-        <v>215900</v>
+        <v>214500</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1055900</v>
+        <v>1048900</v>
       </c>
       <c r="E23" s="3">
-        <v>928700</v>
+        <v>922600</v>
       </c>
       <c r="F23" s="3">
-        <v>1066400</v>
+        <v>1059300</v>
       </c>
       <c r="G23" s="3">
-        <v>938900</v>
+        <v>932700</v>
       </c>
       <c r="H23" s="3">
-        <v>920200</v>
+        <v>914100</v>
       </c>
       <c r="I23" s="3">
-        <v>911900</v>
+        <v>905900</v>
       </c>
       <c r="J23" s="3">
-        <v>838800</v>
+        <v>833200</v>
       </c>
       <c r="K23" s="3">
         <v>1275300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>219500</v>
+        <v>218000</v>
       </c>
       <c r="E24" s="3">
-        <v>213200</v>
+        <v>211800</v>
       </c>
       <c r="F24" s="3">
-        <v>208800</v>
+        <v>207500</v>
       </c>
       <c r="G24" s="3">
-        <v>242000</v>
+        <v>240400</v>
       </c>
       <c r="H24" s="3">
-        <v>206000</v>
+        <v>204700</v>
       </c>
       <c r="I24" s="3">
-        <v>189600</v>
+        <v>188300</v>
       </c>
       <c r="J24" s="3">
-        <v>216500</v>
+        <v>215100</v>
       </c>
       <c r="K24" s="3">
         <v>259000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>836400</v>
+        <v>830900</v>
       </c>
       <c r="E26" s="3">
-        <v>715500</v>
+        <v>710800</v>
       </c>
       <c r="F26" s="3">
-        <v>857600</v>
+        <v>851900</v>
       </c>
       <c r="G26" s="3">
-        <v>696900</v>
+        <v>692300</v>
       </c>
       <c r="H26" s="3">
-        <v>714100</v>
+        <v>709400</v>
       </c>
       <c r="I26" s="3">
-        <v>722300</v>
+        <v>717500</v>
       </c>
       <c r="J26" s="3">
-        <v>622300</v>
+        <v>618100</v>
       </c>
       <c r="K26" s="3">
         <v>1016400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>827400</v>
+        <v>822000</v>
       </c>
       <c r="E27" s="3">
-        <v>703800</v>
+        <v>699200</v>
       </c>
       <c r="F27" s="3">
-        <v>844200</v>
+        <v>838600</v>
       </c>
       <c r="G27" s="3">
-        <v>689500</v>
+        <v>684900</v>
       </c>
       <c r="H27" s="3">
-        <v>714500</v>
+        <v>709700</v>
       </c>
       <c r="I27" s="3">
-        <v>750700</v>
+        <v>745700</v>
       </c>
       <c r="J27" s="3">
-        <v>619700</v>
+        <v>615600</v>
       </c>
       <c r="K27" s="3">
         <v>1003800</v>
@@ -1413,25 +1413,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="E29" s="3">
-        <v>34400</v>
+        <v>34200</v>
       </c>
       <c r="F29" s="3">
-        <v>-751000</v>
+        <v>-746000</v>
       </c>
       <c r="G29" s="3">
-        <v>73300</v>
+        <v>72800</v>
       </c>
       <c r="H29" s="3">
-        <v>-54700</v>
+        <v>-54400</v>
       </c>
       <c r="I29" s="3">
-        <v>-77100</v>
+        <v>-76600</v>
       </c>
       <c r="J29" s="3">
-        <v>78600</v>
+        <v>78100</v>
       </c>
       <c r="K29" s="3">
         <v>49200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-64200</v>
+        <v>-63700</v>
       </c>
       <c r="E32" s="3">
-        <v>59400</v>
+        <v>59100</v>
       </c>
       <c r="F32" s="3">
-        <v>-82900</v>
+        <v>-82400</v>
       </c>
       <c r="G32" s="3">
-        <v>-20200</v>
+        <v>-20000</v>
       </c>
       <c r="H32" s="3">
-        <v>-46100</v>
+        <v>-45800</v>
       </c>
       <c r="I32" s="3">
-        <v>25800</v>
+        <v>25600</v>
       </c>
       <c r="J32" s="3">
-        <v>304300</v>
+        <v>302300</v>
       </c>
       <c r="K32" s="3">
         <v>66900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>835800</v>
+        <v>830300</v>
       </c>
       <c r="E33" s="3">
-        <v>738200</v>
+        <v>733300</v>
       </c>
       <c r="F33" s="3">
-        <v>93200</v>
+        <v>92600</v>
       </c>
       <c r="G33" s="3">
-        <v>762700</v>
+        <v>757700</v>
       </c>
       <c r="H33" s="3">
-        <v>659700</v>
+        <v>655400</v>
       </c>
       <c r="I33" s="3">
-        <v>673500</v>
+        <v>669100</v>
       </c>
       <c r="J33" s="3">
-        <v>698300</v>
+        <v>693700</v>
       </c>
       <c r="K33" s="3">
         <v>1053100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>835800</v>
+        <v>830300</v>
       </c>
       <c r="E35" s="3">
-        <v>738200</v>
+        <v>733300</v>
       </c>
       <c r="F35" s="3">
-        <v>93200</v>
+        <v>92600</v>
       </c>
       <c r="G35" s="3">
-        <v>762700</v>
+        <v>757700</v>
       </c>
       <c r="H35" s="3">
-        <v>659700</v>
+        <v>655400</v>
       </c>
       <c r="I35" s="3">
-        <v>673500</v>
+        <v>669100</v>
       </c>
       <c r="J35" s="3">
-        <v>698300</v>
+        <v>693700</v>
       </c>
       <c r="K35" s="3">
         <v>1053100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1162400</v>
+        <v>1154700</v>
       </c>
       <c r="E41" s="3">
-        <v>518100</v>
+        <v>514700</v>
       </c>
       <c r="F41" s="3">
-        <v>1144300</v>
+        <v>1136700</v>
       </c>
       <c r="G41" s="3">
-        <v>416300</v>
+        <v>413500</v>
       </c>
       <c r="H41" s="3">
-        <v>251400</v>
+        <v>249700</v>
       </c>
       <c r="I41" s="3">
-        <v>455400</v>
+        <v>452400</v>
       </c>
       <c r="J41" s="3">
-        <v>835800</v>
+        <v>830300</v>
       </c>
       <c r="K41" s="3">
         <v>403800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>645200</v>
+        <v>641000</v>
       </c>
       <c r="E42" s="3">
-        <v>546800</v>
+        <v>543200</v>
       </c>
       <c r="F42" s="3">
-        <v>902300</v>
+        <v>896400</v>
       </c>
       <c r="G42" s="3">
-        <v>613600</v>
+        <v>609600</v>
       </c>
       <c r="H42" s="3">
-        <v>103900</v>
+        <v>103200</v>
       </c>
       <c r="I42" s="3">
-        <v>678300</v>
+        <v>673800</v>
       </c>
       <c r="J42" s="3">
-        <v>135300</v>
+        <v>134400</v>
       </c>
       <c r="K42" s="3">
         <v>386000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1023400</v>
+        <v>1016600</v>
       </c>
       <c r="E43" s="3">
-        <v>801500</v>
+        <v>796200</v>
       </c>
       <c r="F43" s="3">
-        <v>777400</v>
+        <v>772300</v>
       </c>
       <c r="G43" s="3">
-        <v>749200</v>
+        <v>744200</v>
       </c>
       <c r="H43" s="3">
-        <v>597800</v>
+        <v>593900</v>
       </c>
       <c r="I43" s="3">
-        <v>760400</v>
+        <v>755400</v>
       </c>
       <c r="J43" s="3">
-        <v>1206900</v>
+        <v>1199000</v>
       </c>
       <c r="K43" s="3">
         <v>1137500</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>206900</v>
+        <v>205600</v>
       </c>
       <c r="E44" s="3">
-        <v>211200</v>
+        <v>209800</v>
       </c>
       <c r="F44" s="3">
-        <v>253900</v>
+        <v>252200</v>
       </c>
       <c r="G44" s="3">
-        <v>136000</v>
+        <v>135100</v>
       </c>
       <c r="H44" s="3">
-        <v>195000</v>
+        <v>193700</v>
       </c>
       <c r="I44" s="3">
-        <v>197500</v>
+        <v>196200</v>
       </c>
       <c r="J44" s="3">
-        <v>204400</v>
+        <v>203100</v>
       </c>
       <c r="K44" s="3">
         <v>224200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>85400</v>
+        <v>84800</v>
       </c>
       <c r="E45" s="3">
-        <v>86300</v>
+        <v>85700</v>
       </c>
       <c r="F45" s="3">
-        <v>112100</v>
+        <v>111400</v>
       </c>
       <c r="G45" s="3">
-        <v>72400</v>
+        <v>71900</v>
       </c>
       <c r="H45" s="3">
-        <v>90300</v>
+        <v>89700</v>
       </c>
       <c r="I45" s="3">
-        <v>72500</v>
+        <v>72100</v>
       </c>
       <c r="J45" s="3">
-        <v>279200</v>
+        <v>277300</v>
       </c>
       <c r="K45" s="3">
         <v>188200</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3570600</v>
+        <v>3547000</v>
       </c>
       <c r="E46" s="3">
-        <v>2648300</v>
+        <v>2630800</v>
       </c>
       <c r="F46" s="3">
-        <v>3660200</v>
+        <v>3636000</v>
       </c>
       <c r="G46" s="3">
-        <v>1987500</v>
+        <v>1974400</v>
       </c>
       <c r="H46" s="3">
-        <v>1238400</v>
+        <v>1230200</v>
       </c>
       <c r="I46" s="3">
-        <v>2164200</v>
+        <v>2149900</v>
       </c>
       <c r="J46" s="3">
-        <v>1919700</v>
+        <v>1907000</v>
       </c>
       <c r="K46" s="3">
         <v>1434300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1319900</v>
+        <v>1311200</v>
       </c>
       <c r="E47" s="3">
-        <v>1206900</v>
+        <v>1199000</v>
       </c>
       <c r="F47" s="3">
-        <v>927300</v>
+        <v>921200</v>
       </c>
       <c r="G47" s="3">
-        <v>276200</v>
+        <v>274400</v>
       </c>
       <c r="H47" s="3">
-        <v>877000</v>
+        <v>871200</v>
       </c>
       <c r="I47" s="3">
-        <v>986800</v>
+        <v>980300</v>
       </c>
       <c r="J47" s="3">
-        <v>738100</v>
+        <v>733200</v>
       </c>
       <c r="K47" s="3">
         <v>313600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5678000</v>
+        <v>5640500</v>
       </c>
       <c r="E48" s="3">
-        <v>5543100</v>
+        <v>5506500</v>
       </c>
       <c r="F48" s="3">
-        <v>5799500</v>
+        <v>5761200</v>
       </c>
       <c r="G48" s="3">
-        <v>3585800</v>
+        <v>3562100</v>
       </c>
       <c r="H48" s="3">
-        <v>3717900</v>
+        <v>3693400</v>
       </c>
       <c r="I48" s="3">
-        <v>4124200</v>
+        <v>4096900</v>
       </c>
       <c r="J48" s="3">
-        <v>12219300</v>
+        <v>12138500</v>
       </c>
       <c r="K48" s="3">
         <v>7158600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1639700</v>
+        <v>1628800</v>
       </c>
       <c r="E49" s="3">
-        <v>1512900</v>
+        <v>1502900</v>
       </c>
       <c r="F49" s="3">
-        <v>1763300</v>
+        <v>1751600</v>
       </c>
       <c r="G49" s="3">
-        <v>1547200</v>
+        <v>1536900</v>
       </c>
       <c r="H49" s="3">
-        <v>1480900</v>
+        <v>1471200</v>
       </c>
       <c r="I49" s="3">
-        <v>1484400</v>
+        <v>1474500</v>
       </c>
       <c r="J49" s="3">
-        <v>4026100</v>
+        <v>3999500</v>
       </c>
       <c r="K49" s="3">
         <v>1960800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>302100</v>
+        <v>300100</v>
       </c>
       <c r="E52" s="3">
-        <v>302100</v>
+        <v>300100</v>
       </c>
       <c r="F52" s="3">
-        <v>316400</v>
+        <v>314300</v>
       </c>
       <c r="G52" s="3">
-        <v>103300</v>
+        <v>102700</v>
       </c>
       <c r="H52" s="3">
-        <v>95900</v>
+        <v>95300</v>
       </c>
       <c r="I52" s="3">
-        <v>132900</v>
+        <v>132000</v>
       </c>
       <c r="J52" s="3">
-        <v>406600</v>
+        <v>403900</v>
       </c>
       <c r="K52" s="3">
         <v>117400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12510400</v>
+        <v>12427600</v>
       </c>
       <c r="E54" s="3">
-        <v>11213400</v>
+        <v>11139300</v>
       </c>
       <c r="F54" s="3">
-        <v>12466700</v>
+        <v>12384200</v>
       </c>
       <c r="G54" s="3">
-        <v>7500100</v>
+        <v>7450500</v>
       </c>
       <c r="H54" s="3">
-        <v>7410200</v>
+        <v>7361200</v>
       </c>
       <c r="I54" s="3">
-        <v>8892500</v>
+        <v>8833700</v>
       </c>
       <c r="J54" s="3">
-        <v>8156500</v>
+        <v>8102600</v>
       </c>
       <c r="K54" s="3">
         <v>6307700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>762400</v>
+        <v>757300</v>
       </c>
       <c r="E57" s="3">
-        <v>977300</v>
+        <v>970800</v>
       </c>
       <c r="F57" s="3">
-        <v>729800</v>
+        <v>725000</v>
       </c>
       <c r="G57" s="3">
-        <v>643900</v>
+        <v>639700</v>
       </c>
       <c r="H57" s="3">
-        <v>564400</v>
+        <v>560700</v>
       </c>
       <c r="I57" s="3">
-        <v>786100</v>
+        <v>780900</v>
       </c>
       <c r="J57" s="3">
-        <v>715700</v>
+        <v>710900</v>
       </c>
       <c r="K57" s="3">
         <v>517800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>684600</v>
+        <v>680100</v>
       </c>
       <c r="E58" s="3">
-        <v>1183700</v>
+        <v>1175900</v>
       </c>
       <c r="F58" s="3">
-        <v>256900</v>
+        <v>255200</v>
       </c>
       <c r="G58" s="3">
-        <v>877500</v>
+        <v>871700</v>
       </c>
       <c r="H58" s="3">
-        <v>642500</v>
+        <v>638200</v>
       </c>
       <c r="I58" s="3">
-        <v>730900</v>
+        <v>726000</v>
       </c>
       <c r="J58" s="3">
-        <v>872600</v>
+        <v>866900</v>
       </c>
       <c r="K58" s="3">
         <v>553000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3025400</v>
+        <v>3005400</v>
       </c>
       <c r="E59" s="3">
-        <v>2581500</v>
+        <v>2564400</v>
       </c>
       <c r="F59" s="3">
-        <v>3034700</v>
+        <v>3014600</v>
       </c>
       <c r="G59" s="3">
-        <v>610900</v>
+        <v>606800</v>
       </c>
       <c r="H59" s="3">
-        <v>529000</v>
+        <v>525500</v>
       </c>
       <c r="I59" s="3">
-        <v>632200</v>
+        <v>628000</v>
       </c>
       <c r="J59" s="3">
-        <v>1337100</v>
+        <v>1328300</v>
       </c>
       <c r="K59" s="3">
         <v>1140100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4472400</v>
+        <v>4442900</v>
       </c>
       <c r="E60" s="3">
-        <v>4742500</v>
+        <v>4711100</v>
       </c>
       <c r="F60" s="3">
-        <v>4021400</v>
+        <v>3994800</v>
       </c>
       <c r="G60" s="3">
-        <v>2132300</v>
+        <v>2118200</v>
       </c>
       <c r="H60" s="3">
-        <v>1735900</v>
+        <v>1724400</v>
       </c>
       <c r="I60" s="3">
-        <v>2149200</v>
+        <v>2134900</v>
       </c>
       <c r="J60" s="3">
-        <v>1897000</v>
+        <v>1884400</v>
       </c>
       <c r="K60" s="3">
         <v>1338800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7210300</v>
+        <v>7162600</v>
       </c>
       <c r="E61" s="3">
-        <v>5602600</v>
+        <v>5565500</v>
       </c>
       <c r="F61" s="3">
-        <v>6938500</v>
+        <v>6892700</v>
       </c>
       <c r="G61" s="3">
-        <v>3254100</v>
+        <v>3232600</v>
       </c>
       <c r="H61" s="3">
-        <v>3227100</v>
+        <v>3205800</v>
       </c>
       <c r="I61" s="3">
-        <v>3976400</v>
+        <v>3950100</v>
       </c>
       <c r="J61" s="3">
-        <v>3382800</v>
+        <v>3360400</v>
       </c>
       <c r="K61" s="3">
         <v>2541200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>382700</v>
+        <v>380200</v>
       </c>
       <c r="E62" s="3">
-        <v>373000</v>
+        <v>370500</v>
       </c>
       <c r="F62" s="3">
-        <v>451100</v>
+        <v>448100</v>
       </c>
       <c r="G62" s="3">
-        <v>423200</v>
+        <v>420400</v>
       </c>
       <c r="H62" s="3">
-        <v>488100</v>
+        <v>484900</v>
       </c>
       <c r="I62" s="3">
-        <v>475400</v>
+        <v>472200</v>
       </c>
       <c r="J62" s="3">
-        <v>580200</v>
+        <v>576300</v>
       </c>
       <c r="K62" s="3">
         <v>486000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12119700</v>
+        <v>12039600</v>
       </c>
       <c r="E66" s="3">
-        <v>10763400</v>
+        <v>10692200</v>
       </c>
       <c r="F66" s="3">
-        <v>11578300</v>
+        <v>11501700</v>
       </c>
       <c r="G66" s="3">
-        <v>5865100</v>
+        <v>5826400</v>
       </c>
       <c r="H66" s="3">
-        <v>5515200</v>
+        <v>5478800</v>
       </c>
       <c r="I66" s="3">
-        <v>6713300</v>
+        <v>6668900</v>
       </c>
       <c r="J66" s="3">
-        <v>5858800</v>
+        <v>5820000</v>
       </c>
       <c r="K66" s="3">
         <v>4296300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1407300</v>
+        <v>1398000</v>
       </c>
       <c r="E72" s="3">
-        <v>1260500</v>
+        <v>1252200</v>
       </c>
       <c r="F72" s="3">
-        <v>1495500</v>
+        <v>1485600</v>
       </c>
       <c r="G72" s="3">
-        <v>1935200</v>
+        <v>1922400</v>
       </c>
       <c r="H72" s="3">
-        <v>1899800</v>
+        <v>1887300</v>
       </c>
       <c r="I72" s="3">
-        <v>2509400</v>
+        <v>2492800</v>
       </c>
       <c r="J72" s="3">
-        <v>7457300</v>
+        <v>7408000</v>
       </c>
       <c r="K72" s="3">
         <v>4781100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>390600</v>
+        <v>388000</v>
       </c>
       <c r="E76" s="3">
-        <v>450100</v>
+        <v>447100</v>
       </c>
       <c r="F76" s="3">
-        <v>888400</v>
+        <v>882500</v>
       </c>
       <c r="G76" s="3">
-        <v>1634900</v>
+        <v>1624100</v>
       </c>
       <c r="H76" s="3">
-        <v>1895000</v>
+        <v>1882500</v>
       </c>
       <c r="I76" s="3">
-        <v>2179200</v>
+        <v>2164800</v>
       </c>
       <c r="J76" s="3">
-        <v>2297800</v>
+        <v>2282600</v>
       </c>
       <c r="K76" s="3">
         <v>2011400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>835800</v>
+        <v>830300</v>
       </c>
       <c r="E81" s="3">
-        <v>738200</v>
+        <v>733300</v>
       </c>
       <c r="F81" s="3">
-        <v>93200</v>
+        <v>92600</v>
       </c>
       <c r="G81" s="3">
-        <v>762700</v>
+        <v>757700</v>
       </c>
       <c r="H81" s="3">
-        <v>659700</v>
+        <v>655400</v>
       </c>
       <c r="I81" s="3">
-        <v>673500</v>
+        <v>669100</v>
       </c>
       <c r="J81" s="3">
-        <v>698300</v>
+        <v>693700</v>
       </c>
       <c r="K81" s="3">
         <v>1053100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1363800</v>
+        <v>1354800</v>
       </c>
       <c r="E83" s="3">
-        <v>1455600</v>
+        <v>1445900</v>
       </c>
       <c r="F83" s="3">
-        <v>1423400</v>
+        <v>1414000</v>
       </c>
       <c r="G83" s="3">
-        <v>1087600</v>
+        <v>1080400</v>
       </c>
       <c r="H83" s="3">
-        <v>1133200</v>
+        <v>1125700</v>
       </c>
       <c r="I83" s="3">
-        <v>1122500</v>
+        <v>1115000</v>
       </c>
       <c r="J83" s="3">
-        <v>1021000</v>
+        <v>1014300</v>
       </c>
       <c r="K83" s="3">
         <v>966200</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2116500</v>
+        <v>2102500</v>
       </c>
       <c r="E89" s="3">
-        <v>1451500</v>
+        <v>1441900</v>
       </c>
       <c r="F89" s="3">
-        <v>2101200</v>
+        <v>2087400</v>
       </c>
       <c r="G89" s="3">
-        <v>1968600</v>
+        <v>1955500</v>
       </c>
       <c r="H89" s="3">
-        <v>1777000</v>
+        <v>1765200</v>
       </c>
       <c r="I89" s="3">
-        <v>1961000</v>
+        <v>1948100</v>
       </c>
       <c r="J89" s="3">
-        <v>2161600</v>
+        <v>2147300</v>
       </c>
       <c r="K89" s="3">
         <v>2102200</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-901700</v>
+        <v>-895800</v>
       </c>
       <c r="E91" s="3">
-        <v>-931800</v>
+        <v>-925600</v>
       </c>
       <c r="F91" s="3">
-        <v>-881000</v>
+        <v>-875200</v>
       </c>
       <c r="G91" s="3">
-        <v>-726300</v>
+        <v>-721500</v>
       </c>
       <c r="H91" s="3">
-        <v>-755900</v>
+        <v>-750900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1043500</v>
+        <v>-1036600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2011800</v>
+        <v>-1998500</v>
       </c>
       <c r="K91" s="3">
         <v>-885700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1104200</v>
+        <v>-1096900</v>
       </c>
       <c r="E94" s="3">
-        <v>-402200</v>
+        <v>-399600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1066900</v>
+        <v>-1059800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1109400</v>
+        <v>-1102000</v>
       </c>
       <c r="H94" s="3">
-        <v>-779900</v>
+        <v>-774700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1978300</v>
+        <v>-1965200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1429200</v>
+        <v>-1419700</v>
       </c>
       <c r="K94" s="3">
         <v>-1275100</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1019700</v>
+        <v>-1013000</v>
       </c>
       <c r="E96" s="3">
-        <v>-714600</v>
+        <v>-709900</v>
       </c>
       <c r="F96" s="3">
-        <v>-681200</v>
+        <v>-676700</v>
       </c>
       <c r="G96" s="3">
-        <v>-704400</v>
+        <v>-699800</v>
       </c>
       <c r="H96" s="3">
-        <v>-718700</v>
+        <v>-713900</v>
       </c>
       <c r="I96" s="3">
-        <v>-691200</v>
+        <v>-686600</v>
       </c>
       <c r="J96" s="3">
-        <v>-679400</v>
+        <v>-674900</v>
       </c>
       <c r="K96" s="3">
         <v>-523700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-372400</v>
+        <v>-369900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1639300</v>
+        <v>-1628500</v>
       </c>
       <c r="F100" s="3">
-        <v>-352800</v>
+        <v>-350500</v>
       </c>
       <c r="G100" s="3">
-        <v>-686600</v>
+        <v>-682000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1130100</v>
+        <v>-1122700</v>
       </c>
       <c r="I100" s="3">
-        <v>-375600</v>
+        <v>-373100</v>
       </c>
       <c r="J100" s="3">
-        <v>-452000</v>
+        <v>-449000</v>
       </c>
       <c r="K100" s="3">
         <v>-727400</v>
@@ -3714,22 +3714,22 @@
         <v>5200</v>
       </c>
       <c r="E101" s="3">
-        <v>-36100</v>
+        <v>-35900</v>
       </c>
       <c r="F101" s="3">
-        <v>46400</v>
+        <v>46100</v>
       </c>
       <c r="G101" s="3">
         <v>-7700</v>
       </c>
       <c r="H101" s="3">
-        <v>-71000</v>
+        <v>-70600</v>
       </c>
       <c r="I101" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="J101" s="3">
-        <v>138800</v>
+        <v>137800</v>
       </c>
       <c r="K101" s="3">
         <v>13700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>645100</v>
+        <v>640800</v>
       </c>
       <c r="E102" s="3">
-        <v>-626100</v>
+        <v>-622000</v>
       </c>
       <c r="F102" s="3">
-        <v>728000</v>
+        <v>723200</v>
       </c>
       <c r="G102" s="3">
-        <v>164900</v>
+        <v>163800</v>
       </c>
       <c r="H102" s="3">
-        <v>-204100</v>
+        <v>-202700</v>
       </c>
       <c r="I102" s="3">
-        <v>-382500</v>
+        <v>-379900</v>
       </c>
       <c r="J102" s="3">
-        <v>419200</v>
+        <v>416400</v>
       </c>
       <c r="K102" s="3">
         <v>113400</v>

--- a/AAII_Financials/Yearly/MBT_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MBT_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6691400</v>
+        <v>6666700</v>
       </c>
       <c r="E8" s="3">
-        <v>6362600</v>
+        <v>6339000</v>
       </c>
       <c r="F8" s="3">
-        <v>6033100</v>
+        <v>6010800</v>
       </c>
       <c r="G8" s="3">
-        <v>5650300</v>
+        <v>5629400</v>
       </c>
       <c r="H8" s="3">
-        <v>5890600</v>
+        <v>5868800</v>
       </c>
       <c r="I8" s="3">
-        <v>5768200</v>
+        <v>5746800</v>
       </c>
       <c r="J8" s="3">
-        <v>5552400</v>
+        <v>5531800</v>
       </c>
       <c r="K8" s="3">
         <v>5255500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2506900</v>
+        <v>2497700</v>
       </c>
       <c r="E9" s="3">
-        <v>2338000</v>
+        <v>2329400</v>
       </c>
       <c r="F9" s="3">
-        <v>2201200</v>
+        <v>2193100</v>
       </c>
       <c r="G9" s="3">
-        <v>2178500</v>
+        <v>2170400</v>
       </c>
       <c r="H9" s="3">
-        <v>2375900</v>
+        <v>2367100</v>
       </c>
       <c r="I9" s="3">
-        <v>2208600</v>
+        <v>2200500</v>
       </c>
       <c r="J9" s="3">
-        <v>3063400</v>
+        <v>3052100</v>
       </c>
       <c r="K9" s="3">
         <v>1412300</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4184500</v>
+        <v>4169000</v>
       </c>
       <c r="E10" s="3">
-        <v>4024600</v>
+        <v>4009700</v>
       </c>
       <c r="F10" s="3">
-        <v>3831900</v>
+        <v>3817700</v>
       </c>
       <c r="G10" s="3">
-        <v>3471800</v>
+        <v>3458900</v>
       </c>
       <c r="H10" s="3">
-        <v>3514700</v>
+        <v>3501700</v>
       </c>
       <c r="I10" s="3">
-        <v>3559500</v>
+        <v>3546400</v>
       </c>
       <c r="J10" s="3">
-        <v>2488900</v>
+        <v>2479700</v>
       </c>
       <c r="K10" s="3">
         <v>3843200</v>
@@ -916,22 +916,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>188400</v>
+        <v>187700</v>
       </c>
       <c r="E14" s="3">
-        <v>100400</v>
+        <v>100000</v>
       </c>
       <c r="F14" s="3">
-        <v>51600</v>
+        <v>51500</v>
       </c>
       <c r="G14" s="3">
-        <v>90300</v>
+        <v>90000</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>47500</v>
+        <v>47400</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1355200</v>
+        <v>1350200</v>
       </c>
       <c r="E15" s="3">
-        <v>1300600</v>
+        <v>1295700</v>
       </c>
       <c r="F15" s="3">
-        <v>1288700</v>
+        <v>1283900</v>
       </c>
       <c r="G15" s="3">
-        <v>999700</v>
+        <v>996000</v>
       </c>
       <c r="H15" s="3">
-        <v>1103000</v>
+        <v>1098900</v>
       </c>
       <c r="I15" s="3">
-        <v>1052400</v>
+        <v>1048500</v>
       </c>
       <c r="J15" s="3">
-        <v>1010400</v>
+        <v>1006700</v>
       </c>
       <c r="K15" s="3">
         <v>966200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5165100</v>
+        <v>5146000</v>
       </c>
       <c r="E17" s="3">
-        <v>4800000</v>
+        <v>4782200</v>
       </c>
       <c r="F17" s="3">
-        <v>4542600</v>
+        <v>4525800</v>
       </c>
       <c r="G17" s="3">
-        <v>4430200</v>
+        <v>4413800</v>
       </c>
       <c r="H17" s="3">
-        <v>4705300</v>
+        <v>4687900</v>
       </c>
       <c r="I17" s="3">
-        <v>4498300</v>
+        <v>4481700</v>
       </c>
       <c r="J17" s="3">
-        <v>4202300</v>
+        <v>4186700</v>
       </c>
       <c r="K17" s="3">
         <v>3913300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1526300</v>
+        <v>1520700</v>
       </c>
       <c r="E18" s="3">
-        <v>1562600</v>
+        <v>1556800</v>
       </c>
       <c r="F18" s="3">
-        <v>1490500</v>
+        <v>1485000</v>
       </c>
       <c r="G18" s="3">
-        <v>1220100</v>
+        <v>1215500</v>
       </c>
       <c r="H18" s="3">
-        <v>1185300</v>
+        <v>1180900</v>
       </c>
       <c r="I18" s="3">
-        <v>1269800</v>
+        <v>1265100</v>
       </c>
       <c r="J18" s="3">
-        <v>1350100</v>
+        <v>1345100</v>
       </c>
       <c r="K18" s="3">
         <v>1342200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>63700</v>
+        <v>63500</v>
       </c>
       <c r="E20" s="3">
-        <v>-59100</v>
+        <v>-58800</v>
       </c>
       <c r="F20" s="3">
-        <v>82400</v>
+        <v>82000</v>
       </c>
       <c r="G20" s="3">
-        <v>20000</v>
+        <v>19900</v>
       </c>
       <c r="H20" s="3">
-        <v>45800</v>
+        <v>45600</v>
       </c>
       <c r="I20" s="3">
-        <v>-25600</v>
+        <v>-25500</v>
       </c>
       <c r="J20" s="3">
-        <v>-302300</v>
+        <v>-301200</v>
       </c>
       <c r="K20" s="3">
         <v>-66900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2953900</v>
+        <v>2914900</v>
       </c>
       <c r="E21" s="3">
-        <v>2959100</v>
+        <v>2918300</v>
       </c>
       <c r="F21" s="3">
-        <v>2996300</v>
+        <v>2956000</v>
       </c>
       <c r="G21" s="3">
-        <v>2327700</v>
+        <v>2296700</v>
       </c>
       <c r="H21" s="3">
-        <v>2364300</v>
+        <v>2332200</v>
       </c>
       <c r="I21" s="3">
-        <v>2366700</v>
+        <v>2334900</v>
       </c>
       <c r="J21" s="3">
-        <v>2068800</v>
+        <v>2040200</v>
       </c>
       <c r="K21" s="3">
         <v>2244500</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>541100</v>
+        <v>539100</v>
       </c>
       <c r="E22" s="3">
-        <v>581000</v>
+        <v>578800</v>
       </c>
       <c r="F22" s="3">
-        <v>513500</v>
+        <v>511600</v>
       </c>
       <c r="G22" s="3">
-        <v>307400</v>
+        <v>306200</v>
       </c>
       <c r="H22" s="3">
-        <v>317000</v>
+        <v>315900</v>
       </c>
       <c r="I22" s="3">
-        <v>338300</v>
+        <v>337100</v>
       </c>
       <c r="J22" s="3">
-        <v>214500</v>
+        <v>213700</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1048900</v>
+        <v>1045000</v>
       </c>
       <c r="E23" s="3">
-        <v>922600</v>
+        <v>919200</v>
       </c>
       <c r="F23" s="3">
-        <v>1059300</v>
+        <v>1055400</v>
       </c>
       <c r="G23" s="3">
-        <v>932700</v>
+        <v>929300</v>
       </c>
       <c r="H23" s="3">
-        <v>914100</v>
+        <v>910700</v>
       </c>
       <c r="I23" s="3">
-        <v>905900</v>
+        <v>902500</v>
       </c>
       <c r="J23" s="3">
-        <v>833200</v>
+        <v>830200</v>
       </c>
       <c r="K23" s="3">
         <v>1275300</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>218000</v>
+        <v>217200</v>
       </c>
       <c r="E24" s="3">
-        <v>211800</v>
+        <v>211000</v>
       </c>
       <c r="F24" s="3">
-        <v>207500</v>
+        <v>206700</v>
       </c>
       <c r="G24" s="3">
-        <v>240400</v>
+        <v>239500</v>
       </c>
       <c r="H24" s="3">
-        <v>204700</v>
+        <v>203900</v>
       </c>
       <c r="I24" s="3">
-        <v>188300</v>
+        <v>187700</v>
       </c>
       <c r="J24" s="3">
-        <v>215100</v>
+        <v>214300</v>
       </c>
       <c r="K24" s="3">
         <v>259000</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>830900</v>
+        <v>827800</v>
       </c>
       <c r="E26" s="3">
-        <v>710800</v>
+        <v>708100</v>
       </c>
       <c r="F26" s="3">
-        <v>851900</v>
+        <v>848700</v>
       </c>
       <c r="G26" s="3">
-        <v>692300</v>
+        <v>689800</v>
       </c>
       <c r="H26" s="3">
-        <v>709400</v>
+        <v>706800</v>
       </c>
       <c r="I26" s="3">
-        <v>717500</v>
+        <v>714900</v>
       </c>
       <c r="J26" s="3">
-        <v>618100</v>
+        <v>615900</v>
       </c>
       <c r="K26" s="3">
         <v>1016400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>822000</v>
+        <v>818900</v>
       </c>
       <c r="E27" s="3">
-        <v>699200</v>
+        <v>696600</v>
       </c>
       <c r="F27" s="3">
-        <v>838600</v>
+        <v>835500</v>
       </c>
       <c r="G27" s="3">
-        <v>684900</v>
+        <v>682400</v>
       </c>
       <c r="H27" s="3">
-        <v>709700</v>
+        <v>707100</v>
       </c>
       <c r="I27" s="3">
-        <v>745700</v>
+        <v>743000</v>
       </c>
       <c r="J27" s="3">
-        <v>615600</v>
+        <v>613300</v>
       </c>
       <c r="K27" s="3">
         <v>1003800</v>
@@ -1416,22 +1416,22 @@
         <v>8300</v>
       </c>
       <c r="E29" s="3">
-        <v>34200</v>
+        <v>34100</v>
       </c>
       <c r="F29" s="3">
-        <v>-746000</v>
+        <v>-743200</v>
       </c>
       <c r="G29" s="3">
-        <v>72800</v>
+        <v>72500</v>
       </c>
       <c r="H29" s="3">
-        <v>-54400</v>
+        <v>-54200</v>
       </c>
       <c r="I29" s="3">
-        <v>-76600</v>
+        <v>-76300</v>
       </c>
       <c r="J29" s="3">
-        <v>78100</v>
+        <v>77800</v>
       </c>
       <c r="K29" s="3">
         <v>49200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-63700</v>
+        <v>-63500</v>
       </c>
       <c r="E32" s="3">
-        <v>59100</v>
+        <v>58800</v>
       </c>
       <c r="F32" s="3">
-        <v>-82400</v>
+        <v>-82000</v>
       </c>
       <c r="G32" s="3">
-        <v>-20000</v>
+        <v>-19900</v>
       </c>
       <c r="H32" s="3">
-        <v>-45800</v>
+        <v>-45600</v>
       </c>
       <c r="I32" s="3">
-        <v>25600</v>
+        <v>25500</v>
       </c>
       <c r="J32" s="3">
-        <v>302300</v>
+        <v>301200</v>
       </c>
       <c r="K32" s="3">
         <v>66900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>830300</v>
+        <v>827200</v>
       </c>
       <c r="E33" s="3">
-        <v>733300</v>
+        <v>730600</v>
       </c>
       <c r="F33" s="3">
-        <v>92600</v>
+        <v>92200</v>
       </c>
       <c r="G33" s="3">
-        <v>757700</v>
+        <v>754900</v>
       </c>
       <c r="H33" s="3">
-        <v>655400</v>
+        <v>652900</v>
       </c>
       <c r="I33" s="3">
-        <v>669100</v>
+        <v>666600</v>
       </c>
       <c r="J33" s="3">
-        <v>693700</v>
+        <v>691100</v>
       </c>
       <c r="K33" s="3">
         <v>1053100</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>830300</v>
+        <v>827200</v>
       </c>
       <c r="E35" s="3">
-        <v>733300</v>
+        <v>730600</v>
       </c>
       <c r="F35" s="3">
-        <v>92600</v>
+        <v>92200</v>
       </c>
       <c r="G35" s="3">
-        <v>757700</v>
+        <v>754900</v>
       </c>
       <c r="H35" s="3">
-        <v>655400</v>
+        <v>652900</v>
       </c>
       <c r="I35" s="3">
-        <v>669100</v>
+        <v>666600</v>
       </c>
       <c r="J35" s="3">
-        <v>693700</v>
+        <v>691100</v>
       </c>
       <c r="K35" s="3">
         <v>1053100</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1154700</v>
+        <v>1150400</v>
       </c>
       <c r="E41" s="3">
-        <v>514700</v>
+        <v>512800</v>
       </c>
       <c r="F41" s="3">
-        <v>1136700</v>
+        <v>1132500</v>
       </c>
       <c r="G41" s="3">
-        <v>413500</v>
+        <v>412000</v>
       </c>
       <c r="H41" s="3">
-        <v>249700</v>
+        <v>248800</v>
       </c>
       <c r="I41" s="3">
-        <v>452400</v>
+        <v>450800</v>
       </c>
       <c r="J41" s="3">
-        <v>830300</v>
+        <v>827200</v>
       </c>
       <c r="K41" s="3">
         <v>403800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>641000</v>
+        <v>638600</v>
       </c>
       <c r="E42" s="3">
-        <v>543200</v>
+        <v>541200</v>
       </c>
       <c r="F42" s="3">
-        <v>896400</v>
+        <v>893100</v>
       </c>
       <c r="G42" s="3">
-        <v>609600</v>
+        <v>607300</v>
       </c>
       <c r="H42" s="3">
-        <v>103200</v>
+        <v>102900</v>
       </c>
       <c r="I42" s="3">
-        <v>673800</v>
+        <v>671300</v>
       </c>
       <c r="J42" s="3">
-        <v>134400</v>
+        <v>133900</v>
       </c>
       <c r="K42" s="3">
         <v>386000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1016600</v>
+        <v>1012800</v>
       </c>
       <c r="E43" s="3">
-        <v>796200</v>
+        <v>793300</v>
       </c>
       <c r="F43" s="3">
-        <v>772300</v>
+        <v>769400</v>
       </c>
       <c r="G43" s="3">
-        <v>744200</v>
+        <v>741500</v>
       </c>
       <c r="H43" s="3">
-        <v>593900</v>
+        <v>591700</v>
       </c>
       <c r="I43" s="3">
-        <v>755400</v>
+        <v>752600</v>
       </c>
       <c r="J43" s="3">
-        <v>1199000</v>
+        <v>1194500</v>
       </c>
       <c r="K43" s="3">
         <v>1137500</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>205600</v>
+        <v>204800</v>
       </c>
       <c r="E44" s="3">
-        <v>209800</v>
+        <v>209000</v>
       </c>
       <c r="F44" s="3">
-        <v>252200</v>
+        <v>251300</v>
       </c>
       <c r="G44" s="3">
-        <v>135100</v>
+        <v>134600</v>
       </c>
       <c r="H44" s="3">
-        <v>193700</v>
+        <v>193000</v>
       </c>
       <c r="I44" s="3">
-        <v>196200</v>
+        <v>195400</v>
       </c>
       <c r="J44" s="3">
-        <v>203100</v>
+        <v>202300</v>
       </c>
       <c r="K44" s="3">
         <v>224200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>84800</v>
+        <v>84500</v>
       </c>
       <c r="E45" s="3">
-        <v>85700</v>
+        <v>85400</v>
       </c>
       <c r="F45" s="3">
-        <v>111400</v>
+        <v>111000</v>
       </c>
       <c r="G45" s="3">
-        <v>71900</v>
+        <v>71600</v>
       </c>
       <c r="H45" s="3">
-        <v>89700</v>
+        <v>89300</v>
       </c>
       <c r="I45" s="3">
-        <v>72100</v>
+        <v>71800</v>
       </c>
       <c r="J45" s="3">
-        <v>277300</v>
+        <v>276300</v>
       </c>
       <c r="K45" s="3">
         <v>188200</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3547000</v>
+        <v>3533900</v>
       </c>
       <c r="E46" s="3">
-        <v>2630800</v>
+        <v>2621100</v>
       </c>
       <c r="F46" s="3">
-        <v>3636000</v>
+        <v>3622500</v>
       </c>
       <c r="G46" s="3">
-        <v>1974400</v>
+        <v>1967100</v>
       </c>
       <c r="H46" s="3">
-        <v>1230200</v>
+        <v>1225700</v>
       </c>
       <c r="I46" s="3">
-        <v>2149900</v>
+        <v>2142000</v>
       </c>
       <c r="J46" s="3">
-        <v>1907000</v>
+        <v>1900000</v>
       </c>
       <c r="K46" s="3">
         <v>1434300</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1311200</v>
+        <v>1306300</v>
       </c>
       <c r="E47" s="3">
-        <v>1199000</v>
+        <v>1194500</v>
       </c>
       <c r="F47" s="3">
-        <v>921200</v>
+        <v>917800</v>
       </c>
       <c r="G47" s="3">
-        <v>274400</v>
+        <v>273400</v>
       </c>
       <c r="H47" s="3">
-        <v>871200</v>
+        <v>868000</v>
       </c>
       <c r="I47" s="3">
-        <v>980300</v>
+        <v>976600</v>
       </c>
       <c r="J47" s="3">
-        <v>733200</v>
+        <v>730500</v>
       </c>
       <c r="K47" s="3">
         <v>313600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5640500</v>
+        <v>5619600</v>
       </c>
       <c r="E48" s="3">
-        <v>5506500</v>
+        <v>5486100</v>
       </c>
       <c r="F48" s="3">
-        <v>5761200</v>
+        <v>5760100</v>
       </c>
       <c r="G48" s="3">
-        <v>3562100</v>
+        <v>3548900</v>
       </c>
       <c r="H48" s="3">
-        <v>3693400</v>
+        <v>3679700</v>
       </c>
       <c r="I48" s="3">
-        <v>4096900</v>
+        <v>4081800</v>
       </c>
       <c r="J48" s="3">
-        <v>12138500</v>
+        <v>12093600</v>
       </c>
       <c r="K48" s="3">
         <v>7158600</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1628800</v>
+        <v>1622800</v>
       </c>
       <c r="E49" s="3">
-        <v>1502900</v>
+        <v>1497400</v>
       </c>
       <c r="F49" s="3">
-        <v>1751600</v>
+        <v>1724900</v>
       </c>
       <c r="G49" s="3">
-        <v>1536900</v>
+        <v>1531200</v>
       </c>
       <c r="H49" s="3">
-        <v>1471200</v>
+        <v>1465700</v>
       </c>
       <c r="I49" s="3">
-        <v>1474500</v>
+        <v>1469100</v>
       </c>
       <c r="J49" s="3">
-        <v>3999500</v>
+        <v>3984700</v>
       </c>
       <c r="K49" s="3">
         <v>1960800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300100</v>
+        <v>299000</v>
       </c>
       <c r="E52" s="3">
-        <v>300100</v>
+        <v>299000</v>
       </c>
       <c r="F52" s="3">
-        <v>314300</v>
+        <v>313100</v>
       </c>
       <c r="G52" s="3">
-        <v>102700</v>
+        <v>102300</v>
       </c>
       <c r="H52" s="3">
-        <v>95300</v>
+        <v>94900</v>
       </c>
       <c r="I52" s="3">
-        <v>132000</v>
+        <v>131600</v>
       </c>
       <c r="J52" s="3">
-        <v>403900</v>
+        <v>402400</v>
       </c>
       <c r="K52" s="3">
         <v>117400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12427600</v>
+        <v>12381700</v>
       </c>
       <c r="E54" s="3">
-        <v>11139300</v>
+        <v>11098100</v>
       </c>
       <c r="F54" s="3">
-        <v>12384200</v>
+        <v>12338400</v>
       </c>
       <c r="G54" s="3">
-        <v>7450500</v>
+        <v>7422900</v>
       </c>
       <c r="H54" s="3">
-        <v>7361200</v>
+        <v>7334000</v>
       </c>
       <c r="I54" s="3">
-        <v>8833700</v>
+        <v>8801000</v>
       </c>
       <c r="J54" s="3">
-        <v>8102600</v>
+        <v>8072600</v>
       </c>
       <c r="K54" s="3">
         <v>6307700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>757300</v>
+        <v>754500</v>
       </c>
       <c r="E57" s="3">
-        <v>970800</v>
+        <v>967300</v>
       </c>
       <c r="F57" s="3">
-        <v>725000</v>
+        <v>722300</v>
       </c>
       <c r="G57" s="3">
-        <v>639700</v>
+        <v>637300</v>
       </c>
       <c r="H57" s="3">
-        <v>560700</v>
+        <v>558600</v>
       </c>
       <c r="I57" s="3">
-        <v>780900</v>
+        <v>778000</v>
       </c>
       <c r="J57" s="3">
-        <v>710900</v>
+        <v>708300</v>
       </c>
       <c r="K57" s="3">
         <v>517800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>680100</v>
+        <v>677600</v>
       </c>
       <c r="E58" s="3">
-        <v>1175900</v>
+        <v>1171500</v>
       </c>
       <c r="F58" s="3">
-        <v>255200</v>
+        <v>254200</v>
       </c>
       <c r="G58" s="3">
-        <v>871700</v>
+        <v>868500</v>
       </c>
       <c r="H58" s="3">
-        <v>638200</v>
+        <v>635900</v>
       </c>
       <c r="I58" s="3">
-        <v>726000</v>
+        <v>723400</v>
       </c>
       <c r="J58" s="3">
-        <v>866900</v>
+        <v>863700</v>
       </c>
       <c r="K58" s="3">
         <v>553000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3005400</v>
+        <v>2994300</v>
       </c>
       <c r="E59" s="3">
-        <v>2564400</v>
+        <v>2554900</v>
       </c>
       <c r="F59" s="3">
-        <v>3014600</v>
+        <v>3003400</v>
       </c>
       <c r="G59" s="3">
-        <v>606800</v>
+        <v>604600</v>
       </c>
       <c r="H59" s="3">
-        <v>525500</v>
+        <v>523500</v>
       </c>
       <c r="I59" s="3">
-        <v>628000</v>
+        <v>625700</v>
       </c>
       <c r="J59" s="3">
-        <v>1328300</v>
+        <v>1323400</v>
       </c>
       <c r="K59" s="3">
         <v>1140100</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4442900</v>
+        <v>4426400</v>
       </c>
       <c r="E60" s="3">
-        <v>4711100</v>
+        <v>4693700</v>
       </c>
       <c r="F60" s="3">
-        <v>3994800</v>
+        <v>3980000</v>
       </c>
       <c r="G60" s="3">
-        <v>2118200</v>
+        <v>2110400</v>
       </c>
       <c r="H60" s="3">
-        <v>1724400</v>
+        <v>1718000</v>
       </c>
       <c r="I60" s="3">
-        <v>2134900</v>
+        <v>2127000</v>
       </c>
       <c r="J60" s="3">
-        <v>1884400</v>
+        <v>1877400</v>
       </c>
       <c r="K60" s="3">
         <v>1338800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7162600</v>
+        <v>7136100</v>
       </c>
       <c r="E61" s="3">
-        <v>5565500</v>
+        <v>5545000</v>
       </c>
       <c r="F61" s="3">
-        <v>6892700</v>
+        <v>6867200</v>
       </c>
       <c r="G61" s="3">
-        <v>3232600</v>
+        <v>3220600</v>
       </c>
       <c r="H61" s="3">
-        <v>3205800</v>
+        <v>3193900</v>
       </c>
       <c r="I61" s="3">
-        <v>3950100</v>
+        <v>3935500</v>
       </c>
       <c r="J61" s="3">
-        <v>3360400</v>
+        <v>3348000</v>
       </c>
       <c r="K61" s="3">
         <v>2541200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>380200</v>
+        <v>378800</v>
       </c>
       <c r="E62" s="3">
-        <v>370500</v>
+        <v>369200</v>
       </c>
       <c r="F62" s="3">
-        <v>448100</v>
+        <v>446500</v>
       </c>
       <c r="G62" s="3">
-        <v>420400</v>
+        <v>418900</v>
       </c>
       <c r="H62" s="3">
-        <v>484900</v>
+        <v>483100</v>
       </c>
       <c r="I62" s="3">
-        <v>472200</v>
+        <v>470500</v>
       </c>
       <c r="J62" s="3">
-        <v>576300</v>
+        <v>574200</v>
       </c>
       <c r="K62" s="3">
         <v>486000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12039600</v>
+        <v>11995100</v>
       </c>
       <c r="E66" s="3">
-        <v>10692200</v>
+        <v>10652600</v>
       </c>
       <c r="F66" s="3">
-        <v>11501700</v>
+        <v>11459200</v>
       </c>
       <c r="G66" s="3">
-        <v>5826400</v>
+        <v>5804800</v>
       </c>
       <c r="H66" s="3">
-        <v>5478800</v>
+        <v>5458500</v>
       </c>
       <c r="I66" s="3">
-        <v>6668900</v>
+        <v>6644300</v>
       </c>
       <c r="J66" s="3">
-        <v>5820000</v>
+        <v>5798500</v>
       </c>
       <c r="K66" s="3">
         <v>4296300</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1398000</v>
+        <v>1392800</v>
       </c>
       <c r="E72" s="3">
-        <v>1252200</v>
+        <v>1247500</v>
       </c>
       <c r="F72" s="3">
-        <v>1485600</v>
+        <v>1480100</v>
       </c>
       <c r="G72" s="3">
-        <v>1922400</v>
+        <v>1915300</v>
       </c>
       <c r="H72" s="3">
-        <v>1887300</v>
+        <v>1880300</v>
       </c>
       <c r="I72" s="3">
-        <v>2492800</v>
+        <v>2483500</v>
       </c>
       <c r="J72" s="3">
-        <v>7408000</v>
+        <v>7380600</v>
       </c>
       <c r="K72" s="3">
         <v>4781100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>388000</v>
+        <v>386600</v>
       </c>
       <c r="E76" s="3">
-        <v>447100</v>
+        <v>445400</v>
       </c>
       <c r="F76" s="3">
-        <v>882500</v>
+        <v>879200</v>
       </c>
       <c r="G76" s="3">
-        <v>1624100</v>
+        <v>1618100</v>
       </c>
       <c r="H76" s="3">
-        <v>1882500</v>
+        <v>1875500</v>
       </c>
       <c r="I76" s="3">
-        <v>2164800</v>
+        <v>2156700</v>
       </c>
       <c r="J76" s="3">
-        <v>2282600</v>
+        <v>2274100</v>
       </c>
       <c r="K76" s="3">
         <v>2011400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>830300</v>
+        <v>827200</v>
       </c>
       <c r="E81" s="3">
-        <v>733300</v>
+        <v>730600</v>
       </c>
       <c r="F81" s="3">
-        <v>92600</v>
+        <v>92200</v>
       </c>
       <c r="G81" s="3">
-        <v>757700</v>
+        <v>754900</v>
       </c>
       <c r="H81" s="3">
-        <v>655400</v>
+        <v>652900</v>
       </c>
       <c r="I81" s="3">
-        <v>669100</v>
+        <v>666600</v>
       </c>
       <c r="J81" s="3">
-        <v>693700</v>
+        <v>691100</v>
       </c>
       <c r="K81" s="3">
         <v>1053100</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1354800</v>
+        <v>1349800</v>
       </c>
       <c r="E83" s="3">
-        <v>1445900</v>
+        <v>1440600</v>
       </c>
       <c r="F83" s="3">
-        <v>1414000</v>
+        <v>1408800</v>
       </c>
       <c r="G83" s="3">
-        <v>1080400</v>
+        <v>1076400</v>
       </c>
       <c r="H83" s="3">
-        <v>1125700</v>
+        <v>1121500</v>
       </c>
       <c r="I83" s="3">
-        <v>1115000</v>
+        <v>1110900</v>
       </c>
       <c r="J83" s="3">
-        <v>1014300</v>
+        <v>1010500</v>
       </c>
       <c r="K83" s="3">
         <v>966200</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2102500</v>
+        <v>2094700</v>
       </c>
       <c r="E89" s="3">
-        <v>1441900</v>
+        <v>1436600</v>
       </c>
       <c r="F89" s="3">
-        <v>2087400</v>
+        <v>2079600</v>
       </c>
       <c r="G89" s="3">
-        <v>1955500</v>
+        <v>1948300</v>
       </c>
       <c r="H89" s="3">
-        <v>1765200</v>
+        <v>1758700</v>
       </c>
       <c r="I89" s="3">
-        <v>1948100</v>
+        <v>1940900</v>
       </c>
       <c r="J89" s="3">
-        <v>2147300</v>
+        <v>2139300</v>
       </c>
       <c r="K89" s="3">
         <v>2102200</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-895800</v>
+        <v>-892500</v>
       </c>
       <c r="E91" s="3">
-        <v>-925600</v>
+        <v>-922200</v>
       </c>
       <c r="F91" s="3">
-        <v>-875200</v>
+        <v>-871900</v>
       </c>
       <c r="G91" s="3">
-        <v>-721500</v>
+        <v>-718800</v>
       </c>
       <c r="H91" s="3">
-        <v>-750900</v>
+        <v>-748100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1036600</v>
+        <v>-1032800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1998500</v>
+        <v>-1991100</v>
       </c>
       <c r="K91" s="3">
         <v>-885700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1096900</v>
+        <v>-1092900</v>
       </c>
       <c r="E94" s="3">
-        <v>-399600</v>
+        <v>-398100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1059800</v>
+        <v>-1055900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1102000</v>
+        <v>-1097900</v>
       </c>
       <c r="H94" s="3">
-        <v>-774700</v>
+        <v>-771900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1965200</v>
+        <v>-1957900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1419700</v>
+        <v>-1414500</v>
       </c>
       <c r="K94" s="3">
         <v>-1275100</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1013000</v>
+        <v>-1009200</v>
       </c>
       <c r="E96" s="3">
-        <v>-709900</v>
+        <v>-707200</v>
       </c>
       <c r="F96" s="3">
-        <v>-676700</v>
+        <v>-674200</v>
       </c>
       <c r="G96" s="3">
-        <v>-699800</v>
+        <v>-697200</v>
       </c>
       <c r="H96" s="3">
-        <v>-713900</v>
+        <v>-711300</v>
       </c>
       <c r="I96" s="3">
-        <v>-686600</v>
+        <v>-684100</v>
       </c>
       <c r="J96" s="3">
-        <v>-674900</v>
+        <v>-672400</v>
       </c>
       <c r="K96" s="3">
         <v>-523700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-369900</v>
+        <v>-368500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1628500</v>
+        <v>-1622400</v>
       </c>
       <c r="F100" s="3">
-        <v>-350500</v>
+        <v>-349200</v>
       </c>
       <c r="G100" s="3">
-        <v>-682000</v>
+        <v>-679500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1122700</v>
+        <v>-1118500</v>
       </c>
       <c r="I100" s="3">
-        <v>-373100</v>
+        <v>-371700</v>
       </c>
       <c r="J100" s="3">
-        <v>-449000</v>
+        <v>-447400</v>
       </c>
       <c r="K100" s="3">
         <v>-727400</v>
@@ -3714,22 +3714,22 @@
         <v>5200</v>
       </c>
       <c r="E101" s="3">
-        <v>-35900</v>
+        <v>-35800</v>
       </c>
       <c r="F101" s="3">
-        <v>46100</v>
+        <v>46000</v>
       </c>
       <c r="G101" s="3">
         <v>-7700</v>
       </c>
       <c r="H101" s="3">
-        <v>-70600</v>
+        <v>-70300</v>
       </c>
       <c r="I101" s="3">
         <v>10300</v>
       </c>
       <c r="J101" s="3">
-        <v>137800</v>
+        <v>137300</v>
       </c>
       <c r="K101" s="3">
         <v>13700</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>640800</v>
+        <v>638500</v>
       </c>
       <c r="E102" s="3">
-        <v>-622000</v>
+        <v>-619700</v>
       </c>
       <c r="F102" s="3">
-        <v>723200</v>
+        <v>720500</v>
       </c>
       <c r="G102" s="3">
-        <v>163800</v>
+        <v>163200</v>
       </c>
       <c r="H102" s="3">
-        <v>-202700</v>
+        <v>-202000</v>
       </c>
       <c r="I102" s="3">
-        <v>-379900</v>
+        <v>-378500</v>
       </c>
       <c r="J102" s="3">
-        <v>416400</v>
+        <v>414800</v>
       </c>
       <c r="K102" s="3">
         <v>113400</v>
